--- a/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
+++ b/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675070100000</v>
+        <v>1675070040000</v>
       </c>
       <c r="B2">
-        <v>9760900</v>
+        <v>2968000</v>
       </c>
       <c r="C2">
-        <v>7654500</v>
+        <v>2789500</v>
       </c>
       <c r="D2">
-        <v>3501300</v>
+        <v>3377600</v>
       </c>
       <c r="E2">
-        <v>179615056000</v>
+        <v>58513569000</v>
       </c>
       <c r="F2">
-        <v>110732057000</v>
+        <v>43704459000</v>
       </c>
       <c r="G2">
-        <v>42390503000</v>
+        <v>40794478000</v>
       </c>
       <c r="H2">
-        <v>20916700</v>
+        <v>9135100</v>
       </c>
       <c r="I2">
-        <v>332737616000</v>
+        <v>143012506000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-30T09:15:00.000Z</v>
+        <v>2023-01-30T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>332737616000</v>
+        <v>143012506000</v>
       </c>
       <c r="L2">
-        <v>20916700</v>
+        <v>9135100</v>
       </c>
       <c r="M2">
-        <v>-2106400</v>
+        <v>-178500</v>
       </c>
       <c r="N2">
-        <v>-68882999000</v>
+        <v>-14809110000</v>
       </c>
       <c r="O2">
-        <v>-2106400</v>
+        <v>-178500</v>
       </c>
       <c r="P2">
-        <v>-68882999000</v>
+        <v>-14809110000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675070400000</v>
+        <v>1675070160000</v>
       </c>
       <c r="B3">
-        <v>12893300</v>
+        <v>2667000</v>
       </c>
       <c r="C3">
-        <v>5551300</v>
+        <v>2521300</v>
       </c>
       <c r="D3">
-        <v>188900</v>
+        <v>51500</v>
       </c>
       <c r="E3">
-        <v>206291630000</v>
+        <v>47307828000</v>
       </c>
       <c r="F3">
-        <v>83807270000</v>
+        <v>36110455000</v>
       </c>
       <c r="G3">
-        <v>3135920000</v>
+        <v>595259000</v>
       </c>
       <c r="H3">
-        <v>18633500</v>
+        <v>5239800</v>
       </c>
       <c r="I3">
-        <v>293234820000</v>
+        <v>84013542000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-30T09:20:00.000Z</v>
+        <v>2023-01-30T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>625972436000</v>
+        <v>227026048000</v>
       </c>
       <c r="L3">
-        <v>39550200</v>
+        <v>14374900</v>
       </c>
       <c r="M3">
-        <v>-7342000</v>
+        <v>-145700</v>
       </c>
       <c r="N3">
-        <v>-122484360000</v>
+        <v>-11197373000</v>
       </c>
       <c r="O3">
-        <v>-9448400</v>
+        <v>-324200</v>
       </c>
       <c r="P3">
-        <v>-191367359000</v>
+        <v>-26006483000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675070700000</v>
+        <v>1675070280000</v>
       </c>
       <c r="B4">
-        <v>10155100</v>
+        <v>4125900</v>
       </c>
       <c r="C4">
-        <v>11387900</v>
+        <v>2343700</v>
       </c>
       <c r="D4">
-        <v>216000</v>
+        <v>72200</v>
       </c>
       <c r="E4">
-        <v>160217194000</v>
+        <v>73793659000</v>
       </c>
       <c r="F4">
-        <v>167934867000</v>
+        <v>30917143000</v>
       </c>
       <c r="G4">
-        <v>3313548000</v>
+        <v>1000766000</v>
       </c>
       <c r="H4">
-        <v>21759000</v>
+        <v>6541800</v>
       </c>
       <c r="I4">
-        <v>331465609000</v>
+        <v>105711568000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-30T09:25:00.000Z</v>
+        <v>2023-01-30T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>957438045000</v>
+        <v>332737616000</v>
       </c>
       <c r="L4">
-        <v>61309200</v>
+        <v>20916700</v>
       </c>
       <c r="M4">
-        <v>1232800</v>
+        <v>-1782200</v>
       </c>
       <c r="N4">
-        <v>7717673000</v>
+        <v>-42876516000</v>
       </c>
       <c r="O4">
-        <v>-8215600</v>
+        <v>-2106400</v>
       </c>
       <c r="P4">
-        <v>-183649686000</v>
+        <v>-68882999000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675071000000</v>
+        <v>1675070400000</v>
       </c>
       <c r="B5">
-        <v>5852000</v>
+        <v>5068300</v>
       </c>
       <c r="C5">
-        <v>16257400</v>
+        <v>2319700</v>
       </c>
       <c r="D5">
-        <v>582800</v>
+        <v>89300</v>
       </c>
       <c r="E5">
-        <v>105142271000</v>
+        <v>80190017000</v>
       </c>
       <c r="F5">
-        <v>263482689000</v>
+        <v>35005297000</v>
       </c>
       <c r="G5">
-        <v>5739338000</v>
+        <v>1533487000</v>
       </c>
       <c r="H5">
-        <v>22692200</v>
+        <v>7477300</v>
       </c>
       <c r="I5">
-        <v>374364298000</v>
+        <v>116728801000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-30T09:30:00.000Z</v>
+        <v>2023-01-30T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1331802343000</v>
+        <v>449466417000</v>
       </c>
       <c r="L5">
-        <v>84001400</v>
+        <v>28394000</v>
       </c>
       <c r="M5">
-        <v>10405400</v>
+        <v>-2748600</v>
       </c>
       <c r="N5">
-        <v>158340418000</v>
+        <v>-45184720000</v>
       </c>
       <c r="O5">
-        <v>2189800</v>
+        <v>-4855000</v>
       </c>
       <c r="P5">
-        <v>-25309268000</v>
+        <v>-114067719000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675071300000</v>
+        <v>1675070520000</v>
       </c>
       <c r="B6">
-        <v>7201500</v>
+        <v>5660600</v>
       </c>
       <c r="C6">
-        <v>15028800</v>
+        <v>2134000</v>
       </c>
       <c r="D6">
-        <v>236700</v>
+        <v>73300</v>
       </c>
       <c r="E6">
-        <v>114548960000</v>
+        <v>92059527000</v>
       </c>
       <c r="F6">
-        <v>243834097000</v>
+        <v>31367515000</v>
       </c>
       <c r="G6">
-        <v>3059975000</v>
+        <v>1064289000</v>
       </c>
       <c r="H6">
-        <v>22467000</v>
+        <v>7867900</v>
       </c>
       <c r="I6">
-        <v>361443032000</v>
+        <v>124491331000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-30T09:35:00.000Z</v>
+        <v>2023-01-30T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1693245375000</v>
+        <v>573957748000</v>
       </c>
       <c r="L6">
-        <v>106468400</v>
+        <v>36261900</v>
       </c>
       <c r="M6">
-        <v>7827300</v>
+        <v>-3526600</v>
       </c>
       <c r="N6">
-        <v>129285137000</v>
+        <v>-60692012000</v>
       </c>
       <c r="O6">
-        <v>10017100</v>
+        <v>-8381600</v>
       </c>
       <c r="P6">
-        <v>103975869000</v>
+        <v>-174759731000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675071600000</v>
+        <v>1675070640000</v>
       </c>
       <c r="B7">
-        <v>9637100</v>
+        <v>4773100</v>
       </c>
       <c r="C7">
-        <v>7774100</v>
+        <v>2668800</v>
       </c>
       <c r="D7">
-        <v>156700</v>
+        <v>65100</v>
       </c>
       <c r="E7">
-        <v>179076651000</v>
+        <v>77236626000</v>
       </c>
       <c r="F7">
-        <v>124561102000</v>
+        <v>41004013000</v>
       </c>
       <c r="G7">
-        <v>2700377000</v>
+        <v>1093742000</v>
       </c>
       <c r="H7">
-        <v>17567900</v>
+        <v>7507000</v>
       </c>
       <c r="I7">
-        <v>306338130000</v>
+        <v>119334381000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-30T09:40:00.000Z</v>
+        <v>2023-01-30T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1999583505000</v>
+        <v>693292129000</v>
       </c>
       <c r="L7">
-        <v>124036300</v>
+        <v>43768900</v>
       </c>
       <c r="M7">
-        <v>-1863000</v>
+        <v>-2104300</v>
       </c>
       <c r="N7">
-        <v>-54515549000</v>
+        <v>-36232613000</v>
       </c>
       <c r="O7">
-        <v>8154100</v>
+        <v>-10485900</v>
       </c>
       <c r="P7">
-        <v>49460320000</v>
+        <v>-210992344000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675071900000</v>
+        <v>1675070760000</v>
       </c>
       <c r="B8">
-        <v>6745400</v>
+        <v>4964700</v>
       </c>
       <c r="C8">
-        <v>4242200</v>
+        <v>4069800</v>
       </c>
       <c r="D8">
-        <v>57200</v>
+        <v>127700</v>
       </c>
       <c r="E8">
-        <v>108766447000</v>
+        <v>74545591000</v>
       </c>
       <c r="F8">
-        <v>68869122000</v>
+        <v>57836771000</v>
       </c>
       <c r="G8">
-        <v>735532000</v>
+        <v>1843906000</v>
       </c>
       <c r="H8">
-        <v>11044800</v>
+        <v>9162200</v>
       </c>
       <c r="I8">
-        <v>178371101000</v>
+        <v>134226268000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-30T09:45:00.000Z</v>
+        <v>2023-01-30T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>2177954606000</v>
+        <v>827518397000</v>
       </c>
       <c r="L8">
-        <v>135081100</v>
+        <v>52931100</v>
       </c>
       <c r="M8">
-        <v>-2503200</v>
+        <v>-894900</v>
       </c>
       <c r="N8">
-        <v>-39897325000</v>
+        <v>-16708820000</v>
       </c>
       <c r="O8">
-        <v>5650900</v>
+        <v>-11380800</v>
       </c>
       <c r="P8">
-        <v>9562995000</v>
+        <v>-227701164000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675072200000</v>
+        <v>1675070880000</v>
       </c>
       <c r="B9">
-        <v>7570400</v>
+        <v>2581700</v>
       </c>
       <c r="C9">
-        <v>5383700</v>
+        <v>5746900</v>
       </c>
       <c r="D9">
-        <v>80200</v>
+        <v>49500</v>
       </c>
       <c r="E9">
-        <v>127348858000</v>
+        <v>42477063000</v>
       </c>
       <c r="F9">
-        <v>87734544000</v>
+        <v>86528541000</v>
       </c>
       <c r="G9">
-        <v>911716000</v>
+        <v>914044000</v>
       </c>
       <c r="H9">
-        <v>13034300</v>
+        <v>8378100</v>
       </c>
       <c r="I9">
-        <v>215995118000</v>
+        <v>129919648000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-30T09:50:00.000Z</v>
+        <v>2023-01-30T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2393949724000</v>
+        <v>957438045000</v>
       </c>
       <c r="L9">
-        <v>148115400</v>
+        <v>61309200</v>
       </c>
       <c r="M9">
-        <v>-2186700</v>
+        <v>3165200</v>
       </c>
       <c r="N9">
-        <v>-39614314000</v>
+        <v>44051478000</v>
       </c>
       <c r="O9">
-        <v>3464200</v>
+        <v>-8215600</v>
       </c>
       <c r="P9">
-        <v>-30051319000</v>
+        <v>-183649686000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675072500000</v>
+        <v>1675071000000</v>
       </c>
       <c r="B10">
-        <v>4646400</v>
+        <v>1638700</v>
       </c>
       <c r="C10">
-        <v>9787200</v>
+        <v>6551900</v>
       </c>
       <c r="D10">
-        <v>72300</v>
+        <v>400300</v>
       </c>
       <c r="E10">
-        <v>75381901000</v>
+        <v>28614623000</v>
       </c>
       <c r="F10">
-        <v>170290552000</v>
+        <v>104681156000</v>
       </c>
       <c r="G10">
-        <v>1069652000</v>
+        <v>2888785000</v>
       </c>
       <c r="H10">
-        <v>14505900</v>
+        <v>8590900</v>
       </c>
       <c r="I10">
-        <v>246742105000</v>
+        <v>136184564000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-30T09:55:00.000Z</v>
+        <v>2023-01-30T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2640691829000</v>
+        <v>1093622609000</v>
       </c>
       <c r="L10">
-        <v>162621300</v>
+        <v>69900100</v>
       </c>
       <c r="M10">
-        <v>5140800</v>
+        <v>4913200</v>
       </c>
       <c r="N10">
-        <v>94908651000</v>
+        <v>76066533000</v>
       </c>
       <c r="O10">
-        <v>8605000</v>
+        <v>-3302400</v>
       </c>
       <c r="P10">
-        <v>64857332000</v>
+        <v>-107583153000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675072800000</v>
+        <v>1675071120000</v>
       </c>
       <c r="B11">
-        <v>5244600</v>
+        <v>2786900</v>
       </c>
       <c r="C11">
-        <v>15282700</v>
+        <v>7397300</v>
       </c>
       <c r="D11">
-        <v>77400</v>
+        <v>60000</v>
       </c>
       <c r="E11">
-        <v>87637131000</v>
+        <v>54112427000</v>
       </c>
       <c r="F11">
-        <v>241290112000</v>
+        <v>118500073000</v>
       </c>
       <c r="G11">
-        <v>1400816000</v>
+        <v>1447141000</v>
       </c>
       <c r="H11">
-        <v>20604700</v>
+        <v>10244200</v>
       </c>
       <c r="I11">
-        <v>330328059000</v>
+        <v>174059641000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-30T10:00:00.000Z</v>
+        <v>2023-01-30T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2971019888000</v>
+        <v>1267682250000</v>
       </c>
       <c r="L11">
-        <v>183226000</v>
+        <v>80144300</v>
       </c>
       <c r="M11">
-        <v>10038100</v>
+        <v>4610400</v>
       </c>
       <c r="N11">
-        <v>153652981000</v>
+        <v>64387646000</v>
       </c>
       <c r="O11">
-        <v>18643100</v>
+        <v>1308000</v>
       </c>
       <c r="P11">
-        <v>218510313000</v>
+        <v>-43195507000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675073100000</v>
+        <v>1675071240000</v>
       </c>
       <c r="B12">
-        <v>5794400</v>
+        <v>3061800</v>
       </c>
       <c r="C12">
-        <v>11190300</v>
+        <v>4877800</v>
       </c>
       <c r="D12">
-        <v>30700</v>
+        <v>272100</v>
       </c>
       <c r="E12">
-        <v>94145001000</v>
+        <v>49028816000</v>
       </c>
       <c r="F12">
-        <v>163472360000</v>
+        <v>82809897000</v>
       </c>
       <c r="G12">
-        <v>588042000</v>
+        <v>2643658000</v>
       </c>
       <c r="H12">
-        <v>17015400</v>
+        <v>8211700</v>
       </c>
       <c r="I12">
-        <v>258205403000</v>
+        <v>134482371000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-30T10:05:00.000Z</v>
+        <v>2023-01-30T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>3229225291000</v>
+        <v>1402164621000</v>
       </c>
       <c r="L12">
-        <v>200241400</v>
+        <v>88356000</v>
       </c>
       <c r="M12">
-        <v>5395900</v>
+        <v>1816000</v>
       </c>
       <c r="N12">
-        <v>69327359000</v>
+        <v>33781081000</v>
       </c>
       <c r="O12">
-        <v>24039000</v>
+        <v>3124000</v>
       </c>
       <c r="P12">
-        <v>287837672000</v>
+        <v>-9414426000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675073400000</v>
+        <v>1675071360000</v>
       </c>
       <c r="B13">
-        <v>8140600</v>
+        <v>2562800</v>
       </c>
       <c r="C13">
-        <v>7781300</v>
+        <v>6906700</v>
       </c>
       <c r="D13">
-        <v>60600</v>
+        <v>45000</v>
       </c>
       <c r="E13">
-        <v>145278255000</v>
+        <v>42199933000</v>
       </c>
       <c r="F13">
-        <v>126529108000</v>
+        <v>113687566000</v>
       </c>
       <c r="G13">
-        <v>1125657000</v>
+        <v>1118739000</v>
       </c>
       <c r="H13">
-        <v>15982500</v>
+        <v>9514500</v>
       </c>
       <c r="I13">
-        <v>272933020000</v>
+        <v>157006238000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-30T10:10:00.000Z</v>
+        <v>2023-01-30T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>3502158311000</v>
+        <v>1559170859000</v>
       </c>
       <c r="L13">
-        <v>216223900</v>
+        <v>97870500</v>
       </c>
       <c r="M13">
-        <v>-359300</v>
+        <v>4343900</v>
       </c>
       <c r="N13">
-        <v>-18749147000</v>
+        <v>71487633000</v>
       </c>
       <c r="O13">
-        <v>23679700</v>
+        <v>7467900</v>
       </c>
       <c r="P13">
-        <v>269088525000</v>
+        <v>62073207000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675073700000</v>
+        <v>1675071480000</v>
       </c>
       <c r="B14">
-        <v>8321300</v>
+        <v>3003300</v>
       </c>
       <c r="C14">
-        <v>3975200</v>
+        <v>5552500</v>
       </c>
       <c r="D14">
-        <v>50600</v>
+        <v>42100</v>
       </c>
       <c r="E14">
-        <v>140076186000</v>
+        <v>45735432000</v>
       </c>
       <c r="F14">
-        <v>71749859000</v>
+        <v>87638094000</v>
       </c>
       <c r="G14">
-        <v>1004832000</v>
+        <v>700990000</v>
       </c>
       <c r="H14">
-        <v>12347100</v>
+        <v>8597900</v>
       </c>
       <c r="I14">
-        <v>212830877000</v>
+        <v>134074516000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-30T10:15:00.000Z</v>
+        <v>2023-01-30T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3714989188000</v>
+        <v>1693245375000</v>
       </c>
       <c r="L14">
-        <v>228571000</v>
+        <v>106468400</v>
       </c>
       <c r="M14">
-        <v>-4346100</v>
+        <v>2549200</v>
       </c>
       <c r="N14">
-        <v>-68326327000</v>
+        <v>41902662000</v>
       </c>
       <c r="O14">
-        <v>19333600</v>
+        <v>10017100</v>
       </c>
       <c r="P14">
-        <v>200762198000</v>
+        <v>103975869000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675074000000</v>
+        <v>1675071600000</v>
       </c>
       <c r="B15">
-        <v>4667200</v>
+        <v>4191800</v>
       </c>
       <c r="C15">
-        <v>3283100</v>
+        <v>3580800</v>
       </c>
       <c r="D15">
-        <v>43700</v>
+        <v>58100</v>
       </c>
       <c r="E15">
-        <v>77590613000</v>
+        <v>86349409000</v>
       </c>
       <c r="F15">
-        <v>52509196000</v>
+        <v>54902508000</v>
       </c>
       <c r="G15">
-        <v>1415676000</v>
+        <v>932775000</v>
       </c>
       <c r="H15">
-        <v>7994000</v>
+        <v>7830700</v>
       </c>
       <c r="I15">
-        <v>131515485000</v>
+        <v>142184692000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-30T10:20:00.000Z</v>
+        <v>2023-01-30T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3846504673000</v>
+        <v>1835430067000</v>
       </c>
       <c r="L15">
-        <v>236565000</v>
+        <v>114299100</v>
       </c>
       <c r="M15">
-        <v>-1384100</v>
+        <v>-611000</v>
       </c>
       <c r="N15">
-        <v>-25081417000</v>
+        <v>-31446901000</v>
       </c>
       <c r="O15">
-        <v>17949500</v>
+        <v>9406100</v>
       </c>
       <c r="P15">
-        <v>175680781000</v>
+        <v>72528968000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675074300000</v>
+        <v>1675071720000</v>
       </c>
       <c r="B16">
-        <v>6314300</v>
+        <v>4065800</v>
       </c>
       <c r="C16">
-        <v>3539800</v>
+        <v>3381900</v>
       </c>
       <c r="D16">
-        <v>52700</v>
+        <v>75600</v>
       </c>
       <c r="E16">
-        <v>110215581000</v>
+        <v>68570257000</v>
       </c>
       <c r="F16">
-        <v>60986121000</v>
+        <v>54248309000</v>
       </c>
       <c r="G16">
-        <v>1359635000</v>
+        <v>1453749000</v>
       </c>
       <c r="H16">
-        <v>9906800</v>
+        <v>7523300</v>
       </c>
       <c r="I16">
-        <v>172561337000</v>
+        <v>124272315000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-30T10:25:00.000Z</v>
+        <v>2023-01-30T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>4019066010000</v>
+        <v>1959702382000</v>
       </c>
       <c r="L16">
-        <v>246471800</v>
+        <v>121822400</v>
       </c>
       <c r="M16">
-        <v>-2774500</v>
+        <v>-683900</v>
       </c>
       <c r="N16">
-        <v>-49229460000</v>
+        <v>-14321948000</v>
       </c>
       <c r="O16">
-        <v>15175000</v>
+        <v>8722200</v>
       </c>
       <c r="P16">
-        <v>126451321000</v>
+        <v>58207020000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675074600000</v>
+        <v>1675071840000</v>
       </c>
       <c r="B17">
-        <v>5328100</v>
+        <v>2578700</v>
       </c>
       <c r="C17">
-        <v>4864300</v>
+        <v>1609900</v>
       </c>
       <c r="D17">
-        <v>39000</v>
+        <v>47400</v>
       </c>
       <c r="E17">
-        <v>99815289000</v>
+        <v>43836615000</v>
       </c>
       <c r="F17">
-        <v>87774131000</v>
+        <v>29800686000</v>
       </c>
       <c r="G17">
-        <v>735015000</v>
+        <v>639789000</v>
       </c>
       <c r="H17">
-        <v>10231400</v>
+        <v>4236000</v>
       </c>
       <c r="I17">
-        <v>188324435000</v>
+        <v>74277090000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-30T10:30:00.000Z</v>
+        <v>2023-01-30T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>4207390445000</v>
+        <v>2033979472000</v>
       </c>
       <c r="L17">
-        <v>256703200</v>
+        <v>126058400</v>
       </c>
       <c r="M17">
-        <v>-463800</v>
+        <v>-968800</v>
       </c>
       <c r="N17">
-        <v>-12041158000</v>
+        <v>-14035929000</v>
       </c>
       <c r="O17">
-        <v>14711200</v>
+        <v>7753400</v>
       </c>
       <c r="P17">
-        <v>114410163000</v>
+        <v>44171091000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675074900000</v>
+        <v>1675071960000</v>
       </c>
       <c r="B18">
-        <v>3056500</v>
+        <v>2669700</v>
       </c>
       <c r="C18">
-        <v>5006400</v>
+        <v>1601100</v>
       </c>
       <c r="D18">
-        <v>13300</v>
+        <v>12100</v>
       </c>
       <c r="E18">
-        <v>48337394000</v>
+        <v>43189738000</v>
       </c>
       <c r="F18">
-        <v>81754603000</v>
+        <v>24116733000</v>
       </c>
       <c r="G18">
-        <v>352889000</v>
+        <v>146836000</v>
       </c>
       <c r="H18">
-        <v>8076200</v>
+        <v>4282900</v>
       </c>
       <c r="I18">
-        <v>130444886000</v>
+        <v>67453307000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-30T10:35:00.000Z</v>
+        <v>2023-01-30T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>4337835331000</v>
+        <v>2101432779000</v>
       </c>
       <c r="L18">
-        <v>264779400</v>
+        <v>130341300</v>
       </c>
       <c r="M18">
-        <v>1949900</v>
+        <v>-1068600</v>
       </c>
       <c r="N18">
-        <v>33417209000</v>
+        <v>-19073005000</v>
       </c>
       <c r="O18">
-        <v>16661100</v>
+        <v>6684800</v>
       </c>
       <c r="P18">
-        <v>147827372000</v>
+        <v>25098086000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675075200000</v>
+        <v>1675072080000</v>
       </c>
       <c r="B19">
-        <v>5833000</v>
+        <v>2876500</v>
       </c>
       <c r="C19">
-        <v>3810200</v>
+        <v>1842600</v>
       </c>
       <c r="D19">
-        <v>86700</v>
+        <v>20700</v>
       </c>
       <c r="E19">
-        <v>87993726000</v>
+        <v>45897079000</v>
       </c>
       <c r="F19">
-        <v>53395709000</v>
+        <v>30361988000</v>
       </c>
       <c r="G19">
-        <v>1066362000</v>
+        <v>262760000</v>
       </c>
       <c r="H19">
-        <v>9729900</v>
+        <v>4739800</v>
       </c>
       <c r="I19">
-        <v>142455797000</v>
+        <v>76521827000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-30T10:40:00.000Z</v>
+        <v>2023-01-30T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4480291128000</v>
+        <v>2177954606000</v>
       </c>
       <c r="L19">
-        <v>274509300</v>
+        <v>135081100</v>
       </c>
       <c r="M19">
-        <v>-2022800</v>
+        <v>-1033900</v>
       </c>
       <c r="N19">
-        <v>-34598017000</v>
+        <v>-15535091000</v>
       </c>
       <c r="O19">
-        <v>14638300</v>
+        <v>5650900</v>
       </c>
       <c r="P19">
-        <v>113229355000</v>
+        <v>9562995000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675075500000</v>
+        <v>1675072200000</v>
       </c>
       <c r="B20">
-        <v>6001500</v>
+        <v>3819900</v>
       </c>
       <c r="C20">
-        <v>4356400</v>
+        <v>2104700</v>
       </c>
       <c r="D20">
-        <v>58400</v>
+        <v>24900</v>
       </c>
       <c r="E20">
-        <v>102945756000</v>
+        <v>63545893000</v>
       </c>
       <c r="F20">
-        <v>67185929000</v>
+        <v>32282412000</v>
       </c>
       <c r="G20">
-        <v>1889020000</v>
+        <v>293179000</v>
       </c>
       <c r="H20">
-        <v>10416300</v>
+        <v>5949500</v>
       </c>
       <c r="I20">
-        <v>172020705000</v>
+        <v>96121484000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-30T10:45:00.000Z</v>
+        <v>2023-01-30T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4652311833000</v>
+        <v>2274076090000</v>
       </c>
       <c r="L20">
-        <v>284925600</v>
+        <v>141030600</v>
       </c>
       <c r="M20">
-        <v>-1645100</v>
+        <v>-1715200</v>
       </c>
       <c r="N20">
-        <v>-35759827000</v>
+        <v>-31263481000</v>
       </c>
       <c r="O20">
-        <v>12993200</v>
+        <v>3935700</v>
       </c>
       <c r="P20">
-        <v>77469528000</v>
+        <v>-21700486000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675075800000</v>
+        <v>1675072320000</v>
       </c>
       <c r="B21">
-        <v>5355900</v>
+        <v>2582800</v>
       </c>
       <c r="C21">
-        <v>3273000</v>
+        <v>2113300</v>
       </c>
       <c r="D21">
-        <v>50500</v>
+        <v>11100</v>
       </c>
       <c r="E21">
-        <v>100163403000</v>
+        <v>43932518000</v>
       </c>
       <c r="F21">
-        <v>54001791000</v>
+        <v>36256030000</v>
       </c>
       <c r="G21">
-        <v>1000002000</v>
+        <v>189185000</v>
       </c>
       <c r="H21">
-        <v>8679400</v>
+        <v>4707200</v>
       </c>
       <c r="I21">
-        <v>155165196000</v>
+        <v>80377733000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-30T10:50:00.000Z</v>
+        <v>2023-01-30T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4807477029000</v>
+        <v>2354453823000</v>
       </c>
       <c r="L21">
-        <v>293605000</v>
+        <v>145737800</v>
       </c>
       <c r="M21">
-        <v>-2082900</v>
+        <v>-469500</v>
       </c>
       <c r="N21">
-        <v>-46161612000</v>
+        <v>-7676488000</v>
       </c>
       <c r="O21">
-        <v>10910300</v>
+        <v>3466200</v>
       </c>
       <c r="P21">
-        <v>31307916000</v>
+        <v>-29376974000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675076100000</v>
+        <v>1675072440000</v>
       </c>
       <c r="B22">
-        <v>10670200</v>
+        <v>2071200</v>
       </c>
       <c r="C22">
-        <v>5355900</v>
+        <v>2317200</v>
       </c>
       <c r="D22">
-        <v>39700</v>
+        <v>59600</v>
       </c>
       <c r="E22">
-        <v>194974758000</v>
+        <v>32748465000</v>
       </c>
       <c r="F22">
-        <v>83183533000</v>
+        <v>39551647000</v>
       </c>
       <c r="G22">
-        <v>1580326000</v>
+        <v>539873000</v>
       </c>
       <c r="H22">
-        <v>16065800</v>
+        <v>4448000</v>
       </c>
       <c r="I22">
-        <v>279738617000</v>
+        <v>72839985000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-30T10:55:00.000Z</v>
+        <v>2023-01-30T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>5087215646000</v>
+        <v>2427293808000</v>
       </c>
       <c r="L22">
-        <v>309670800</v>
+        <v>150185800</v>
       </c>
       <c r="M22">
-        <v>-5314300</v>
+        <v>246000</v>
       </c>
       <c r="N22">
-        <v>-111791225000</v>
+        <v>6803182000</v>
       </c>
       <c r="O22">
-        <v>5596000</v>
+        <v>3712200</v>
       </c>
       <c r="P22">
-        <v>-80483309000</v>
+        <v>-22573792000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675076400000</v>
+        <v>1675072560000</v>
       </c>
       <c r="B23">
-        <v>5779200</v>
+        <v>2101600</v>
       </c>
       <c r="C23">
-        <v>9298100</v>
+        <v>2949700</v>
       </c>
       <c r="D23">
-        <v>70900</v>
+        <v>8100</v>
       </c>
       <c r="E23">
-        <v>101065465000</v>
+        <v>35018117000</v>
       </c>
       <c r="F23">
-        <v>150214758000</v>
+        <v>53219868000</v>
       </c>
       <c r="G23">
-        <v>1039008000</v>
+        <v>187845000</v>
       </c>
       <c r="H23">
-        <v>15148200</v>
+        <v>5059400</v>
       </c>
       <c r="I23">
-        <v>252319231000</v>
+        <v>88425830000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-30T11:00:00.000Z</v>
+        <v>2023-01-30T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>5339534877000</v>
+        <v>2515719638000</v>
       </c>
       <c r="L23">
-        <v>324819000</v>
+        <v>155245200</v>
       </c>
       <c r="M23">
-        <v>3518900</v>
+        <v>848100</v>
       </c>
       <c r="N23">
-        <v>49149293000</v>
+        <v>18201751000</v>
       </c>
       <c r="O23">
-        <v>9114900</v>
+        <v>4560300</v>
       </c>
       <c r="P23">
-        <v>-31334016000</v>
+        <v>-4372041000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675076700000</v>
+        <v>1675072680000</v>
       </c>
       <c r="B24">
-        <v>4129100</v>
+        <v>1641300</v>
       </c>
       <c r="C24">
-        <v>6093900</v>
+        <v>5686000</v>
       </c>
       <c r="D24">
-        <v>60600</v>
+        <v>48800</v>
       </c>
       <c r="E24">
-        <v>67414541000</v>
+        <v>27485766000</v>
       </c>
       <c r="F24">
-        <v>109178317000</v>
+        <v>96715139000</v>
       </c>
       <c r="G24">
-        <v>839835000</v>
+        <v>771286000</v>
       </c>
       <c r="H24">
-        <v>10283600</v>
+        <v>7376100</v>
       </c>
       <c r="I24">
-        <v>177432693000</v>
+        <v>124972191000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-30T11:05:00.000Z</v>
+        <v>2023-01-30T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>5516967570000</v>
+        <v>2640691829000</v>
       </c>
       <c r="L24">
-        <v>335102600</v>
+        <v>162621300</v>
       </c>
       <c r="M24">
-        <v>1964800</v>
+        <v>4044700</v>
       </c>
       <c r="N24">
-        <v>41763776000</v>
+        <v>69229373000</v>
       </c>
       <c r="O24">
-        <v>11079700</v>
+        <v>8605000</v>
       </c>
       <c r="P24">
-        <v>10429760000</v>
+        <v>64857332000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675077000000</v>
+        <v>1675072800000</v>
       </c>
       <c r="B25">
-        <v>4505900</v>
+        <v>2117300</v>
       </c>
       <c r="C25">
-        <v>2908500</v>
+        <v>6489100</v>
       </c>
       <c r="D25">
-        <v>25900</v>
+        <v>29600</v>
       </c>
       <c r="E25">
-        <v>86042045000</v>
+        <v>30396387000</v>
       </c>
       <c r="F25">
-        <v>55917321000</v>
+        <v>112928905000</v>
       </c>
       <c r="G25">
-        <v>415542000</v>
+        <v>433376000</v>
       </c>
       <c r="H25">
-        <v>7440300</v>
+        <v>8636000</v>
       </c>
       <c r="I25">
-        <v>142374908000</v>
+        <v>143758668000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-30T11:10:00.000Z</v>
+        <v>2023-01-30T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>5659342478000</v>
+        <v>2784450497000</v>
       </c>
       <c r="L25">
-        <v>342542900</v>
+        <v>171257300</v>
       </c>
       <c r="M25">
-        <v>-1597400</v>
+        <v>4371800</v>
       </c>
       <c r="N25">
-        <v>-30124724000</v>
+        <v>82532518000</v>
       </c>
       <c r="O25">
-        <v>9482300</v>
+        <v>12976800</v>
       </c>
       <c r="P25">
-        <v>-19694964000</v>
+        <v>147389850000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675077300000</v>
+        <v>1675072920000</v>
       </c>
       <c r="B26">
-        <v>3942900</v>
+        <v>1938900</v>
       </c>
       <c r="C26">
-        <v>3593600</v>
+        <v>6304300</v>
       </c>
       <c r="D26">
-        <v>91400</v>
+        <v>44100</v>
       </c>
       <c r="E26">
-        <v>72920547000</v>
+        <v>34563287000</v>
       </c>
       <c r="F26">
-        <v>71073720000</v>
+        <v>89355220000</v>
       </c>
       <c r="G26">
-        <v>2262200000</v>
+        <v>910536000</v>
       </c>
       <c r="H26">
-        <v>7627900</v>
+        <v>8287300</v>
       </c>
       <c r="I26">
-        <v>146256467000</v>
+        <v>124829043000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-30T11:15:00.000Z</v>
+        <v>2023-01-30T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>5805598945000</v>
+        <v>2909279540000</v>
       </c>
       <c r="L26">
-        <v>350170800</v>
+        <v>179544600</v>
       </c>
       <c r="M26">
-        <v>-349300</v>
+        <v>4365400</v>
       </c>
       <c r="N26">
-        <v>-1846827000</v>
+        <v>54791933000</v>
       </c>
       <c r="O26">
-        <v>9133000</v>
+        <v>17342200</v>
       </c>
       <c r="P26">
-        <v>-21541791000</v>
+        <v>202181783000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675077600000</v>
+        <v>1675073040000</v>
       </c>
       <c r="B27">
-        <v>3972300</v>
+        <v>2126600</v>
       </c>
       <c r="C27">
-        <v>5511700</v>
+        <v>5250600</v>
       </c>
       <c r="D27">
-        <v>43000</v>
+        <v>7900</v>
       </c>
       <c r="E27">
-        <v>69140163000</v>
+        <v>37829940000</v>
       </c>
       <c r="F27">
-        <v>102544970000</v>
+        <v>77985114000</v>
       </c>
       <c r="G27">
-        <v>372058000</v>
+        <v>153399000</v>
       </c>
       <c r="H27">
-        <v>9527000</v>
+        <v>7385100</v>
       </c>
       <c r="I27">
-        <v>172057191000</v>
+        <v>115968453000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-30T11:20:00.000Z</v>
+        <v>2023-01-30T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5977656136000</v>
+        <v>3025247993000</v>
       </c>
       <c r="L27">
-        <v>359697800</v>
+        <v>186929700</v>
       </c>
       <c r="M27">
-        <v>1539400</v>
+        <v>3124000</v>
       </c>
       <c r="N27">
-        <v>33404807000</v>
+        <v>40155174000</v>
       </c>
       <c r="O27">
-        <v>10672400</v>
+        <v>20466200</v>
       </c>
       <c r="P27">
-        <v>11863016000</v>
+        <v>242336957000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675077900000</v>
+        <v>1675073160000</v>
       </c>
       <c r="B28">
-        <v>3278100</v>
+        <v>2123600</v>
       </c>
       <c r="C28">
-        <v>6168800</v>
+        <v>4102700</v>
       </c>
       <c r="D28">
-        <v>100900</v>
+        <v>13800</v>
       </c>
       <c r="E28">
-        <v>58384081000</v>
+        <v>36973286000</v>
       </c>
       <c r="F28">
-        <v>125629657000</v>
+        <v>63353255000</v>
       </c>
       <c r="G28">
-        <v>1584742000</v>
+        <v>309734000</v>
       </c>
       <c r="H28">
-        <v>9547800</v>
+        <v>6240100</v>
       </c>
       <c r="I28">
-        <v>185598480000</v>
+        <v>100636275000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-30T11:25:00.000Z</v>
+        <v>2023-01-30T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>6163254616000</v>
+        <v>3125884268000</v>
       </c>
       <c r="L28">
-        <v>369245600</v>
+        <v>193169800</v>
       </c>
       <c r="M28">
-        <v>2890700</v>
+        <v>1979100</v>
       </c>
       <c r="N28">
-        <v>67245576000</v>
+        <v>26379969000</v>
       </c>
       <c r="O28">
-        <v>13563100</v>
+        <v>22445300</v>
       </c>
       <c r="P28">
-        <v>79108592000</v>
+        <v>268716926000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675078200000</v>
+        <v>1675073280000</v>
       </c>
       <c r="B29">
-        <v>16500</v>
+        <v>2732600</v>
       </c>
       <c r="C29">
-        <v>10400</v>
+        <v>4326300</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E29">
-        <v>603278000</v>
+        <v>42019232000</v>
       </c>
       <c r="F29">
-        <v>293100000</v>
+        <v>61139978000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>181813000</v>
       </c>
       <c r="H29">
-        <v>26900</v>
+        <v>7071600</v>
       </c>
       <c r="I29">
-        <v>896378000</v>
+        <v>103341023000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-30T11:30:00.000Z</v>
+        <v>2023-01-30T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>6164150994000</v>
+        <v>3229225291000</v>
       </c>
       <c r="L29">
-        <v>369272500</v>
+        <v>200241400</v>
       </c>
       <c r="M29">
-        <v>-6100</v>
+        <v>1593700</v>
       </c>
       <c r="N29">
-        <v>-310178000</v>
+        <v>19120746000</v>
       </c>
       <c r="O29">
-        <v>13557000</v>
+        <v>24039000</v>
       </c>
       <c r="P29">
-        <v>78798414000</v>
+        <v>287837672000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675083600000</v>
+        <v>1675073400000</v>
       </c>
       <c r="B30">
-        <v>8201000</v>
+        <v>2947800</v>
       </c>
       <c r="C30">
-        <v>6338800</v>
+        <v>4212500</v>
       </c>
       <c r="D30">
-        <v>396000</v>
+        <v>49400</v>
       </c>
       <c r="E30">
-        <v>135701958000</v>
+        <v>52166834000</v>
       </c>
       <c r="F30">
-        <v>120943246000</v>
+        <v>68378900000</v>
       </c>
       <c r="G30">
-        <v>6336342000</v>
+        <v>840240000</v>
       </c>
       <c r="H30">
-        <v>14935800</v>
+        <v>7209700</v>
       </c>
       <c r="I30">
-        <v>262981546000</v>
+        <v>121385974000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-30T13:00:00.000Z</v>
+        <v>2023-01-30T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>6427132540000</v>
+        <v>3350611265000</v>
       </c>
       <c r="L30">
-        <v>384208300</v>
+        <v>207451100</v>
       </c>
       <c r="M30">
-        <v>-1862200</v>
+        <v>1264700</v>
       </c>
       <c r="N30">
-        <v>-14758712000</v>
+        <v>16212066000</v>
       </c>
       <c r="O30">
-        <v>11694800</v>
+        <v>25303700</v>
       </c>
       <c r="P30">
-        <v>64039702000</v>
+        <v>304049738000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675083900000</v>
+        <v>1675073520000</v>
       </c>
       <c r="B31">
-        <v>4609900</v>
+        <v>3278500</v>
       </c>
       <c r="C31">
-        <v>6094800</v>
+        <v>2557800</v>
       </c>
       <c r="D31">
-        <v>49900</v>
+        <v>9200</v>
       </c>
       <c r="E31">
-        <v>80168250000</v>
+        <v>58945891000</v>
       </c>
       <c r="F31">
-        <v>109272847000</v>
+        <v>42473791000</v>
       </c>
       <c r="G31">
-        <v>999777000</v>
+        <v>268110000</v>
       </c>
       <c r="H31">
-        <v>10754600</v>
+        <v>5845500</v>
       </c>
       <c r="I31">
-        <v>190440874000</v>
+        <v>101687792000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-30T13:05:00.000Z</v>
+        <v>2023-01-30T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>6617573414000</v>
+        <v>3452299057000</v>
       </c>
       <c r="L31">
-        <v>394962900</v>
+        <v>213296600</v>
       </c>
       <c r="M31">
-        <v>1484900</v>
+        <v>-720700</v>
       </c>
       <c r="N31">
-        <v>29104597000</v>
+        <v>-16472100000</v>
       </c>
       <c r="O31">
-        <v>13179700</v>
+        <v>24583000</v>
       </c>
       <c r="P31">
-        <v>93144299000</v>
+        <v>287577638000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675084200000</v>
+        <v>1675073640000</v>
       </c>
       <c r="B32">
-        <v>3930100</v>
+        <v>4311400</v>
       </c>
       <c r="C32">
-        <v>6743700</v>
+        <v>1855000</v>
       </c>
       <c r="D32">
-        <v>35600</v>
+        <v>19000</v>
       </c>
       <c r="E32">
-        <v>65876574000</v>
+        <v>70095169000</v>
       </c>
       <c r="F32">
-        <v>118557857000</v>
+        <v>29627550000</v>
       </c>
       <c r="G32">
-        <v>546938000</v>
+        <v>375162000</v>
       </c>
       <c r="H32">
-        <v>10709400</v>
+        <v>6185400</v>
       </c>
       <c r="I32">
-        <v>184981369000</v>
+        <v>100097881000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-30T13:10:00.000Z</v>
+        <v>2023-01-30T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>6802554783000</v>
+        <v>3552396938000</v>
       </c>
       <c r="L32">
-        <v>405672300</v>
+        <v>219482000</v>
       </c>
       <c r="M32">
-        <v>2813600</v>
+        <v>-2456400</v>
       </c>
       <c r="N32">
-        <v>52681283000</v>
+        <v>-40467619000</v>
       </c>
       <c r="O32">
-        <v>15993300</v>
+        <v>22126600</v>
       </c>
       <c r="P32">
-        <v>145825582000</v>
+        <v>247110019000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675084500000</v>
+        <v>1675073760000</v>
       </c>
       <c r="B33">
-        <v>4675100</v>
+        <v>3336500</v>
       </c>
       <c r="C33">
-        <v>12163800</v>
+        <v>1525200</v>
       </c>
       <c r="D33">
-        <v>110300</v>
+        <v>22900</v>
       </c>
       <c r="E33">
-        <v>78839128000</v>
+        <v>60378172000</v>
       </c>
       <c r="F33">
-        <v>210530785000</v>
+        <v>28615168000</v>
       </c>
       <c r="G33">
-        <v>1827012000</v>
+        <v>506934000</v>
       </c>
       <c r="H33">
-        <v>16949200</v>
+        <v>4884600</v>
       </c>
       <c r="I33">
-        <v>291196925000</v>
+        <v>89500274000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-30T13:15:00.000Z</v>
+        <v>2023-01-30T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>7093751708000</v>
+        <v>3641897212000</v>
       </c>
       <c r="L33">
-        <v>422621500</v>
+        <v>224366600</v>
       </c>
       <c r="M33">
-        <v>7488700</v>
+        <v>-1811300</v>
       </c>
       <c r="N33">
-        <v>131691657000</v>
+        <v>-31763004000</v>
       </c>
       <c r="O33">
-        <v>23482000</v>
+        <v>20315300</v>
       </c>
       <c r="P33">
-        <v>277517239000</v>
+        <v>215347015000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675084800000</v>
+        <v>1675073880000</v>
       </c>
       <c r="B34">
-        <v>5681500</v>
+        <v>2587700</v>
       </c>
       <c r="C34">
-        <v>11081700</v>
+        <v>1606000</v>
       </c>
       <c r="D34">
-        <v>57800</v>
+        <v>10700</v>
       </c>
       <c r="E34">
-        <v>96812031000</v>
+        <v>43768375000</v>
       </c>
       <c r="F34">
-        <v>186412276000</v>
+        <v>29183558000</v>
       </c>
       <c r="G34">
-        <v>1197494000</v>
+        <v>140043000</v>
       </c>
       <c r="H34">
-        <v>16821000</v>
+        <v>4204400</v>
       </c>
       <c r="I34">
-        <v>284421801000</v>
+        <v>73091976000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-30T13:20:00.000Z</v>
+        <v>2023-01-30T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>7378173509000</v>
+        <v>3714989188000</v>
       </c>
       <c r="L34">
-        <v>439442500</v>
+        <v>228571000</v>
       </c>
       <c r="M34">
-        <v>5400200</v>
+        <v>-981700</v>
       </c>
       <c r="N34">
-        <v>89600245000</v>
+        <v>-14584817000</v>
       </c>
       <c r="O34">
-        <v>28882200</v>
+        <v>19333600</v>
       </c>
       <c r="P34">
-        <v>367117484000</v>
+        <v>200762198000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675085100000</v>
+        <v>1675074000000</v>
       </c>
       <c r="B35">
-        <v>6703400</v>
+        <v>1995000</v>
       </c>
       <c r="C35">
-        <v>5708100</v>
+        <v>1381600</v>
       </c>
       <c r="D35">
-        <v>25200</v>
+        <v>3400</v>
       </c>
       <c r="E35">
-        <v>118377130000</v>
+        <v>32489859000</v>
       </c>
       <c r="F35">
-        <v>104943477000</v>
+        <v>23161160000</v>
       </c>
       <c r="G35">
-        <v>504978000</v>
+        <v>59010000</v>
       </c>
       <c r="H35">
-        <v>12436700</v>
+        <v>3380000</v>
       </c>
       <c r="I35">
-        <v>223825585000</v>
+        <v>55710029000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-30T13:25:00.000Z</v>
+        <v>2023-01-30T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>7601999094000</v>
+        <v>3770699217000</v>
       </c>
       <c r="L35">
-        <v>451879200</v>
+        <v>231951000</v>
       </c>
       <c r="M35">
-        <v>-995300</v>
+        <v>-613400</v>
       </c>
       <c r="N35">
-        <v>-13433653000</v>
+        <v>-9328699000</v>
       </c>
       <c r="O35">
-        <v>27886900</v>
+        <v>18720200</v>
       </c>
       <c r="P35">
-        <v>353683831000</v>
+        <v>191433499000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675085400000</v>
+        <v>1675074120000</v>
       </c>
       <c r="B36">
-        <v>9102900</v>
+        <v>1944900</v>
       </c>
       <c r="C36">
-        <v>4471400</v>
+        <v>1210800</v>
       </c>
       <c r="D36">
-        <v>59000</v>
+        <v>18200</v>
       </c>
       <c r="E36">
-        <v>159129712000</v>
+        <v>31682354000</v>
       </c>
       <c r="F36">
-        <v>78596294000</v>
+        <v>18086476000</v>
       </c>
       <c r="G36">
-        <v>1479885000</v>
+        <v>722545000</v>
       </c>
       <c r="H36">
-        <v>13633300</v>
+        <v>3173900</v>
       </c>
       <c r="I36">
-        <v>239205891000</v>
+        <v>50491375000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-30T13:30:00.000Z</v>
+        <v>2023-01-30T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7841204985000</v>
+        <v>3821190592000</v>
       </c>
       <c r="L36">
-        <v>465512500</v>
+        <v>235124900</v>
       </c>
       <c r="M36">
-        <v>-4631500</v>
+        <v>-734100</v>
       </c>
       <c r="N36">
-        <v>-80533418000</v>
+        <v>-13595878000</v>
       </c>
       <c r="O36">
-        <v>23255400</v>
+        <v>17986100</v>
       </c>
       <c r="P36">
-        <v>273150413000</v>
+        <v>177837621000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675085700000</v>
+        <v>1675074240000</v>
       </c>
       <c r="B37">
-        <v>6143000</v>
+        <v>2103800</v>
       </c>
       <c r="C37">
-        <v>4929200</v>
+        <v>1548700</v>
       </c>
       <c r="D37">
-        <v>72300</v>
+        <v>27100</v>
       </c>
       <c r="E37">
-        <v>107435137000</v>
+        <v>33736224000</v>
       </c>
       <c r="F37">
-        <v>85145141000</v>
+        <v>27446988000</v>
       </c>
       <c r="G37">
-        <v>1128244000</v>
+        <v>722883000</v>
       </c>
       <c r="H37">
-        <v>11144500</v>
+        <v>3679600</v>
       </c>
       <c r="I37">
-        <v>193708522000</v>
+        <v>61906095000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-30T13:35:00.000Z</v>
+        <v>2023-01-30T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>8034913507000</v>
+        <v>3883096687000</v>
       </c>
       <c r="L37">
-        <v>476657000</v>
+        <v>238804500</v>
       </c>
       <c r="M37">
-        <v>-1213800</v>
+        <v>-555100</v>
       </c>
       <c r="N37">
-        <v>-22289996000</v>
+        <v>-6289236000</v>
       </c>
       <c r="O37">
-        <v>22041600</v>
+        <v>17431000</v>
       </c>
       <c r="P37">
-        <v>250860417000</v>
+        <v>171548385000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675086000000</v>
+        <v>1675074360000</v>
       </c>
       <c r="B38">
-        <v>7370400</v>
+        <v>2119400</v>
       </c>
       <c r="C38">
-        <v>4782100</v>
+        <v>1372700</v>
       </c>
       <c r="D38">
-        <v>19600</v>
+        <v>35800</v>
       </c>
       <c r="E38">
-        <v>134789850000</v>
+        <v>39097952000</v>
       </c>
       <c r="F38">
-        <v>86436826000</v>
+        <v>24323193000</v>
       </c>
       <c r="G38">
-        <v>799640000</v>
+        <v>826064000</v>
       </c>
       <c r="H38">
-        <v>12172100</v>
+        <v>3527900</v>
       </c>
       <c r="I38">
-        <v>222026316000</v>
+        <v>64247209000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-30T13:40:00.000Z</v>
+        <v>2023-01-30T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8256939823000</v>
+        <v>3947343896000</v>
       </c>
       <c r="L38">
-        <v>488829100</v>
+        <v>242332400</v>
       </c>
       <c r="M38">
-        <v>-2588300</v>
+        <v>-746700</v>
       </c>
       <c r="N38">
-        <v>-48353024000</v>
+        <v>-14774759000</v>
       </c>
       <c r="O38">
-        <v>19453300</v>
+        <v>16684300</v>
       </c>
       <c r="P38">
-        <v>202507393000</v>
+        <v>156773626000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675086300000</v>
+        <v>1675074480000</v>
       </c>
       <c r="B39">
-        <v>8265400</v>
+        <v>2818400</v>
       </c>
       <c r="C39">
-        <v>3818500</v>
+        <v>1309100</v>
       </c>
       <c r="D39">
-        <v>90600</v>
+        <v>11900</v>
       </c>
       <c r="E39">
-        <v>149378093000</v>
+        <v>50799805000</v>
       </c>
       <c r="F39">
-        <v>67908761000</v>
+        <v>20477500000</v>
       </c>
       <c r="G39">
-        <v>1196161000</v>
+        <v>444809000</v>
       </c>
       <c r="H39">
-        <v>12174500</v>
+        <v>4139400</v>
       </c>
       <c r="I39">
-        <v>218483015000</v>
+        <v>71722114000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-30T13:45:00.000Z</v>
+        <v>2023-01-30T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8475422838000</v>
+        <v>4019066010000</v>
       </c>
       <c r="L39">
-        <v>501003600</v>
+        <v>246471800</v>
       </c>
       <c r="M39">
-        <v>-4446900</v>
+        <v>-1509300</v>
       </c>
       <c r="N39">
-        <v>-81469332000</v>
+        <v>-30322305000</v>
       </c>
       <c r="O39">
-        <v>15006400</v>
+        <v>15175000</v>
       </c>
       <c r="P39">
-        <v>121038061000</v>
+        <v>126451321000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675086600000</v>
+        <v>1675074600000</v>
       </c>
       <c r="B40">
-        <v>9149300</v>
+        <v>2070200</v>
       </c>
       <c r="C40">
-        <v>5301800</v>
+        <v>1381000</v>
       </c>
       <c r="D40">
-        <v>174600</v>
+        <v>9300</v>
       </c>
       <c r="E40">
-        <v>164327278000</v>
+        <v>40886064000</v>
       </c>
       <c r="F40">
-        <v>105791580000</v>
+        <v>24017807000</v>
       </c>
       <c r="G40">
-        <v>2676821000</v>
+        <v>130660000</v>
       </c>
       <c r="H40">
-        <v>14625700</v>
+        <v>3460500</v>
       </c>
       <c r="I40">
-        <v>272795679000</v>
+        <v>65034531000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-30T13:50:00.000Z</v>
+        <v>2023-01-30T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8748218517000</v>
+        <v>4084100541000</v>
       </c>
       <c r="L40">
-        <v>515629300</v>
+        <v>249932300</v>
       </c>
       <c r="M40">
-        <v>-3847500</v>
+        <v>-689200</v>
       </c>
       <c r="N40">
-        <v>-58535698000</v>
+        <v>-16868257000</v>
       </c>
       <c r="O40">
-        <v>11158900</v>
+        <v>14485800</v>
       </c>
       <c r="P40">
-        <v>62502363000</v>
+        <v>109583064000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675086900000</v>
+        <v>1675074720000</v>
       </c>
       <c r="B41">
-        <v>11033800</v>
+        <v>2470700</v>
       </c>
       <c r="C41">
-        <v>6079000</v>
+        <v>2248300</v>
       </c>
       <c r="D41">
-        <v>97900</v>
+        <v>23400</v>
       </c>
       <c r="E41">
-        <v>174626194000</v>
+        <v>46115825000</v>
       </c>
       <c r="F41">
-        <v>120754913000</v>
+        <v>40801688000</v>
       </c>
       <c r="G41">
-        <v>1867532000</v>
+        <v>527739000</v>
       </c>
       <c r="H41">
-        <v>17210700</v>
+        <v>4742400</v>
       </c>
       <c r="I41">
-        <v>297248639000</v>
+        <v>87445252000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-30T13:55:00.000Z</v>
+        <v>2023-01-30T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>9045467156000</v>
+        <v>4171545793000</v>
       </c>
       <c r="L41">
-        <v>532840000</v>
+        <v>254674700</v>
       </c>
       <c r="M41">
-        <v>-4954800</v>
+        <v>-222400</v>
       </c>
       <c r="N41">
-        <v>-53871281000</v>
+        <v>-5314137000</v>
       </c>
       <c r="O41">
-        <v>6204100</v>
+        <v>14263400</v>
       </c>
       <c r="P41">
-        <v>8631082000</v>
+        <v>104268927000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675087200000</v>
+        <v>1675074840000</v>
       </c>
       <c r="B42">
-        <v>10577800</v>
+        <v>1338400</v>
       </c>
       <c r="C42">
-        <v>5448900</v>
+        <v>2631600</v>
       </c>
       <c r="D42">
-        <v>46800</v>
+        <v>10500</v>
       </c>
       <c r="E42">
-        <v>185934082000</v>
+        <v>23042656000</v>
       </c>
       <c r="F42">
-        <v>92912639000</v>
+        <v>49716998000</v>
       </c>
       <c r="G42">
-        <v>1002915000</v>
+        <v>163466000</v>
       </c>
       <c r="H42">
-        <v>16073500</v>
+        <v>3980500</v>
       </c>
       <c r="I42">
-        <v>279849636000</v>
+        <v>72923120000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-30T14:00:00.000Z</v>
+        <v>2023-01-30T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>9325316792000</v>
+        <v>4244468913000</v>
       </c>
       <c r="L42">
-        <v>548913500</v>
+        <v>258655200</v>
       </c>
       <c r="M42">
-        <v>-5128900</v>
+        <v>1293200</v>
       </c>
       <c r="N42">
-        <v>-93021443000</v>
+        <v>26674342000</v>
       </c>
       <c r="O42">
-        <v>1075200</v>
+        <v>15556600</v>
       </c>
       <c r="P42">
-        <v>-84390361000</v>
+        <v>130943269000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675087500000</v>
+        <v>1675074960000</v>
       </c>
       <c r="B43">
-        <v>30042200</v>
+        <v>1061400</v>
       </c>
       <c r="C43">
-        <v>4922600</v>
+        <v>2131400</v>
       </c>
       <c r="D43">
-        <v>225200</v>
+        <v>1300</v>
       </c>
       <c r="E43">
-        <v>514505515000</v>
+        <v>18898299000</v>
       </c>
       <c r="F43">
-        <v>94379140000</v>
+        <v>31256969000</v>
       </c>
       <c r="G43">
-        <v>4914354000</v>
+        <v>37850000</v>
       </c>
       <c r="H43">
-        <v>35190000</v>
+        <v>3194100</v>
       </c>
       <c r="I43">
-        <v>613799009000</v>
+        <v>50193118000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-30T14:05:00.000Z</v>
+        <v>2023-01-30T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>9939115801000</v>
+        <v>4294662031000</v>
       </c>
       <c r="L43">
-        <v>584103500</v>
+        <v>261849300</v>
       </c>
       <c r="M43">
-        <v>-25119600</v>
+        <v>1070000</v>
       </c>
       <c r="N43">
-        <v>-420126375000</v>
+        <v>12358670000</v>
       </c>
       <c r="O43">
-        <v>-24044400</v>
+        <v>16626600</v>
       </c>
       <c r="P43">
-        <v>-504516736000</v>
+        <v>143301939000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675087800000</v>
+        <v>1675075080000</v>
       </c>
       <c r="B44">
-        <v>21456900</v>
+        <v>1443900</v>
       </c>
       <c r="C44">
-        <v>11040300</v>
+        <v>1478400</v>
       </c>
       <c r="D44">
-        <v>223400</v>
+        <v>7800</v>
       </c>
       <c r="E44">
-        <v>341256274000</v>
+        <v>19209839000</v>
       </c>
       <c r="F44">
-        <v>199065822000</v>
+        <v>23735272000</v>
       </c>
       <c r="G44">
-        <v>5395941000</v>
+        <v>228189000</v>
       </c>
       <c r="H44">
-        <v>32720600</v>
+        <v>2930100</v>
       </c>
       <c r="I44">
-        <v>545718037000</v>
+        <v>43173300000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-30T14:10:00.000Z</v>
+        <v>2023-01-30T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>10484833838000</v>
+        <v>4337835331000</v>
       </c>
       <c r="L44">
-        <v>616824100</v>
+        <v>264779400</v>
       </c>
       <c r="M44">
-        <v>-10416600</v>
+        <v>34500</v>
       </c>
       <c r="N44">
-        <v>-142190452000</v>
+        <v>4525433000</v>
       </c>
       <c r="O44">
-        <v>-34461000</v>
+        <v>16661100</v>
       </c>
       <c r="P44">
-        <v>-646707188000</v>
+        <v>147827372000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675088100000</v>
+        <v>1675075200000</v>
       </c>
       <c r="B45">
-        <v>7115000</v>
+        <v>2602300</v>
       </c>
       <c r="C45">
-        <v>11603700</v>
+        <v>1630700</v>
       </c>
       <c r="D45">
-        <v>65000</v>
+        <v>38600</v>
       </c>
       <c r="E45">
-        <v>126624810000</v>
+        <v>29647435000</v>
       </c>
       <c r="F45">
-        <v>212199764000</v>
+        <v>26188674000</v>
       </c>
       <c r="G45">
-        <v>1368769000</v>
+        <v>542408000</v>
       </c>
       <c r="H45">
-        <v>18783700</v>
+        <v>4271600</v>
       </c>
       <c r="I45">
-        <v>340193343000</v>
+        <v>56378517000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-30T14:15:00.000Z</v>
+        <v>2023-01-30T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>10825027181000</v>
+        <v>4394213848000</v>
       </c>
       <c r="L45">
-        <v>635607800</v>
+        <v>269051000</v>
       </c>
       <c r="M45">
-        <v>4488700</v>
+        <v>-971600</v>
       </c>
       <c r="N45">
-        <v>85574954000</v>
+        <v>-3458761000</v>
       </c>
       <c r="O45">
-        <v>-29972300</v>
+        <v>15689500</v>
       </c>
       <c r="P45">
-        <v>-561132234000</v>
+        <v>144368611000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675088400000</v>
+        <v>1675075320000</v>
       </c>
       <c r="B46">
-        <v>13653300</v>
+        <v>2015800</v>
       </c>
       <c r="C46">
-        <v>5044000</v>
+        <v>1541700</v>
       </c>
       <c r="D46">
-        <v>67300</v>
+        <v>23800</v>
       </c>
       <c r="E46">
-        <v>255735832000</v>
+        <v>32095349000</v>
       </c>
       <c r="F46">
-        <v>96881488000</v>
+        <v>19724462000</v>
       </c>
       <c r="G46">
-        <v>1401389000</v>
+        <v>268673000</v>
       </c>
       <c r="H46">
-        <v>18764600</v>
+        <v>3581300</v>
       </c>
       <c r="I46">
-        <v>354018709000</v>
+        <v>52088484000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-30T14:20:00.000Z</v>
+        <v>2023-01-30T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>11179045890000</v>
+        <v>4446302332000</v>
       </c>
       <c r="L46">
-        <v>654372400</v>
+        <v>272632300</v>
       </c>
       <c r="M46">
-        <v>-8609300</v>
+        <v>-474100</v>
       </c>
       <c r="N46">
-        <v>-158854344000</v>
+        <v>-12370887000</v>
       </c>
       <c r="O46">
-        <v>-38581600</v>
+        <v>15215400</v>
       </c>
       <c r="P46">
-        <v>-719986578000</v>
+        <v>131997724000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675088700000</v>
+        <v>1675075440000</v>
       </c>
       <c r="B47">
-        <v>18355100</v>
+        <v>2332300</v>
       </c>
       <c r="C47">
-        <v>7303200</v>
+        <v>1416600</v>
       </c>
       <c r="D47">
-        <v>327000</v>
+        <v>60800</v>
       </c>
       <c r="E47">
-        <v>325490267000</v>
+        <v>48792567000</v>
       </c>
       <c r="F47">
-        <v>132934864000</v>
+        <v>17232539000</v>
       </c>
       <c r="G47">
-        <v>7888026000</v>
+        <v>1463500000</v>
       </c>
       <c r="H47">
-        <v>25985300</v>
+        <v>3809700</v>
       </c>
       <c r="I47">
-        <v>466313157000</v>
+        <v>67488606000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-30T14:25:00.000Z</v>
+        <v>2023-01-30T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>11645359047000</v>
+        <v>4513790938000</v>
       </c>
       <c r="L47">
-        <v>680357700</v>
+        <v>276442000</v>
       </c>
       <c r="M47">
-        <v>-11051900</v>
+        <v>-915700</v>
       </c>
       <c r="N47">
-        <v>-192555403000</v>
+        <v>-31560028000</v>
       </c>
       <c r="O47">
-        <v>-49633500</v>
+        <v>14299700</v>
       </c>
       <c r="P47">
-        <v>-912541981000</v>
+        <v>100437696000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675089000000</v>
+        <v>1675075560000</v>
       </c>
       <c r="B48">
-        <v>18200</v>
+        <v>1801700</v>
       </c>
       <c r="C48">
-        <v>16000</v>
+        <v>1837300</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>6700</v>
       </c>
       <c r="E48">
-        <v>277785000</v>
+        <v>30897606000</v>
       </c>
       <c r="F48">
-        <v>397940000</v>
+        <v>27847723000</v>
       </c>
       <c r="G48">
-        <v>2095000</v>
+        <v>132687000</v>
       </c>
       <c r="H48">
-        <v>34300</v>
+        <v>3645700</v>
       </c>
       <c r="I48">
-        <v>677820000</v>
+        <v>58878016000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-30T14:30:00.000Z</v>
+        <v>2023-01-30T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>11646036867000</v>
+        <v>4572668954000</v>
       </c>
       <c r="L48">
-        <v>680392000</v>
+        <v>280087700</v>
       </c>
       <c r="M48">
-        <v>-2200</v>
+        <v>35600</v>
       </c>
       <c r="N48">
-        <v>120155000</v>
+        <v>-3049883000</v>
       </c>
       <c r="O48">
-        <v>-49635700</v>
+        <v>14335300</v>
       </c>
       <c r="P48">
-        <v>-912421826000</v>
+        <v>97387813000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675089900000</v>
+        <v>1675075680000</v>
       </c>
       <c r="B49">
+        <v>3082400</v>
+      </c>
+      <c r="C49">
+        <v>1740300</v>
+      </c>
+      <c r="D49">
+        <v>15200</v>
+      </c>
+      <c r="E49">
+        <v>49506525000</v>
+      </c>
+      <c r="F49">
+        <v>29588240000</v>
+      </c>
+      <c r="G49">
+        <v>548114000</v>
+      </c>
+      <c r="H49">
+        <v>4837900</v>
+      </c>
+      <c r="I49">
+        <v>79642879000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-30T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>4652311833000</v>
+      </c>
+      <c r="L49">
+        <v>284925600</v>
+      </c>
+      <c r="M49">
+        <v>-1342100</v>
+      </c>
+      <c r="N49">
+        <v>-19918285000</v>
+      </c>
+      <c r="O49">
+        <v>12993200</v>
+      </c>
+      <c r="P49">
+        <v>77469528000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675075800000</v>
+      </c>
+      <c r="B50">
+        <v>2051900</v>
+      </c>
+      <c r="C50">
+        <v>1610300</v>
+      </c>
+      <c r="D50">
+        <v>17900</v>
+      </c>
+      <c r="E50">
+        <v>34373606000</v>
+      </c>
+      <c r="F50">
+        <v>27906784000</v>
+      </c>
+      <c r="G50">
+        <v>339031000</v>
+      </c>
+      <c r="H50">
+        <v>3680100</v>
+      </c>
+      <c r="I50">
+        <v>62619421000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-30T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>4714931254000</v>
+      </c>
+      <c r="L50">
+        <v>288605700</v>
+      </c>
+      <c r="M50">
+        <v>-441600</v>
+      </c>
+      <c r="N50">
+        <v>-6466822000</v>
+      </c>
+      <c r="O50">
+        <v>12551600</v>
+      </c>
+      <c r="P50">
+        <v>71002706000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675075920000</v>
+      </c>
+      <c r="B51">
+        <v>1928500</v>
+      </c>
+      <c r="C51">
+        <v>1175300</v>
+      </c>
+      <c r="D51">
+        <v>28800</v>
+      </c>
+      <c r="E51">
+        <v>39680506000</v>
+      </c>
+      <c r="F51">
+        <v>20548514000</v>
+      </c>
+      <c r="G51">
+        <v>618318000</v>
+      </c>
+      <c r="H51">
+        <v>3132600</v>
+      </c>
+      <c r="I51">
+        <v>60847338000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-30T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4775778592000</v>
+      </c>
+      <c r="L51">
+        <v>291738300</v>
+      </c>
+      <c r="M51">
+        <v>-753200</v>
+      </c>
+      <c r="N51">
+        <v>-19131992000</v>
+      </c>
+      <c r="O51">
+        <v>11798400</v>
+      </c>
+      <c r="P51">
+        <v>51870714000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675076040000</v>
+      </c>
+      <c r="B52">
+        <v>3087500</v>
+      </c>
+      <c r="C52">
+        <v>1744100</v>
+      </c>
+      <c r="D52">
+        <v>15200</v>
+      </c>
+      <c r="E52">
+        <v>62652378000</v>
+      </c>
+      <c r="F52">
+        <v>20845752000</v>
+      </c>
+      <c r="G52">
+        <v>375728000</v>
+      </c>
+      <c r="H52">
+        <v>4846800</v>
+      </c>
+      <c r="I52">
+        <v>83873858000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-30T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4859652450000</v>
+      </c>
+      <c r="L52">
+        <v>296585100</v>
+      </c>
+      <c r="M52">
+        <v>-1343400</v>
+      </c>
+      <c r="N52">
+        <v>-41806626000</v>
+      </c>
+      <c r="O52">
+        <v>10455000</v>
+      </c>
+      <c r="P52">
+        <v>10064088000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675076160000</v>
+      </c>
+      <c r="B53">
+        <v>4792800</v>
+      </c>
+      <c r="C53">
+        <v>1271400</v>
+      </c>
+      <c r="D53">
+        <v>24800</v>
+      </c>
+      <c r="E53">
+        <v>83370658000</v>
+      </c>
+      <c r="F53">
+        <v>19821459000</v>
+      </c>
+      <c r="G53">
+        <v>1183086000</v>
+      </c>
+      <c r="H53">
+        <v>6089000</v>
+      </c>
+      <c r="I53">
+        <v>104375203000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-30T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4964027653000</v>
+      </c>
+      <c r="L53">
+        <v>302674100</v>
+      </c>
+      <c r="M53">
+        <v>-3521400</v>
+      </c>
+      <c r="N53">
+        <v>-63549199000</v>
+      </c>
+      <c r="O53">
+        <v>6933600</v>
+      </c>
+      <c r="P53">
+        <v>-53485111000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675076280000</v>
+      </c>
+      <c r="B54">
+        <v>4165400</v>
+      </c>
+      <c r="C54">
+        <v>2827800</v>
+      </c>
+      <c r="D54">
+        <v>3500</v>
+      </c>
+      <c r="E54">
+        <v>75061013000</v>
+      </c>
+      <c r="F54">
+        <v>48062815000</v>
+      </c>
+      <c r="G54">
+        <v>64165000</v>
+      </c>
+      <c r="H54">
+        <v>6996700</v>
+      </c>
+      <c r="I54">
+        <v>123187993000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-30T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>5087215646000</v>
+      </c>
+      <c r="L54">
+        <v>309670800</v>
+      </c>
+      <c r="M54">
+        <v>-1337600</v>
+      </c>
+      <c r="N54">
+        <v>-26998198000</v>
+      </c>
+      <c r="O54">
+        <v>5596000</v>
+      </c>
+      <c r="P54">
+        <v>-80483309000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675076400000</v>
+      </c>
+      <c r="B55">
+        <v>3311600</v>
+      </c>
+      <c r="C55">
+        <v>3897600</v>
+      </c>
+      <c r="D55">
+        <v>47700</v>
+      </c>
+      <c r="E55">
+        <v>59709142000</v>
+      </c>
+      <c r="F55">
+        <v>58060483000</v>
+      </c>
+      <c r="G55">
+        <v>596741000</v>
+      </c>
+      <c r="H55">
+        <v>7256900</v>
+      </c>
+      <c r="I55">
+        <v>118366366000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-30T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>5205582012000</v>
+      </c>
+      <c r="L55">
+        <v>316927700</v>
+      </c>
+      <c r="M55">
+        <v>586000</v>
+      </c>
+      <c r="N55">
+        <v>-1648659000</v>
+      </c>
+      <c r="O55">
+        <v>6182000</v>
+      </c>
+      <c r="P55">
+        <v>-82131968000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675076520000</v>
+      </c>
+      <c r="B56">
+        <v>1831900</v>
+      </c>
+      <c r="C56">
+        <v>4205800</v>
+      </c>
+      <c r="D56">
+        <v>22700</v>
+      </c>
+      <c r="E56">
+        <v>29397369000</v>
+      </c>
+      <c r="F56">
+        <v>72877052000</v>
+      </c>
+      <c r="G56">
+        <v>432967000</v>
+      </c>
+      <c r="H56">
+        <v>6060400</v>
+      </c>
+      <c r="I56">
+        <v>102707388000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-30T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>5308289400000</v>
+      </c>
+      <c r="L56">
+        <v>322988100</v>
+      </c>
+      <c r="M56">
+        <v>2373900</v>
+      </c>
+      <c r="N56">
+        <v>43479683000</v>
+      </c>
+      <c r="O56">
+        <v>8555900</v>
+      </c>
+      <c r="P56">
+        <v>-38652285000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675076640000</v>
+      </c>
+      <c r="B57">
+        <v>1267900</v>
+      </c>
+      <c r="C57">
+        <v>2404600</v>
+      </c>
+      <c r="D57">
+        <v>20800</v>
+      </c>
+      <c r="E57">
+        <v>21436674000</v>
+      </c>
+      <c r="F57">
+        <v>39154799000</v>
+      </c>
+      <c r="G57">
+        <v>420592000</v>
+      </c>
+      <c r="H57">
+        <v>3693300</v>
+      </c>
+      <c r="I57">
+        <v>61012065000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-30T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>5369301465000</v>
+      </c>
+      <c r="L57">
+        <v>326681400</v>
+      </c>
+      <c r="M57">
+        <v>1136700</v>
+      </c>
+      <c r="N57">
+        <v>17718125000</v>
+      </c>
+      <c r="O57">
+        <v>9692600</v>
+      </c>
+      <c r="P57">
+        <v>-20934160000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675076760000</v>
+      </c>
+      <c r="B58">
+        <v>1579100</v>
+      </c>
+      <c r="C58">
+        <v>2942400</v>
+      </c>
+      <c r="D58">
+        <v>14100</v>
+      </c>
+      <c r="E58">
+        <v>22261870000</v>
+      </c>
+      <c r="F58">
+        <v>52103326000</v>
+      </c>
+      <c r="G58">
+        <v>274839000</v>
+      </c>
+      <c r="H58">
+        <v>4535600</v>
+      </c>
+      <c r="I58">
+        <v>74640035000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-30T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>5443941500000</v>
+      </c>
+      <c r="L58">
+        <v>331217000</v>
+      </c>
+      <c r="M58">
+        <v>1363300</v>
+      </c>
+      <c r="N58">
+        <v>29841456000</v>
+      </c>
+      <c r="O58">
+        <v>11055900</v>
+      </c>
+      <c r="P58">
+        <v>8907296000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675076880000</v>
+      </c>
+      <c r="B59">
+        <v>1917800</v>
+      </c>
+      <c r="C59">
+        <v>1941600</v>
+      </c>
+      <c r="D59">
+        <v>26200</v>
+      </c>
+      <c r="E59">
+        <v>35674951000</v>
+      </c>
+      <c r="F59">
+        <v>37197415000</v>
+      </c>
+      <c r="G59">
+        <v>153704000</v>
+      </c>
+      <c r="H59">
+        <v>3885600</v>
+      </c>
+      <c r="I59">
+        <v>73026070000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-30T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>5516967570000</v>
+      </c>
+      <c r="L59">
+        <v>335102600</v>
+      </c>
+      <c r="M59">
+        <v>23800</v>
+      </c>
+      <c r="N59">
+        <v>1522464000</v>
+      </c>
+      <c r="O59">
+        <v>11079700</v>
+      </c>
+      <c r="P59">
+        <v>10429760000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675077000000</v>
+      </c>
+      <c r="B60">
+        <v>1801100</v>
+      </c>
+      <c r="C60">
+        <v>1103700</v>
+      </c>
+      <c r="D60">
+        <v>15200</v>
+      </c>
+      <c r="E60">
+        <v>31588351000</v>
+      </c>
+      <c r="F60">
+        <v>20285916000</v>
+      </c>
+      <c r="G60">
+        <v>214325000</v>
+      </c>
+      <c r="H60">
+        <v>2920000</v>
+      </c>
+      <c r="I60">
+        <v>52088592000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-30T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>5569056162000</v>
+      </c>
+      <c r="L60">
+        <v>338022600</v>
+      </c>
+      <c r="M60">
+        <v>-697400</v>
+      </c>
+      <c r="N60">
+        <v>-11302435000</v>
+      </c>
+      <c r="O60">
+        <v>10382300</v>
+      </c>
+      <c r="P60">
+        <v>-872675000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675077120000</v>
+      </c>
+      <c r="B61">
+        <v>2069100</v>
+      </c>
+      <c r="C61">
+        <v>1174200</v>
+      </c>
+      <c r="D61">
+        <v>4500</v>
+      </c>
+      <c r="E61">
+        <v>42074125000</v>
+      </c>
+      <c r="F61">
+        <v>23691348000</v>
+      </c>
+      <c r="G61">
+        <v>142905000</v>
+      </c>
+      <c r="H61">
+        <v>3247800</v>
+      </c>
+      <c r="I61">
+        <v>65908378000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-30T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>5634964540000</v>
+      </c>
+      <c r="L61">
+        <v>341270400</v>
+      </c>
+      <c r="M61">
+        <v>-894900</v>
+      </c>
+      <c r="N61">
+        <v>-18382777000</v>
+      </c>
+      <c r="O61">
+        <v>9487400</v>
+      </c>
+      <c r="P61">
+        <v>-19255452000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675077240000</v>
+      </c>
+      <c r="B62">
+        <v>1381900</v>
+      </c>
+      <c r="C62">
+        <v>1319800</v>
+      </c>
+      <c r="D62">
+        <v>13600</v>
+      </c>
+      <c r="E62">
+        <v>28176570000</v>
+      </c>
+      <c r="F62">
+        <v>24347647000</v>
+      </c>
+      <c r="G62">
+        <v>471403000</v>
+      </c>
+      <c r="H62">
+        <v>2715300</v>
+      </c>
+      <c r="I62">
+        <v>52995620000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-30T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>5687960160000</v>
+      </c>
+      <c r="L62">
+        <v>343985700</v>
+      </c>
+      <c r="M62">
+        <v>-62100</v>
+      </c>
+      <c r="N62">
+        <v>-3828923000</v>
+      </c>
+      <c r="O62">
+        <v>9425300</v>
+      </c>
+      <c r="P62">
+        <v>-23084375000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675077360000</v>
+      </c>
+      <c r="B63">
+        <v>1942200</v>
+      </c>
+      <c r="C63">
+        <v>1216400</v>
+      </c>
+      <c r="D63">
+        <v>76700</v>
+      </c>
+      <c r="E63">
+        <v>33314783000</v>
+      </c>
+      <c r="F63">
+        <v>25167090000</v>
+      </c>
+      <c r="G63">
+        <v>1535031000</v>
+      </c>
+      <c r="H63">
+        <v>3235300</v>
+      </c>
+      <c r="I63">
+        <v>60016904000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-30T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>5747977064000</v>
+      </c>
+      <c r="L63">
+        <v>347221000</v>
+      </c>
+      <c r="M63">
+        <v>-725800</v>
+      </c>
+      <c r="N63">
+        <v>-8147693000</v>
+      </c>
+      <c r="O63">
+        <v>8699500</v>
+      </c>
+      <c r="P63">
+        <v>-31232068000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675077480000</v>
+      </c>
+      <c r="B64">
+        <v>1254500</v>
+      </c>
+      <c r="C64">
+        <v>1688000</v>
+      </c>
+      <c r="D64">
+        <v>7300</v>
+      </c>
+      <c r="E64">
+        <v>23808763000</v>
+      </c>
+      <c r="F64">
+        <v>33499040000</v>
+      </c>
+      <c r="G64">
+        <v>314078000</v>
+      </c>
+      <c r="H64">
+        <v>2949800</v>
+      </c>
+      <c r="I64">
+        <v>57621881000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-30T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>5805598945000</v>
+      </c>
+      <c r="L64">
+        <v>350170800</v>
+      </c>
+      <c r="M64">
+        <v>433500</v>
+      </c>
+      <c r="N64">
+        <v>9690277000</v>
+      </c>
+      <c r="O64">
+        <v>9133000</v>
+      </c>
+      <c r="P64">
+        <v>-21541791000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675077600000</v>
+      </c>
+      <c r="B65">
+        <v>1679400</v>
+      </c>
+      <c r="C65">
+        <v>1355800</v>
+      </c>
+      <c r="D65">
+        <v>11100</v>
+      </c>
+      <c r="E65">
+        <v>27568813000</v>
+      </c>
+      <c r="F65">
+        <v>26953207000</v>
+      </c>
+      <c r="G65">
+        <v>91445000</v>
+      </c>
+      <c r="H65">
+        <v>3046300</v>
+      </c>
+      <c r="I65">
+        <v>54613465000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-30T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>5860212410000</v>
+      </c>
+      <c r="L65">
+        <v>353217100</v>
+      </c>
+      <c r="M65">
+        <v>-323600</v>
+      </c>
+      <c r="N65">
+        <v>-615606000</v>
+      </c>
+      <c r="O65">
+        <v>8809400</v>
+      </c>
+      <c r="P65">
+        <v>-22157397000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675077720000</v>
+      </c>
+      <c r="B66">
+        <v>1200200</v>
+      </c>
+      <c r="C66">
+        <v>3405400</v>
+      </c>
+      <c r="D66">
+        <v>19400</v>
+      </c>
+      <c r="E66">
+        <v>22131596000</v>
+      </c>
+      <c r="F66">
+        <v>60267359000</v>
+      </c>
+      <c r="G66">
+        <v>152963000</v>
+      </c>
+      <c r="H66">
+        <v>4625000</v>
+      </c>
+      <c r="I66">
+        <v>82551918000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-30T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5942764328000</v>
+      </c>
+      <c r="L66">
+        <v>357842100</v>
+      </c>
+      <c r="M66">
+        <v>2205200</v>
+      </c>
+      <c r="N66">
+        <v>38135763000</v>
+      </c>
+      <c r="O66">
+        <v>11014600</v>
+      </c>
+      <c r="P66">
+        <v>15978366000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675077840000</v>
+      </c>
+      <c r="B67">
+        <v>1779900</v>
+      </c>
+      <c r="C67">
+        <v>1961600</v>
+      </c>
+      <c r="D67">
+        <v>30300</v>
+      </c>
+      <c r="E67">
+        <v>31769611000</v>
+      </c>
+      <c r="F67">
+        <v>35539204000</v>
+      </c>
+      <c r="G67">
+        <v>274093000</v>
+      </c>
+      <c r="H67">
+        <v>3771800</v>
+      </c>
+      <c r="I67">
+        <v>67582908000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-30T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>6010347236000</v>
+      </c>
+      <c r="L67">
+        <v>361613900</v>
+      </c>
+      <c r="M67">
+        <v>181700</v>
+      </c>
+      <c r="N67">
+        <v>3769593000</v>
+      </c>
+      <c r="O67">
+        <v>11196300</v>
+      </c>
+      <c r="P67">
+        <v>19747959000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675077960000</v>
+      </c>
+      <c r="B68">
+        <v>1375200</v>
+      </c>
+      <c r="C68">
+        <v>2255700</v>
+      </c>
+      <c r="D68">
+        <v>61800</v>
+      </c>
+      <c r="E68">
+        <v>25368262000</v>
+      </c>
+      <c r="F68">
+        <v>47172943000</v>
+      </c>
+      <c r="G68">
+        <v>738245000</v>
+      </c>
+      <c r="H68">
+        <v>3692700</v>
+      </c>
+      <c r="I68">
+        <v>73279450000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-30T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>6083626686000</v>
+      </c>
+      <c r="L68">
+        <v>365306600</v>
+      </c>
+      <c r="M68">
+        <v>880500</v>
+      </c>
+      <c r="N68">
+        <v>21804681000</v>
+      </c>
+      <c r="O68">
+        <v>12076800</v>
+      </c>
+      <c r="P68">
+        <v>41552640000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675078080000</v>
+      </c>
+      <c r="B69">
+        <v>1215700</v>
+      </c>
+      <c r="C69">
+        <v>2702000</v>
+      </c>
+      <c r="D69">
+        <v>21300</v>
+      </c>
+      <c r="E69">
+        <v>20685962000</v>
+      </c>
+      <c r="F69">
+        <v>58241914000</v>
+      </c>
+      <c r="G69">
+        <v>700054000</v>
+      </c>
+      <c r="H69">
+        <v>3939000</v>
+      </c>
+      <c r="I69">
+        <v>79627930000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-30T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>6163254616000</v>
+      </c>
+      <c r="L69">
+        <v>369245600</v>
+      </c>
+      <c r="M69">
+        <v>1486300</v>
+      </c>
+      <c r="N69">
+        <v>37555952000</v>
+      </c>
+      <c r="O69">
+        <v>13563100</v>
+      </c>
+      <c r="P69">
+        <v>79108592000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675078200000</v>
+      </c>
+      <c r="B70">
+        <v>16500</v>
+      </c>
+      <c r="C70">
+        <v>10400</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>603278000</v>
+      </c>
+      <c r="F70">
+        <v>293100000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>26900</v>
+      </c>
+      <c r="I70">
+        <v>896378000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-30T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>6164150994000</v>
+      </c>
+      <c r="L70">
+        <v>369272500</v>
+      </c>
+      <c r="M70">
+        <v>-6100</v>
+      </c>
+      <c r="N70">
+        <v>-310178000</v>
+      </c>
+      <c r="O70">
+        <v>13557000</v>
+      </c>
+      <c r="P70">
+        <v>78798414000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675083600000</v>
+      </c>
+      <c r="B71">
+        <v>4554900</v>
+      </c>
+      <c r="C71">
+        <v>3890300</v>
+      </c>
+      <c r="D71">
+        <v>316700</v>
+      </c>
+      <c r="E71">
+        <v>71330887000</v>
+      </c>
+      <c r="F71">
+        <v>74382334000</v>
+      </c>
+      <c r="G71">
+        <v>5138346000</v>
+      </c>
+      <c r="H71">
+        <v>8761900</v>
+      </c>
+      <c r="I71">
+        <v>150851567000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-30T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>6315002561000</v>
+      </c>
+      <c r="L71">
+        <v>378034400</v>
+      </c>
+      <c r="M71">
+        <v>-664600</v>
+      </c>
+      <c r="N71">
+        <v>3051447000</v>
+      </c>
+      <c r="O71">
+        <v>12892400</v>
+      </c>
+      <c r="P71">
+        <v>81849861000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675083720000</v>
+      </c>
+      <c r="B72">
+        <v>2732600</v>
+      </c>
+      <c r="C72">
+        <v>1582000</v>
+      </c>
+      <c r="D72">
+        <v>79100</v>
+      </c>
+      <c r="E72">
+        <v>47818971000</v>
+      </c>
+      <c r="F72">
+        <v>28888163000</v>
+      </c>
+      <c r="G72">
+        <v>1192446000</v>
+      </c>
+      <c r="H72">
+        <v>4393700</v>
+      </c>
+      <c r="I72">
+        <v>77899580000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-30T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>6392902141000</v>
+      </c>
+      <c r="L72">
+        <v>382428100</v>
+      </c>
+      <c r="M72">
+        <v>-1150600</v>
+      </c>
+      <c r="N72">
+        <v>-18930808000</v>
+      </c>
+      <c r="O72">
+        <v>11741800</v>
+      </c>
+      <c r="P72">
+        <v>62919053000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675083840000</v>
+      </c>
+      <c r="B73">
+        <v>1788400</v>
+      </c>
+      <c r="C73">
+        <v>1531300</v>
+      </c>
+      <c r="D73">
+        <v>13600</v>
+      </c>
+      <c r="E73">
+        <v>32768572000</v>
+      </c>
+      <c r="F73">
+        <v>31649980000</v>
+      </c>
+      <c r="G73">
+        <v>362360000</v>
+      </c>
+      <c r="H73">
+        <v>3333300</v>
+      </c>
+      <c r="I73">
+        <v>64780912000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-30T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>6457683053000</v>
+      </c>
+      <c r="L73">
+        <v>385761400</v>
+      </c>
+      <c r="M73">
+        <v>-257100</v>
+      </c>
+      <c r="N73">
+        <v>-1118592000</v>
+      </c>
+      <c r="O73">
+        <v>11484700</v>
+      </c>
+      <c r="P73">
+        <v>61800461000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675083960000</v>
+      </c>
+      <c r="B74">
+        <v>2065400</v>
+      </c>
+      <c r="C74">
+        <v>2634300</v>
+      </c>
+      <c r="D74">
+        <v>15100</v>
+      </c>
+      <c r="E74">
+        <v>35730619000</v>
+      </c>
+      <c r="F74">
+        <v>48507378000</v>
+      </c>
+      <c r="G74">
+        <v>121419000</v>
+      </c>
+      <c r="H74">
+        <v>4714800</v>
+      </c>
+      <c r="I74">
+        <v>84359416000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-30T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>6542042469000</v>
+      </c>
+      <c r="L74">
+        <v>390476200</v>
+      </c>
+      <c r="M74">
+        <v>568900</v>
+      </c>
+      <c r="N74">
+        <v>12776759000</v>
+      </c>
+      <c r="O74">
+        <v>12053600</v>
+      </c>
+      <c r="P74">
+        <v>74577220000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675084080000</v>
+      </c>
+      <c r="B75">
+        <v>1669600</v>
+      </c>
+      <c r="C75">
+        <v>2795700</v>
+      </c>
+      <c r="D75">
+        <v>21400</v>
+      </c>
+      <c r="E75">
+        <v>28221159000</v>
+      </c>
+      <c r="F75">
+        <v>46788238000</v>
+      </c>
+      <c r="G75">
+        <v>521548000</v>
+      </c>
+      <c r="H75">
+        <v>4486700</v>
+      </c>
+      <c r="I75">
+        <v>75530945000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-30T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6617573414000</v>
+      </c>
+      <c r="L75">
+        <v>394962900</v>
+      </c>
+      <c r="M75">
+        <v>1126100</v>
+      </c>
+      <c r="N75">
+        <v>18567079000</v>
+      </c>
+      <c r="O75">
+        <v>13179700</v>
+      </c>
+      <c r="P75">
+        <v>93144299000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675084200000</v>
+      </c>
+      <c r="B76">
+        <v>1599700</v>
+      </c>
+      <c r="C76">
+        <v>2501300</v>
+      </c>
+      <c r="D76">
+        <v>25000</v>
+      </c>
+      <c r="E76">
+        <v>30048692000</v>
+      </c>
+      <c r="F76">
+        <v>42789027000</v>
+      </c>
+      <c r="G76">
+        <v>338491000</v>
+      </c>
+      <c r="H76">
+        <v>4126000</v>
+      </c>
+      <c r="I76">
+        <v>73176210000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-30T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>6690749624000</v>
+      </c>
+      <c r="L76">
+        <v>399088900</v>
+      </c>
+      <c r="M76">
+        <v>901600</v>
+      </c>
+      <c r="N76">
+        <v>12740335000</v>
+      </c>
+      <c r="O76">
+        <v>14081300</v>
+      </c>
+      <c r="P76">
+        <v>105884634000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675084320000</v>
+      </c>
+      <c r="B77">
+        <v>1560700</v>
+      </c>
+      <c r="C77">
+        <v>2516400</v>
+      </c>
+      <c r="D77">
+        <v>2400</v>
+      </c>
+      <c r="E77">
+        <v>25881123000</v>
+      </c>
+      <c r="F77">
+        <v>43722147000</v>
+      </c>
+      <c r="G77">
+        <v>52817000</v>
+      </c>
+      <c r="H77">
+        <v>4079500</v>
+      </c>
+      <c r="I77">
+        <v>69656087000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-30T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>6760405711000</v>
+      </c>
+      <c r="L77">
+        <v>403168400</v>
+      </c>
+      <c r="M77">
+        <v>955700</v>
+      </c>
+      <c r="N77">
+        <v>17841024000</v>
+      </c>
+      <c r="O77">
+        <v>15037000</v>
+      </c>
+      <c r="P77">
+        <v>123725658000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675084440000</v>
+      </c>
+      <c r="B78">
+        <v>1480100</v>
+      </c>
+      <c r="C78">
+        <v>3645100</v>
+      </c>
+      <c r="D78">
+        <v>23400</v>
+      </c>
+      <c r="E78">
+        <v>23125338000</v>
+      </c>
+      <c r="F78">
+        <v>62363114000</v>
+      </c>
+      <c r="G78">
+        <v>254603000</v>
+      </c>
+      <c r="H78">
+        <v>5148600</v>
+      </c>
+      <c r="I78">
+        <v>85743055000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-30T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>6846148766000</v>
+      </c>
+      <c r="L78">
+        <v>408317000</v>
+      </c>
+      <c r="M78">
+        <v>2165000</v>
+      </c>
+      <c r="N78">
+        <v>39237776000</v>
+      </c>
+      <c r="O78">
+        <v>17202000</v>
+      </c>
+      <c r="P78">
+        <v>162963434000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675084560000</v>
+      </c>
+      <c r="B79">
+        <v>1649200</v>
+      </c>
+      <c r="C79">
+        <v>4913700</v>
+      </c>
+      <c r="D79">
+        <v>17700</v>
+      </c>
+      <c r="E79">
+        <v>27229118000</v>
+      </c>
+      <c r="F79">
+        <v>88133354000</v>
+      </c>
+      <c r="G79">
+        <v>349456000</v>
+      </c>
+      <c r="H79">
+        <v>6580600</v>
+      </c>
+      <c r="I79">
+        <v>115711928000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-30T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6961860694000</v>
+      </c>
+      <c r="L79">
+        <v>414897600</v>
+      </c>
+      <c r="M79">
+        <v>3264500</v>
+      </c>
+      <c r="N79">
+        <v>60904236000</v>
+      </c>
+      <c r="O79">
+        <v>20466500</v>
+      </c>
+      <c r="P79">
+        <v>223867670000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675084680000</v>
+      </c>
+      <c r="B80">
+        <v>2315500</v>
+      </c>
+      <c r="C80">
+        <v>5331000</v>
+      </c>
+      <c r="D80">
+        <v>77400</v>
+      </c>
+      <c r="E80">
+        <v>38431431000</v>
+      </c>
+      <c r="F80">
+        <v>92081000000</v>
+      </c>
+      <c r="G80">
+        <v>1378583000</v>
+      </c>
+      <c r="H80">
+        <v>7723900</v>
+      </c>
+      <c r="I80">
+        <v>131891014000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-30T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>7093751708000</v>
+      </c>
+      <c r="L80">
+        <v>422621500</v>
+      </c>
+      <c r="M80">
+        <v>3015500</v>
+      </c>
+      <c r="N80">
+        <v>53649569000</v>
+      </c>
+      <c r="O80">
+        <v>23482000</v>
+      </c>
+      <c r="P80">
+        <v>277517239000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675084800000</v>
+      </c>
+      <c r="B81">
+        <v>2211500</v>
+      </c>
+      <c r="C81">
+        <v>4462600</v>
+      </c>
+      <c r="D81">
+        <v>26100</v>
+      </c>
+      <c r="E81">
+        <v>39943274000</v>
+      </c>
+      <c r="F81">
+        <v>80493561000</v>
+      </c>
+      <c r="G81">
+        <v>477577000</v>
+      </c>
+      <c r="H81">
+        <v>6700200</v>
+      </c>
+      <c r="I81">
+        <v>120914412000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-30T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7214666120000</v>
+      </c>
+      <c r="L81">
+        <v>429321700</v>
+      </c>
+      <c r="M81">
+        <v>2251100</v>
+      </c>
+      <c r="N81">
+        <v>40550287000</v>
+      </c>
+      <c r="O81">
+        <v>25733100</v>
+      </c>
+      <c r="P81">
+        <v>318067526000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675084920000</v>
+      </c>
+      <c r="B82">
+        <v>1743300</v>
+      </c>
+      <c r="C82">
+        <v>4499400</v>
+      </c>
+      <c r="D82">
+        <v>17600</v>
+      </c>
+      <c r="E82">
+        <v>28568361000</v>
+      </c>
+      <c r="F82">
+        <v>72141923000</v>
+      </c>
+      <c r="G82">
+        <v>352743000</v>
+      </c>
+      <c r="H82">
+        <v>6260300</v>
+      </c>
+      <c r="I82">
+        <v>101063027000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-30T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>7315729147000</v>
+      </c>
+      <c r="L82">
+        <v>435582000</v>
+      </c>
+      <c r="M82">
+        <v>2756100</v>
+      </c>
+      <c r="N82">
+        <v>43573562000</v>
+      </c>
+      <c r="O82">
+        <v>28489200</v>
+      </c>
+      <c r="P82">
+        <v>361641088000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675085040000</v>
+      </c>
+      <c r="B83">
+        <v>3042700</v>
+      </c>
+      <c r="C83">
+        <v>3676000</v>
+      </c>
+      <c r="D83">
+        <v>15900</v>
+      </c>
+      <c r="E83">
+        <v>51735210000</v>
+      </c>
+      <c r="F83">
+        <v>62755396000</v>
+      </c>
+      <c r="G83">
+        <v>392714000</v>
+      </c>
+      <c r="H83">
+        <v>6734600</v>
+      </c>
+      <c r="I83">
+        <v>114883320000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-30T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>7430612467000</v>
+      </c>
+      <c r="L83">
+        <v>442316600</v>
+      </c>
+      <c r="M83">
+        <v>633300</v>
+      </c>
+      <c r="N83">
+        <v>11020186000</v>
+      </c>
+      <c r="O83">
+        <v>29122500</v>
+      </c>
+      <c r="P83">
+        <v>372661274000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675085160000</v>
+      </c>
+      <c r="B84">
+        <v>2445700</v>
+      </c>
+      <c r="C84">
+        <v>1999100</v>
+      </c>
+      <c r="D84">
+        <v>21100</v>
+      </c>
+      <c r="E84">
+        <v>41278479000</v>
+      </c>
+      <c r="F84">
+        <v>36252142000</v>
+      </c>
+      <c r="G84">
+        <v>336802000</v>
+      </c>
+      <c r="H84">
+        <v>4465900</v>
+      </c>
+      <c r="I84">
+        <v>77867423000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-30T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7508479890000</v>
+      </c>
+      <c r="L84">
+        <v>446782500</v>
+      </c>
+      <c r="M84">
+        <v>-446600</v>
+      </c>
+      <c r="N84">
+        <v>-5026337000</v>
+      </c>
+      <c r="O84">
+        <v>28675900</v>
+      </c>
+      <c r="P84">
+        <v>367634937000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675085280000</v>
+      </c>
+      <c r="B85">
+        <v>2941700</v>
+      </c>
+      <c r="C85">
+        <v>2152700</v>
+      </c>
+      <c r="D85">
+        <v>2300</v>
+      </c>
+      <c r="E85">
+        <v>53663837000</v>
+      </c>
+      <c r="F85">
+        <v>39712731000</v>
+      </c>
+      <c r="G85">
+        <v>142636000</v>
+      </c>
+      <c r="H85">
+        <v>5096700</v>
+      </c>
+      <c r="I85">
+        <v>93519204000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-30T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7601999094000</v>
+      </c>
+      <c r="L85">
+        <v>451879200</v>
+      </c>
+      <c r="M85">
+        <v>-789000</v>
+      </c>
+      <c r="N85">
+        <v>-13951106000</v>
+      </c>
+      <c r="O85">
+        <v>27886900</v>
+      </c>
+      <c r="P85">
+        <v>353683831000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675085400000</v>
+      </c>
+      <c r="B86">
+        <v>3781200</v>
+      </c>
+      <c r="C86">
+        <v>1924200</v>
+      </c>
+      <c r="D86">
+        <v>5100</v>
+      </c>
+      <c r="E86">
+        <v>69588889000</v>
+      </c>
+      <c r="F86">
+        <v>29950365000</v>
+      </c>
+      <c r="G86">
+        <v>71536000</v>
+      </c>
+      <c r="H86">
+        <v>5710500</v>
+      </c>
+      <c r="I86">
+        <v>99610790000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-30T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7701609884000</v>
+      </c>
+      <c r="L86">
+        <v>457589700</v>
+      </c>
+      <c r="M86">
+        <v>-1857000</v>
+      </c>
+      <c r="N86">
+        <v>-39638524000</v>
+      </c>
+      <c r="O86">
+        <v>26029900</v>
+      </c>
+      <c r="P86">
+        <v>314045307000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675085520000</v>
+      </c>
+      <c r="B87">
+        <v>3441400</v>
+      </c>
+      <c r="C87">
+        <v>1430900</v>
+      </c>
+      <c r="D87">
+        <v>5800</v>
+      </c>
+      <c r="E87">
+        <v>60749271000</v>
+      </c>
+      <c r="F87">
+        <v>27862113000</v>
+      </c>
+      <c r="G87">
+        <v>197944000</v>
+      </c>
+      <c r="H87">
+        <v>4878100</v>
+      </c>
+      <c r="I87">
+        <v>88809328000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-30T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7790419212000</v>
+      </c>
+      <c r="L87">
+        <v>462467800</v>
+      </c>
+      <c r="M87">
+        <v>-2010500</v>
+      </c>
+      <c r="N87">
+        <v>-32887158000</v>
+      </c>
+      <c r="O87">
+        <v>24019400</v>
+      </c>
+      <c r="P87">
+        <v>281158149000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675085640000</v>
+      </c>
+      <c r="B88">
+        <v>3369200</v>
+      </c>
+      <c r="C88">
+        <v>1830700</v>
+      </c>
+      <c r="D88">
+        <v>70400</v>
+      </c>
+      <c r="E88">
+        <v>54113453000</v>
+      </c>
+      <c r="F88">
+        <v>32517371000</v>
+      </c>
+      <c r="G88">
+        <v>1499930000</v>
+      </c>
+      <c r="H88">
+        <v>5270300</v>
+      </c>
+      <c r="I88">
+        <v>88130754000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-30T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7878549966000</v>
+      </c>
+      <c r="L88">
+        <v>467738100</v>
+      </c>
+      <c r="M88">
+        <v>-1538500</v>
+      </c>
+      <c r="N88">
+        <v>-21596082000</v>
+      </c>
+      <c r="O88">
+        <v>22480900</v>
+      </c>
+      <c r="P88">
+        <v>259562067000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675085760000</v>
+      </c>
+      <c r="B89">
+        <v>2514300</v>
+      </c>
+      <c r="C89">
+        <v>2209500</v>
+      </c>
+      <c r="D89">
+        <v>18800</v>
+      </c>
+      <c r="E89">
+        <v>43107969000</v>
+      </c>
+      <c r="F89">
+        <v>37042255000</v>
+      </c>
+      <c r="G89">
+        <v>264322000</v>
+      </c>
+      <c r="H89">
+        <v>4742600</v>
+      </c>
+      <c r="I89">
+        <v>80414546000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-30T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7958964512000</v>
+      </c>
+      <c r="L89">
+        <v>472480700</v>
+      </c>
+      <c r="M89">
+        <v>-304800</v>
+      </c>
+      <c r="N89">
+        <v>-6065714000</v>
+      </c>
+      <c r="O89">
+        <v>22176100</v>
+      </c>
+      <c r="P89">
+        <v>253496353000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675085880000</v>
+      </c>
+      <c r="B90">
+        <v>2139800</v>
+      </c>
+      <c r="C90">
+        <v>2005300</v>
+      </c>
+      <c r="D90">
+        <v>31200</v>
+      </c>
+      <c r="E90">
+        <v>39005267000</v>
+      </c>
+      <c r="F90">
+        <v>36369331000</v>
+      </c>
+      <c r="G90">
+        <v>574397000</v>
+      </c>
+      <c r="H90">
+        <v>4176300</v>
+      </c>
+      <c r="I90">
+        <v>75948995000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-30T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>8034913507000</v>
+      </c>
+      <c r="L90">
+        <v>476657000</v>
+      </c>
+      <c r="M90">
+        <v>-134500</v>
+      </c>
+      <c r="N90">
+        <v>-2635936000</v>
+      </c>
+      <c r="O90">
+        <v>22041600</v>
+      </c>
+      <c r="P90">
+        <v>250860417000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675086000000</v>
+      </c>
+      <c r="B91">
+        <v>2455600</v>
+      </c>
+      <c r="C91">
+        <v>1879600</v>
+      </c>
+      <c r="D91">
+        <v>10900</v>
+      </c>
+      <c r="E91">
+        <v>46731654000</v>
+      </c>
+      <c r="F91">
+        <v>35080991000</v>
+      </c>
+      <c r="G91">
+        <v>444720000</v>
+      </c>
+      <c r="H91">
+        <v>4346100</v>
+      </c>
+      <c r="I91">
+        <v>82257365000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-30T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>8117170872000</v>
+      </c>
+      <c r="L91">
+        <v>481003100</v>
+      </c>
+      <c r="M91">
+        <v>-576000</v>
+      </c>
+      <c r="N91">
+        <v>-11650663000</v>
+      </c>
+      <c r="O91">
+        <v>21465600</v>
+      </c>
+      <c r="P91">
+        <v>239209754000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675086120000</v>
+      </c>
+      <c r="B92">
+        <v>3575800</v>
+      </c>
+      <c r="C92">
+        <v>1662200</v>
+      </c>
+      <c r="D92">
+        <v>6500</v>
+      </c>
+      <c r="E92">
+        <v>61434217000</v>
+      </c>
+      <c r="F92">
+        <v>28981142000</v>
+      </c>
+      <c r="G92">
+        <v>284605000</v>
+      </c>
+      <c r="H92">
+        <v>5244500</v>
+      </c>
+      <c r="I92">
+        <v>90699964000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-30T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8207870836000</v>
+      </c>
+      <c r="L92">
+        <v>486247600</v>
+      </c>
+      <c r="M92">
+        <v>-1913600</v>
+      </c>
+      <c r="N92">
+        <v>-32453075000</v>
+      </c>
+      <c r="O92">
+        <v>19552000</v>
+      </c>
+      <c r="P92">
+        <v>206756679000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675086240000</v>
+      </c>
+      <c r="B93">
+        <v>2585400</v>
+      </c>
+      <c r="C93">
+        <v>1992100</v>
+      </c>
+      <c r="D93">
+        <v>11900</v>
+      </c>
+      <c r="E93">
+        <v>48070214000</v>
+      </c>
+      <c r="F93">
+        <v>32779535000</v>
+      </c>
+      <c r="G93">
+        <v>190665000</v>
+      </c>
+      <c r="H93">
+        <v>4589400</v>
+      </c>
+      <c r="I93">
+        <v>81040414000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-30T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8288911250000</v>
+      </c>
+      <c r="L93">
+        <v>490837000</v>
+      </c>
+      <c r="M93">
+        <v>-593300</v>
+      </c>
+      <c r="N93">
+        <v>-15290679000</v>
+      </c>
+      <c r="O93">
+        <v>18958700</v>
+      </c>
+      <c r="P93">
+        <v>191466000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675086360000</v>
+      </c>
+      <c r="B94">
+        <v>3510200</v>
+      </c>
+      <c r="C94">
+        <v>1392600</v>
+      </c>
+      <c r="D94">
+        <v>76000</v>
+      </c>
+      <c r="E94">
+        <v>56570105000</v>
+      </c>
+      <c r="F94">
+        <v>25295857000</v>
+      </c>
+      <c r="G94">
+        <v>946547000</v>
+      </c>
+      <c r="H94">
+        <v>4978800</v>
+      </c>
+      <c r="I94">
+        <v>82812509000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-30T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8371723759000</v>
+      </c>
+      <c r="L94">
+        <v>495815800</v>
+      </c>
+      <c r="M94">
+        <v>-2117600</v>
+      </c>
+      <c r="N94">
+        <v>-31274248000</v>
+      </c>
+      <c r="O94">
+        <v>16841100</v>
+      </c>
+      <c r="P94">
+        <v>160191752000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675086480000</v>
+      </c>
+      <c r="B95">
+        <v>3508800</v>
+      </c>
+      <c r="C95">
+        <v>1674100</v>
+      </c>
+      <c r="D95">
+        <v>4900</v>
+      </c>
+      <c r="E95">
+        <v>71361753000</v>
+      </c>
+      <c r="F95">
+        <v>32208062000</v>
+      </c>
+      <c r="G95">
+        <v>129264000</v>
+      </c>
+      <c r="H95">
+        <v>5187800</v>
+      </c>
+      <c r="I95">
+        <v>103699079000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-30T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8475422838000</v>
+      </c>
+      <c r="L95">
+        <v>501003600</v>
+      </c>
+      <c r="M95">
+        <v>-1834700</v>
+      </c>
+      <c r="N95">
+        <v>-39153691000</v>
+      </c>
+      <c r="O95">
+        <v>15006400</v>
+      </c>
+      <c r="P95">
+        <v>121038061000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675086600000</v>
+      </c>
+      <c r="B96">
+        <v>3786200</v>
+      </c>
+      <c r="C96">
+        <v>2047500</v>
+      </c>
+      <c r="D96">
+        <v>38100</v>
+      </c>
+      <c r="E96">
+        <v>66076207000</v>
+      </c>
+      <c r="F96">
+        <v>42083248000</v>
+      </c>
+      <c r="G96">
+        <v>1041249000</v>
+      </c>
+      <c r="H96">
+        <v>5871800</v>
+      </c>
+      <c r="I96">
+        <v>109200704000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-30T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8584623542000</v>
+      </c>
+      <c r="L96">
+        <v>506875400</v>
+      </c>
+      <c r="M96">
+        <v>-1738700</v>
+      </c>
+      <c r="N96">
+        <v>-23992959000</v>
+      </c>
+      <c r="O96">
+        <v>13267700</v>
+      </c>
+      <c r="P96">
+        <v>97045102000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675086720000</v>
+      </c>
+      <c r="B97">
+        <v>3451400</v>
+      </c>
+      <c r="C97">
+        <v>2285400</v>
+      </c>
+      <c r="D97">
+        <v>58400</v>
+      </c>
+      <c r="E97">
+        <v>63976184000</v>
+      </c>
+      <c r="F97">
+        <v>45094954000</v>
+      </c>
+      <c r="G97">
+        <v>969655000</v>
+      </c>
+      <c r="H97">
+        <v>5795200</v>
+      </c>
+      <c r="I97">
+        <v>110040793000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-30T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>8694664335000</v>
+      </c>
+      <c r="L97">
+        <v>512670600</v>
+      </c>
+      <c r="M97">
+        <v>-1166000</v>
+      </c>
+      <c r="N97">
+        <v>-18881230000</v>
+      </c>
+      <c r="O97">
+        <v>12101700</v>
+      </c>
+      <c r="P97">
+        <v>78163872000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675086840000</v>
+      </c>
+      <c r="B98">
+        <v>3613200</v>
+      </c>
+      <c r="C98">
+        <v>1757200</v>
+      </c>
+      <c r="D98">
+        <v>83300</v>
+      </c>
+      <c r="E98">
+        <v>65609254000</v>
+      </c>
+      <c r="F98">
+        <v>34024444000</v>
+      </c>
+      <c r="G98">
+        <v>769404000</v>
+      </c>
+      <c r="H98">
+        <v>5453700</v>
+      </c>
+      <c r="I98">
+        <v>100403102000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-30T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8795067437000</v>
+      </c>
+      <c r="L98">
+        <v>518124300</v>
+      </c>
+      <c r="M98">
+        <v>-1856000</v>
+      </c>
+      <c r="N98">
+        <v>-31584810000</v>
+      </c>
+      <c r="O98">
+        <v>10245700</v>
+      </c>
+      <c r="P98">
+        <v>46579062000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675086960000</v>
+      </c>
+      <c r="B99">
+        <v>5720900</v>
+      </c>
+      <c r="C99">
+        <v>2411500</v>
+      </c>
+      <c r="D99">
+        <v>35700</v>
+      </c>
+      <c r="E99">
+        <v>83760550000</v>
+      </c>
+      <c r="F99">
+        <v>53230333000</v>
+      </c>
+      <c r="G99">
+        <v>1107127000</v>
+      </c>
+      <c r="H99">
+        <v>8168100</v>
+      </c>
+      <c r="I99">
+        <v>138098010000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-30T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8933165447000</v>
+      </c>
+      <c r="L99">
+        <v>526292400</v>
+      </c>
+      <c r="M99">
+        <v>-3309400</v>
+      </c>
+      <c r="N99">
+        <v>-30530217000</v>
+      </c>
+      <c r="O99">
+        <v>6936300</v>
+      </c>
+      <c r="P99">
+        <v>16048845000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675087080000</v>
+      </c>
+      <c r="B100">
+        <v>3611400</v>
+      </c>
+      <c r="C100">
+        <v>2879200</v>
+      </c>
+      <c r="D100">
+        <v>57000</v>
+      </c>
+      <c r="E100">
+        <v>59531277000</v>
+      </c>
+      <c r="F100">
+        <v>52113514000</v>
+      </c>
+      <c r="G100">
+        <v>656918000</v>
+      </c>
+      <c r="H100">
+        <v>6547600</v>
+      </c>
+      <c r="I100">
+        <v>112301709000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-30T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>9045467156000</v>
+      </c>
+      <c r="L100">
+        <v>532840000</v>
+      </c>
+      <c r="M100">
+        <v>-732200</v>
+      </c>
+      <c r="N100">
+        <v>-7417763000</v>
+      </c>
+      <c r="O100">
+        <v>6204100</v>
+      </c>
+      <c r="P100">
+        <v>8631082000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675087200000</v>
+      </c>
+      <c r="B101">
+        <v>3307900</v>
+      </c>
+      <c r="C101">
+        <v>1989000</v>
+      </c>
+      <c r="D101">
+        <v>12900</v>
+      </c>
+      <c r="E101">
+        <v>56313114000</v>
+      </c>
+      <c r="F101">
+        <v>33943462000</v>
+      </c>
+      <c r="G101">
+        <v>426890000</v>
+      </c>
+      <c r="H101">
+        <v>5309800</v>
+      </c>
+      <c r="I101">
+        <v>90683466000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-30T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>9136150622000</v>
+      </c>
+      <c r="L101">
+        <v>538149800</v>
+      </c>
+      <c r="M101">
+        <v>-1318900</v>
+      </c>
+      <c r="N101">
+        <v>-22369652000</v>
+      </c>
+      <c r="O101">
+        <v>4885200</v>
+      </c>
+      <c r="P101">
+        <v>-13738570000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675087320000</v>
+      </c>
+      <c r="B102">
+        <v>4481200</v>
+      </c>
+      <c r="C102">
+        <v>2643500</v>
+      </c>
+      <c r="D102">
+        <v>29000</v>
+      </c>
+      <c r="E102">
+        <v>82554431000</v>
+      </c>
+      <c r="F102">
+        <v>44079187000</v>
+      </c>
+      <c r="G102">
+        <v>521035000</v>
+      </c>
+      <c r="H102">
+        <v>7153700</v>
+      </c>
+      <c r="I102">
+        <v>127154653000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-30T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>9263305275000</v>
+      </c>
+      <c r="L102">
+        <v>545303500</v>
+      </c>
+      <c r="M102">
+        <v>-1837700</v>
+      </c>
+      <c r="N102">
+        <v>-38475244000</v>
+      </c>
+      <c r="O102">
+        <v>3047500</v>
+      </c>
+      <c r="P102">
+        <v>-52213814000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675087440000</v>
+      </c>
+      <c r="B103">
+        <v>6180900</v>
+      </c>
+      <c r="C103">
+        <v>1447100</v>
+      </c>
+      <c r="D103">
+        <v>14700</v>
+      </c>
+      <c r="E103">
+        <v>106020234000</v>
+      </c>
+      <c r="F103">
+        <v>27436806000</v>
+      </c>
+      <c r="G103">
+        <v>307054000</v>
+      </c>
+      <c r="H103">
+        <v>7642700</v>
+      </c>
+      <c r="I103">
+        <v>133764094000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-30T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>9397069369000</v>
+      </c>
+      <c r="L103">
+        <v>552946200</v>
+      </c>
+      <c r="M103">
+        <v>-4733800</v>
+      </c>
+      <c r="N103">
+        <v>-78583428000</v>
+      </c>
+      <c r="O103">
+        <v>-1686300</v>
+      </c>
+      <c r="P103">
+        <v>-130797242000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675087560000</v>
+      </c>
+      <c r="B104">
+        <v>10989400</v>
+      </c>
+      <c r="C104">
+        <v>1541800</v>
+      </c>
+      <c r="D104">
+        <v>35300</v>
+      </c>
+      <c r="E104">
+        <v>183886289000</v>
+      </c>
+      <c r="F104">
+        <v>30847819000</v>
+      </c>
+      <c r="G104">
+        <v>911383000</v>
+      </c>
+      <c r="H104">
+        <v>12566500</v>
+      </c>
+      <c r="I104">
+        <v>215645491000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-30T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9612714860000</v>
+      </c>
+      <c r="L104">
+        <v>565512700</v>
+      </c>
+      <c r="M104">
+        <v>-9447600</v>
+      </c>
+      <c r="N104">
+        <v>-153038470000</v>
+      </c>
+      <c r="O104">
+        <v>-11133900</v>
+      </c>
+      <c r="P104">
+        <v>-283835712000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675087680000</v>
+      </c>
+      <c r="B105">
+        <v>15660600</v>
+      </c>
+      <c r="C105">
+        <v>2750100</v>
+      </c>
+      <c r="D105">
+        <v>180100</v>
+      </c>
+      <c r="E105">
+        <v>271665529000</v>
+      </c>
+      <c r="F105">
+        <v>50984505000</v>
+      </c>
+      <c r="G105">
+        <v>3750907000</v>
+      </c>
+      <c r="H105">
+        <v>18590800</v>
+      </c>
+      <c r="I105">
+        <v>326400941000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-30T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9939115801000</v>
+      </c>
+      <c r="L105">
+        <v>584103500</v>
+      </c>
+      <c r="M105">
+        <v>-12910500</v>
+      </c>
+      <c r="N105">
+        <v>-220681024000</v>
+      </c>
+      <c r="O105">
+        <v>-24044400</v>
+      </c>
+      <c r="P105">
+        <v>-504516736000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675087800000</v>
+      </c>
+      <c r="B106">
+        <v>10808400</v>
+      </c>
+      <c r="C106">
+        <v>4346400</v>
+      </c>
+      <c r="D106">
+        <v>102000</v>
+      </c>
+      <c r="E106">
+        <v>179675130000</v>
+      </c>
+      <c r="F106">
+        <v>82143962000</v>
+      </c>
+      <c r="G106">
+        <v>2088784000</v>
+      </c>
+      <c r="H106">
+        <v>15256800</v>
+      </c>
+      <c r="I106">
+        <v>263907876000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-30T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>10203023677000</v>
+      </c>
+      <c r="L106">
+        <v>599360300</v>
+      </c>
+      <c r="M106">
+        <v>-6462000</v>
+      </c>
+      <c r="N106">
+        <v>-97531168000</v>
+      </c>
+      <c r="O106">
+        <v>-30506400</v>
+      </c>
+      <c r="P106">
+        <v>-602047904000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675087920000</v>
+      </c>
+      <c r="B107">
+        <v>7601100</v>
+      </c>
+      <c r="C107">
+        <v>4472700</v>
+      </c>
+      <c r="D107">
+        <v>48900</v>
+      </c>
+      <c r="E107">
+        <v>123606397000</v>
+      </c>
+      <c r="F107">
+        <v>79867668000</v>
+      </c>
+      <c r="G107">
+        <v>1304312000</v>
+      </c>
+      <c r="H107">
+        <v>12122700</v>
+      </c>
+      <c r="I107">
+        <v>204778377000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-30T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>10407802054000</v>
+      </c>
+      <c r="L107">
+        <v>611483000</v>
+      </c>
+      <c r="M107">
+        <v>-3128400</v>
+      </c>
+      <c r="N107">
+        <v>-43738729000</v>
+      </c>
+      <c r="O107">
+        <v>-33634800</v>
+      </c>
+      <c r="P107">
+        <v>-645786633000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675088040000</v>
+      </c>
+      <c r="B108">
+        <v>4995400</v>
+      </c>
+      <c r="C108">
+        <v>5326800</v>
+      </c>
+      <c r="D108">
+        <v>91300</v>
+      </c>
+      <c r="E108">
+        <v>67470635000</v>
+      </c>
+      <c r="F108">
+        <v>88774660000</v>
+      </c>
+      <c r="G108">
+        <v>2493840000</v>
+      </c>
+      <c r="H108">
+        <v>10413500</v>
+      </c>
+      <c r="I108">
+        <v>158739135000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-30T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>10566541189000</v>
+      </c>
+      <c r="L108">
+        <v>621896500</v>
+      </c>
+      <c r="M108">
+        <v>331400</v>
+      </c>
+      <c r="N108">
+        <v>21304025000</v>
+      </c>
+      <c r="O108">
+        <v>-33303400</v>
+      </c>
+      <c r="P108">
+        <v>-624482608000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675088160000</v>
+      </c>
+      <c r="B109">
+        <v>2646300</v>
+      </c>
+      <c r="C109">
+        <v>5151800</v>
+      </c>
+      <c r="D109">
+        <v>34500</v>
+      </c>
+      <c r="E109">
+        <v>46382063000</v>
+      </c>
+      <c r="F109">
+        <v>96084245000</v>
+      </c>
+      <c r="G109">
+        <v>681448000</v>
+      </c>
+      <c r="H109">
+        <v>7832600</v>
+      </c>
+      <c r="I109">
+        <v>143147756000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-30T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>10709688945000</v>
+      </c>
+      <c r="L109">
+        <v>629729100</v>
+      </c>
+      <c r="M109">
+        <v>2505500</v>
+      </c>
+      <c r="N109">
+        <v>49702182000</v>
+      </c>
+      <c r="O109">
+        <v>-30797900</v>
+      </c>
+      <c r="P109">
+        <v>-574780426000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675088280000</v>
+      </c>
+      <c r="B110">
+        <v>2520700</v>
+      </c>
+      <c r="C110">
+        <v>3346300</v>
+      </c>
+      <c r="D110">
+        <v>11700</v>
+      </c>
+      <c r="E110">
+        <v>50746859000</v>
+      </c>
+      <c r="F110">
+        <v>64395051000</v>
+      </c>
+      <c r="G110">
+        <v>196326000</v>
+      </c>
+      <c r="H110">
+        <v>5878700</v>
+      </c>
+      <c r="I110">
+        <v>115338236000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-30T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>10825027181000</v>
+      </c>
+      <c r="L110">
+        <v>635607800</v>
+      </c>
+      <c r="M110">
+        <v>825600</v>
+      </c>
+      <c r="N110">
+        <v>13648192000</v>
+      </c>
+      <c r="O110">
+        <v>-29972300</v>
+      </c>
+      <c r="P110">
+        <v>-561132234000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675088400000</v>
+      </c>
+      <c r="B111">
+        <v>7380300</v>
+      </c>
+      <c r="C111">
+        <v>1880300</v>
+      </c>
+      <c r="D111">
+        <v>37600</v>
+      </c>
+      <c r="E111">
+        <v>136576468000</v>
+      </c>
+      <c r="F111">
+        <v>34871263000</v>
+      </c>
+      <c r="G111">
+        <v>946280000</v>
+      </c>
+      <c r="H111">
+        <v>9298200</v>
+      </c>
+      <c r="I111">
+        <v>172394011000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-30T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>10997421192000</v>
+      </c>
+      <c r="L111">
+        <v>644906000</v>
+      </c>
+      <c r="M111">
+        <v>-5500000</v>
+      </c>
+      <c r="N111">
+        <v>-101705205000</v>
+      </c>
+      <c r="O111">
+        <v>-35472300</v>
+      </c>
+      <c r="P111">
+        <v>-662837439000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675088520000</v>
+      </c>
+      <c r="B112">
+        <v>4102400</v>
+      </c>
+      <c r="C112">
+        <v>2024800</v>
+      </c>
+      <c r="D112">
+        <v>20700</v>
+      </c>
+      <c r="E112">
+        <v>78223042000</v>
+      </c>
+      <c r="F112">
+        <v>39065449000</v>
+      </c>
+      <c r="G112">
+        <v>323189000</v>
+      </c>
+      <c r="H112">
+        <v>6147900</v>
+      </c>
+      <c r="I112">
+        <v>117611680000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-30T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>11115032872000</v>
+      </c>
+      <c r="L112">
+        <v>651053900</v>
+      </c>
+      <c r="M112">
+        <v>-2077600</v>
+      </c>
+      <c r="N112">
+        <v>-39157593000</v>
+      </c>
+      <c r="O112">
+        <v>-37549900</v>
+      </c>
+      <c r="P112">
+        <v>-701995032000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675088640000</v>
+      </c>
+      <c r="B113">
+        <v>4989400</v>
+      </c>
+      <c r="C113">
+        <v>2305100</v>
+      </c>
+      <c r="D113">
+        <v>67800</v>
+      </c>
+      <c r="E113">
+        <v>99164703000</v>
+      </c>
+      <c r="F113">
+        <v>45529011000</v>
+      </c>
+      <c r="G113">
+        <v>1717765000</v>
+      </c>
+      <c r="H113">
+        <v>7362300</v>
+      </c>
+      <c r="I113">
+        <v>146411479000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-30T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>11261444351000</v>
+      </c>
+      <c r="L113">
+        <v>658416200</v>
+      </c>
+      <c r="M113">
+        <v>-2684300</v>
+      </c>
+      <c r="N113">
+        <v>-53635692000</v>
+      </c>
+      <c r="O113">
+        <v>-40234200</v>
+      </c>
+      <c r="P113">
+        <v>-755630724000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675088760000</v>
+      </c>
+      <c r="B114">
+        <v>7469200</v>
+      </c>
+      <c r="C114">
+        <v>2718100</v>
+      </c>
+      <c r="D114">
+        <v>217500</v>
+      </c>
+      <c r="E114">
+        <v>134032673000</v>
+      </c>
+      <c r="F114">
+        <v>47661148000</v>
+      </c>
+      <c r="G114">
+        <v>5319832000</v>
+      </c>
+      <c r="H114">
+        <v>10404800</v>
+      </c>
+      <c r="I114">
+        <v>187013653000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-30T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>11448458004000</v>
+      </c>
+      <c r="L114">
+        <v>668821000</v>
+      </c>
+      <c r="M114">
+        <v>-4751100</v>
+      </c>
+      <c r="N114">
+        <v>-86371525000</v>
+      </c>
+      <c r="O114">
+        <v>-44985300</v>
+      </c>
+      <c r="P114">
+        <v>-842002249000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675088880000</v>
+      </c>
+      <c r="B115">
+        <v>8067100</v>
+      </c>
+      <c r="C115">
+        <v>3418900</v>
+      </c>
+      <c r="D115">
+        <v>50700</v>
+      </c>
+      <c r="E115">
+        <v>133229213000</v>
+      </c>
+      <c r="F115">
+        <v>62689481000</v>
+      </c>
+      <c r="G115">
+        <v>982349000</v>
+      </c>
+      <c r="H115">
+        <v>11536700</v>
+      </c>
+      <c r="I115">
+        <v>196901043000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-30T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>11645359047000</v>
+      </c>
+      <c r="L115">
+        <v>680357700</v>
+      </c>
+      <c r="M115">
+        <v>-4648200</v>
+      </c>
+      <c r="N115">
+        <v>-70539732000</v>
+      </c>
+      <c r="O115">
+        <v>-49633500</v>
+      </c>
+      <c r="P115">
+        <v>-912541981000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675089000000</v>
+      </c>
+      <c r="B116">
+        <v>18200</v>
+      </c>
+      <c r="C116">
+        <v>16000</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>277785000</v>
+      </c>
+      <c r="F116">
+        <v>397940000</v>
+      </c>
+      <c r="G116">
+        <v>2095000</v>
+      </c>
+      <c r="H116">
+        <v>34300</v>
+      </c>
+      <c r="I116">
+        <v>677820000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-30T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>11646036867000</v>
+      </c>
+      <c r="L116">
+        <v>680392000</v>
+      </c>
+      <c r="M116">
+        <v>-2200</v>
+      </c>
+      <c r="N116">
+        <v>120155000</v>
+      </c>
+      <c r="O116">
+        <v>-49635700</v>
+      </c>
+      <c r="P116">
+        <v>-912421826000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1675089840000</v>
+      </c>
+      <c r="B117">
         <v>1850600</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>2318700</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>26595300</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>45234132000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>36630117000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>516789461000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>30764600</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>598653710000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-30T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-30T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>12244690577000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>711156600</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>468100</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-8604015000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-49167600</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>-921025841000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
+++ b/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
@@ -466,25 +466,25 @@
         <v>3377600</v>
       </c>
       <c r="E2">
-        <v>58513569000</v>
+        <v>50058832200</v>
       </c>
       <c r="F2">
-        <v>43704459000</v>
+        <v>33849423900</v>
       </c>
       <c r="G2">
-        <v>40794478000</v>
+        <v>37304771200</v>
       </c>
       <c r="H2">
         <v>9135100</v>
       </c>
       <c r="I2">
-        <v>143012506000</v>
+        <v>121213027300</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-30T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>143012506000</v>
+        <v>121213027300</v>
       </c>
       <c r="L2">
         <v>9135100</v>
@@ -493,13 +493,13 @@
         <v>-178500</v>
       </c>
       <c r="N2">
-        <v>-14809110000</v>
+        <v>-16209408300</v>
       </c>
       <c r="O2">
         <v>-178500</v>
       </c>
       <c r="P2">
-        <v>-14809110000</v>
+        <v>-16209408300</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>51500</v>
       </c>
       <c r="E3">
-        <v>47307828000</v>
+        <v>42806234100</v>
       </c>
       <c r="F3">
-        <v>36110455000</v>
+        <v>33267001300</v>
       </c>
       <c r="G3">
-        <v>595259000</v>
+        <v>547806500</v>
       </c>
       <c r="H3">
         <v>5239800</v>
       </c>
       <c r="I3">
-        <v>84013542000</v>
+        <v>76621041900</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-30T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>227026048000</v>
+        <v>197834069200</v>
       </c>
       <c r="L3">
         <v>14374900</v>
@@ -543,13 +543,13 @@
         <v>-145700</v>
       </c>
       <c r="N3">
-        <v>-11197373000</v>
+        <v>-9539232800</v>
       </c>
       <c r="O3">
         <v>-324200</v>
       </c>
       <c r="P3">
-        <v>-26006483000</v>
+        <v>-25748641100</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>72200</v>
       </c>
       <c r="E4">
-        <v>73793659000</v>
+        <v>67073286100</v>
       </c>
       <c r="F4">
-        <v>30917143000</v>
+        <v>29328932800</v>
       </c>
       <c r="G4">
-        <v>1000766000</v>
+        <v>870896000</v>
       </c>
       <c r="H4">
         <v>6541800</v>
       </c>
       <c r="I4">
-        <v>105711568000</v>
+        <v>97273114900</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-30T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>332737616000</v>
+        <v>295107184100</v>
       </c>
       <c r="L4">
         <v>20916700</v>
@@ -593,13 +593,13 @@
         <v>-1782200</v>
       </c>
       <c r="N4">
-        <v>-42876516000</v>
+        <v>-37744353300</v>
       </c>
       <c r="O4">
         <v>-2106400</v>
       </c>
       <c r="P4">
-        <v>-68882999000</v>
+        <v>-63492994400</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>89300</v>
       </c>
       <c r="E5">
-        <v>80190017000</v>
+        <v>75133678400</v>
       </c>
       <c r="F5">
-        <v>35005297000</v>
+        <v>33461542300</v>
       </c>
       <c r="G5">
-        <v>1533487000</v>
+        <v>1510110400</v>
       </c>
       <c r="H5">
         <v>7477300</v>
       </c>
       <c r="I5">
-        <v>116728801000</v>
+        <v>110105331100</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-30T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>449466417000</v>
+        <v>405212515200</v>
       </c>
       <c r="L5">
         <v>28394000</v>
@@ -643,13 +643,13 @@
         <v>-2748600</v>
       </c>
       <c r="N5">
-        <v>-45184720000</v>
+        <v>-41672136100</v>
       </c>
       <c r="O5">
         <v>-4855000</v>
       </c>
       <c r="P5">
-        <v>-114067719000</v>
+        <v>-105165130500</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>73300</v>
       </c>
       <c r="E6">
-        <v>92059527000</v>
+        <v>85069024500</v>
       </c>
       <c r="F6">
-        <v>31367515000</v>
+        <v>29359025500</v>
       </c>
       <c r="G6">
-        <v>1064289000</v>
+        <v>938015400</v>
       </c>
       <c r="H6">
         <v>7867900</v>
       </c>
       <c r="I6">
-        <v>124491331000</v>
+        <v>115366065400</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-30T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>573957748000</v>
+        <v>520578580600</v>
       </c>
       <c r="L6">
         <v>36261900</v>
@@ -693,13 +693,13 @@
         <v>-3526600</v>
       </c>
       <c r="N6">
-        <v>-60692012000</v>
+        <v>-55709999000</v>
       </c>
       <c r="O6">
         <v>-8381600</v>
       </c>
       <c r="P6">
-        <v>-174759731000</v>
+        <v>-160875129500</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>65100</v>
       </c>
       <c r="E7">
-        <v>77236626000</v>
+        <v>70868100900</v>
       </c>
       <c r="F7">
-        <v>41004013000</v>
+        <v>39623794600</v>
       </c>
       <c r="G7">
         <v>1093742000</v>
@@ -728,13 +728,13 @@
         <v>7507000</v>
       </c>
       <c r="I7">
-        <v>119334381000</v>
+        <v>111585637500</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-30T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>693292129000</v>
+        <v>632164218100</v>
       </c>
       <c r="L7">
         <v>43768900</v>
@@ -743,13 +743,13 @@
         <v>-2104300</v>
       </c>
       <c r="N7">
-        <v>-36232613000</v>
+        <v>-31244306300</v>
       </c>
       <c r="O7">
         <v>-10485900</v>
       </c>
       <c r="P7">
-        <v>-210992344000</v>
+        <v>-192119435800</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>127700</v>
       </c>
       <c r="E8">
-        <v>74545591000</v>
+        <v>70912927300</v>
       </c>
       <c r="F8">
-        <v>57836771000</v>
+        <v>54112698800</v>
       </c>
       <c r="G8">
-        <v>1843906000</v>
+        <v>1813036900</v>
       </c>
       <c r="H8">
         <v>9162200</v>
       </c>
       <c r="I8">
-        <v>134226268000</v>
+        <v>126838663000</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-30T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>827518397000</v>
+        <v>759002881100</v>
       </c>
       <c r="L8">
         <v>52931100</v>
@@ -793,13 +793,13 @@
         <v>-894900</v>
       </c>
       <c r="N8">
-        <v>-16708820000</v>
+        <v>-16800228500</v>
       </c>
       <c r="O8">
         <v>-11380800</v>
       </c>
       <c r="P8">
-        <v>-227701164000</v>
+        <v>-208919664300</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>49500</v>
       </c>
       <c r="E9">
-        <v>42477063000</v>
+        <v>39467175900</v>
       </c>
       <c r="F9">
-        <v>86528541000</v>
+        <v>80688986400</v>
       </c>
       <c r="G9">
-        <v>914044000</v>
+        <v>816341800</v>
       </c>
       <c r="H9">
         <v>8378100</v>
       </c>
       <c r="I9">
-        <v>129919648000</v>
+        <v>120972504100</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-30T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>957438045000</v>
+        <v>879975385200</v>
       </c>
       <c r="L9">
         <v>61309200</v>
@@ -843,13 +843,13 @@
         <v>3165200</v>
       </c>
       <c r="N9">
-        <v>44051478000</v>
+        <v>41221810500</v>
       </c>
       <c r="O9">
         <v>-8215600</v>
       </c>
       <c r="P9">
-        <v>-183649686000</v>
+        <v>-167697853800</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>400300</v>
       </c>
       <c r="E10">
-        <v>28614623000</v>
+        <v>24812828600</v>
       </c>
       <c r="F10">
-        <v>104681156000</v>
+        <v>93101447300</v>
       </c>
       <c r="G10">
-        <v>2888785000</v>
+        <v>2671202800</v>
       </c>
       <c r="H10">
         <v>8590900</v>
       </c>
       <c r="I10">
-        <v>136184564000</v>
+        <v>120585478700</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-30T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1093622609000</v>
+        <v>1000560863900</v>
       </c>
       <c r="L10">
         <v>69900100</v>
@@ -893,13 +893,13 @@
         <v>4913200</v>
       </c>
       <c r="N10">
-        <v>76066533000</v>
+        <v>68288618700</v>
       </c>
       <c r="O10">
         <v>-3302400</v>
       </c>
       <c r="P10">
-        <v>-107583153000</v>
+        <v>-99409235100</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>60000</v>
       </c>
       <c r="E11">
-        <v>54112427000</v>
+        <v>49545498500</v>
       </c>
       <c r="F11">
-        <v>118500073000</v>
+        <v>105127958500</v>
       </c>
       <c r="G11">
-        <v>1447141000</v>
+        <v>1429159000</v>
       </c>
       <c r="H11">
         <v>10244200</v>
       </c>
       <c r="I11">
-        <v>174059641000</v>
+        <v>156102616000</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-30T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1267682250000</v>
+        <v>1156663479900</v>
       </c>
       <c r="L11">
         <v>80144300</v>
@@ -943,13 +943,13 @@
         <v>4610400</v>
       </c>
       <c r="N11">
-        <v>64387646000</v>
+        <v>55582460000</v>
       </c>
       <c r="O11">
         <v>1308000</v>
       </c>
       <c r="P11">
-        <v>-43195507000</v>
+        <v>-43826775100</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>272100</v>
       </c>
       <c r="E12">
-        <v>49028816000</v>
+        <v>45224324300</v>
       </c>
       <c r="F12">
-        <v>82809897000</v>
+        <v>75637077000</v>
       </c>
       <c r="G12">
-        <v>2643658000</v>
+        <v>1881021400</v>
       </c>
       <c r="H12">
         <v>8211700</v>
       </c>
       <c r="I12">
-        <v>134482371000</v>
+        <v>122742422700</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-30T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1402164621000</v>
+        <v>1279405902600</v>
       </c>
       <c r="L12">
         <v>88356000</v>
@@ -993,13 +993,13 @@
         <v>1816000</v>
       </c>
       <c r="N12">
-        <v>33781081000</v>
+        <v>30412752700</v>
       </c>
       <c r="O12">
         <v>3124000</v>
       </c>
       <c r="P12">
-        <v>-9414426000</v>
+        <v>-13414022400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>45000</v>
       </c>
       <c r="E13">
-        <v>42199933000</v>
+        <v>36515123500</v>
       </c>
       <c r="F13">
-        <v>113687566000</v>
+        <v>75865625800</v>
       </c>
       <c r="G13">
         <v>1118739000</v>
@@ -1028,13 +1028,13 @@
         <v>9514500</v>
       </c>
       <c r="I13">
-        <v>157006238000</v>
+        <v>113499488300</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-30T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1559170859000</v>
+        <v>1392905390900</v>
       </c>
       <c r="L13">
         <v>97870500</v>
@@ -1043,13 +1043,13 @@
         <v>4343900</v>
       </c>
       <c r="N13">
-        <v>71487633000</v>
+        <v>39350502300</v>
       </c>
       <c r="O13">
         <v>7467900</v>
       </c>
       <c r="P13">
-        <v>62073207000</v>
+        <v>25936479900</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>42100</v>
       </c>
       <c r="E14">
-        <v>45735432000</v>
+        <v>42686683800</v>
       </c>
       <c r="F14">
-        <v>87638094000</v>
+        <v>80787051900</v>
       </c>
       <c r="G14">
-        <v>700990000</v>
+        <v>669821200</v>
       </c>
       <c r="H14">
         <v>8597900</v>
       </c>
       <c r="I14">
-        <v>134074516000</v>
+        <v>124143556900</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-30T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1693245375000</v>
+        <v>1517048947800</v>
       </c>
       <c r="L14">
         <v>106468400</v>
@@ -1093,13 +1093,13 @@
         <v>2549200</v>
       </c>
       <c r="N14">
-        <v>41902662000</v>
+        <v>38100368100</v>
       </c>
       <c r="O14">
         <v>10017100</v>
       </c>
       <c r="P14">
-        <v>103975869000</v>
+        <v>64036848000</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>58100</v>
       </c>
       <c r="E15">
-        <v>86349409000</v>
+        <v>82621440700</v>
       </c>
       <c r="F15">
-        <v>54902508000</v>
+        <v>51228585600</v>
       </c>
       <c r="G15">
-        <v>932775000</v>
+        <v>883624200</v>
       </c>
       <c r="H15">
         <v>7830700</v>
       </c>
       <c r="I15">
-        <v>142184692000</v>
+        <v>134733650500</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-30T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1835430067000</v>
+        <v>1651782598300</v>
       </c>
       <c r="L15">
         <v>114299100</v>
@@ -1143,13 +1143,13 @@
         <v>-611000</v>
       </c>
       <c r="N15">
-        <v>-31446901000</v>
+        <v>-31392855100</v>
       </c>
       <c r="O15">
         <v>9406100</v>
       </c>
       <c r="P15">
-        <v>72528968000</v>
+        <v>32643992900</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>75600</v>
       </c>
       <c r="E16">
-        <v>68570257000</v>
+        <v>60659575600</v>
       </c>
       <c r="F16">
-        <v>54248309000</v>
+        <v>42861507200</v>
       </c>
       <c r="G16">
-        <v>1453749000</v>
+        <v>1203399600</v>
       </c>
       <c r="H16">
         <v>7523300</v>
       </c>
       <c r="I16">
-        <v>124272315000</v>
+        <v>104724482400</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-30T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1959702382000</v>
+        <v>1756507080700</v>
       </c>
       <c r="L16">
         <v>121822400</v>
@@ -1193,13 +1193,13 @@
         <v>-683900</v>
       </c>
       <c r="N16">
-        <v>-14321948000</v>
+        <v>-17798068400</v>
       </c>
       <c r="O16">
         <v>8722200</v>
       </c>
       <c r="P16">
-        <v>58207020000</v>
+        <v>14845924500</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>47400</v>
       </c>
       <c r="E17">
-        <v>43836615000</v>
+        <v>41241312900</v>
       </c>
       <c r="F17">
-        <v>29800686000</v>
+        <v>23981511000</v>
       </c>
       <c r="G17">
         <v>639789000</v>
@@ -1228,13 +1228,13 @@
         <v>4236000</v>
       </c>
       <c r="I17">
-        <v>74277090000</v>
+        <v>65862612900</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-30T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2033979472000</v>
+        <v>1822369693600</v>
       </c>
       <c r="L17">
         <v>126058400</v>
@@ -1243,13 +1243,13 @@
         <v>-968800</v>
       </c>
       <c r="N17">
-        <v>-14035929000</v>
+        <v>-17259801900</v>
       </c>
       <c r="O17">
         <v>7753400</v>
       </c>
       <c r="P17">
-        <v>44171091000</v>
+        <v>-2413877400</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>12100</v>
       </c>
       <c r="E18">
-        <v>43189738000</v>
+        <v>41362866700</v>
       </c>
       <c r="F18">
-        <v>24116733000</v>
+        <v>22557593700</v>
       </c>
       <c r="G18">
-        <v>146836000</v>
+        <v>116965900</v>
       </c>
       <c r="H18">
         <v>4282900</v>
       </c>
       <c r="I18">
-        <v>67453307000</v>
+        <v>64037426300</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-30T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2101432779000</v>
+        <v>1886407119900</v>
       </c>
       <c r="L18">
         <v>130341300</v>
@@ -1293,13 +1293,13 @@
         <v>-1068600</v>
       </c>
       <c r="N18">
-        <v>-19073005000</v>
+        <v>-18805273000</v>
       </c>
       <c r="O18">
         <v>6684800</v>
       </c>
       <c r="P18">
-        <v>25098086000</v>
+        <v>-21219150400</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>20700</v>
       </c>
       <c r="E19">
-        <v>45897079000</v>
+        <v>44409468100</v>
       </c>
       <c r="F19">
-        <v>30361988000</v>
+        <v>27852999500</v>
       </c>
       <c r="G19">
-        <v>262760000</v>
+        <v>218404400</v>
       </c>
       <c r="H19">
         <v>4739800</v>
       </c>
       <c r="I19">
-        <v>76521827000</v>
+        <v>72480872000</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-30T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2177954606000</v>
+        <v>1958887991900</v>
       </c>
       <c r="L19">
         <v>135081100</v>
@@ -1343,13 +1343,13 @@
         <v>-1033900</v>
       </c>
       <c r="N19">
-        <v>-15535091000</v>
+        <v>-16556468600</v>
       </c>
       <c r="O19">
         <v>5650900</v>
       </c>
       <c r="P19">
-        <v>9562995000</v>
+        <v>-37775619000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>24900</v>
       </c>
       <c r="E20">
-        <v>63545893000</v>
+        <v>61993447000</v>
       </c>
       <c r="F20">
-        <v>32282412000</v>
+        <v>30540755400</v>
       </c>
       <c r="G20">
         <v>293179000</v>
@@ -1378,13 +1378,13 @@
         <v>5949500</v>
       </c>
       <c r="I20">
-        <v>96121484000</v>
+        <v>92827381400</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-30T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2274076090000</v>
+        <v>2051715373300</v>
       </c>
       <c r="L20">
         <v>141030600</v>
@@ -1393,13 +1393,13 @@
         <v>-1715200</v>
       </c>
       <c r="N20">
-        <v>-31263481000</v>
+        <v>-31452691600</v>
       </c>
       <c r="O20">
         <v>3935700</v>
       </c>
       <c r="P20">
-        <v>-21700486000</v>
+        <v>-69228310600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>11100</v>
       </c>
       <c r="E21">
-        <v>43932518000</v>
+        <v>41993159300</v>
       </c>
       <c r="F21">
-        <v>36256030000</v>
+        <v>33848240200</v>
       </c>
       <c r="G21">
         <v>189185000</v>
@@ -1428,13 +1428,13 @@
         <v>4707200</v>
       </c>
       <c r="I21">
-        <v>80377733000</v>
+        <v>76030584500</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-30T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2354453823000</v>
+        <v>2127745957800</v>
       </c>
       <c r="L21">
         <v>145737800</v>
@@ -1443,13 +1443,13 @@
         <v>-469500</v>
       </c>
       <c r="N21">
-        <v>-7676488000</v>
+        <v>-8144919100</v>
       </c>
       <c r="O21">
         <v>3466200</v>
       </c>
       <c r="P21">
-        <v>-29376974000</v>
+        <v>-77373229700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>59600</v>
       </c>
       <c r="E22">
-        <v>32748465000</v>
+        <v>31340674200</v>
       </c>
       <c r="F22">
-        <v>39551647000</v>
+        <v>37431569200</v>
       </c>
       <c r="G22">
-        <v>539873000</v>
+        <v>537775100</v>
       </c>
       <c r="H22">
         <v>4448000</v>
       </c>
       <c r="I22">
-        <v>72839985000</v>
+        <v>69310018500</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-30T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2427293808000</v>
+        <v>2197055976300</v>
       </c>
       <c r="L22">
         <v>150185800</v>
@@ -1493,13 +1493,13 @@
         <v>246000</v>
       </c>
       <c r="N22">
-        <v>6803182000</v>
+        <v>6090895000</v>
       </c>
       <c r="O22">
         <v>3712200</v>
       </c>
       <c r="P22">
-        <v>-22573792000</v>
+        <v>-71282334700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>8100</v>
       </c>
       <c r="E23">
-        <v>35018117000</v>
+        <v>31601237300</v>
       </c>
       <c r="F23">
-        <v>53219868000</v>
+        <v>51957931200</v>
       </c>
       <c r="G23">
         <v>187845000</v>
@@ -1528,13 +1528,13 @@
         <v>5059400</v>
       </c>
       <c r="I23">
-        <v>88425830000</v>
+        <v>83747013500</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-30T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2515719638000</v>
+        <v>2280802989800</v>
       </c>
       <c r="L23">
         <v>155245200</v>
@@ -1543,13 +1543,13 @@
         <v>848100</v>
       </c>
       <c r="N23">
-        <v>18201751000</v>
+        <v>20356693900</v>
       </c>
       <c r="O23">
         <v>4560300</v>
       </c>
       <c r="P23">
-        <v>-4372041000</v>
+        <v>-50925640800</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>48800</v>
       </c>
       <c r="E24">
-        <v>27485766000</v>
+        <v>25291462500</v>
       </c>
       <c r="F24">
-        <v>96715139000</v>
+        <v>78109962800</v>
       </c>
       <c r="G24">
         <v>771286000</v>
@@ -1578,13 +1578,13 @@
         <v>7376100</v>
       </c>
       <c r="I24">
-        <v>124972191000</v>
+        <v>104172711300</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-30T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2640691829000</v>
+        <v>2384975701100</v>
       </c>
       <c r="L24">
         <v>162621300</v>
@@ -1593,13 +1593,13 @@
         <v>4044700</v>
       </c>
       <c r="N24">
-        <v>69229373000</v>
+        <v>52818500300</v>
       </c>
       <c r="O24">
         <v>8605000</v>
       </c>
       <c r="P24">
-        <v>64857332000</v>
+        <v>1892859500</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>29600</v>
       </c>
       <c r="E25">
-        <v>30396387000</v>
+        <v>26278109400</v>
       </c>
       <c r="F25">
-        <v>112928905000</v>
+        <v>91758696400</v>
       </c>
       <c r="G25">
         <v>433376000</v>
@@ -1628,13 +1628,13 @@
         <v>8636000</v>
       </c>
       <c r="I25">
-        <v>143758668000</v>
+        <v>118470181800</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-30T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2784450497000</v>
+        <v>2503445882900</v>
       </c>
       <c r="L25">
         <v>171257300</v>
@@ -1643,13 +1643,13 @@
         <v>4371800</v>
       </c>
       <c r="N25">
-        <v>82532518000</v>
+        <v>65480587000</v>
       </c>
       <c r="O25">
         <v>12976800</v>
       </c>
       <c r="P25">
-        <v>147389850000</v>
+        <v>67373446500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>44100</v>
       </c>
       <c r="E26">
-        <v>34563287000</v>
+        <v>32393459000</v>
       </c>
       <c r="F26">
-        <v>89355220000</v>
+        <v>83589791200</v>
       </c>
       <c r="G26">
-        <v>910536000</v>
+        <v>601845000</v>
       </c>
       <c r="H26">
         <v>8287300</v>
       </c>
       <c r="I26">
-        <v>124829043000</v>
+        <v>116585095200</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-30T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2909279540000</v>
+        <v>2620030978100</v>
       </c>
       <c r="L26">
         <v>179544600</v>
@@ -1693,13 +1693,13 @@
         <v>4365400</v>
       </c>
       <c r="N26">
-        <v>54791933000</v>
+        <v>51196332200</v>
       </c>
       <c r="O26">
         <v>17342200</v>
       </c>
       <c r="P26">
-        <v>202181783000</v>
+        <v>118569778700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>7900</v>
       </c>
       <c r="E27">
-        <v>37829940000</v>
+        <v>36776494500</v>
       </c>
       <c r="F27">
-        <v>77985114000</v>
+        <v>73952051100</v>
       </c>
       <c r="G27">
         <v>153399000</v>
@@ -1728,13 +1728,13 @@
         <v>7385100</v>
       </c>
       <c r="I27">
-        <v>115968453000</v>
+        <v>110881944600</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-30T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3025247993000</v>
+        <v>2730912922700</v>
       </c>
       <c r="L27">
         <v>186929700</v>
@@ -1743,13 +1743,13 @@
         <v>3124000</v>
       </c>
       <c r="N27">
-        <v>40155174000</v>
+        <v>37175556600</v>
       </c>
       <c r="O27">
         <v>20466200</v>
       </c>
       <c r="P27">
-        <v>242336957000</v>
+        <v>155745335300</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>13800</v>
       </c>
       <c r="E28">
-        <v>36973286000</v>
+        <v>35535625100</v>
       </c>
       <c r="F28">
-        <v>63353255000</v>
+        <v>59698613300</v>
       </c>
       <c r="G28">
-        <v>309734000</v>
+        <v>294249500</v>
       </c>
       <c r="H28">
         <v>6240100</v>
       </c>
       <c r="I28">
-        <v>100636275000</v>
+        <v>95528487900</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-30T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3125884268000</v>
+        <v>2826441410600</v>
       </c>
       <c r="L28">
         <v>193169800</v>
@@ -1793,13 +1793,13 @@
         <v>1979100</v>
       </c>
       <c r="N28">
-        <v>26379969000</v>
+        <v>24162988200</v>
       </c>
       <c r="O28">
         <v>22445300</v>
       </c>
       <c r="P28">
-        <v>268716926000</v>
+        <v>179908323500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>12700</v>
       </c>
       <c r="E29">
-        <v>42019232000</v>
+        <v>38925828500</v>
       </c>
       <c r="F29">
-        <v>61139978000</v>
+        <v>54013711400</v>
       </c>
       <c r="G29">
         <v>181813000</v>
@@ -1828,13 +1828,13 @@
         <v>7071600</v>
       </c>
       <c r="I29">
-        <v>103341023000</v>
+        <v>93121352900</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-30T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3229225291000</v>
+        <v>2919562763500</v>
       </c>
       <c r="L29">
         <v>200241400</v>
@@ -1843,13 +1843,13 @@
         <v>1593700</v>
       </c>
       <c r="N29">
-        <v>19120746000</v>
+        <v>15087882900</v>
       </c>
       <c r="O29">
         <v>24039000</v>
       </c>
       <c r="P29">
-        <v>287837672000</v>
+        <v>194996206400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>49400</v>
       </c>
       <c r="E30">
-        <v>52166834000</v>
+        <v>48115489400</v>
       </c>
       <c r="F30">
-        <v>68378900000</v>
+        <v>62099485700</v>
       </c>
       <c r="G30">
         <v>840240000</v>
@@ -1878,13 +1878,13 @@
         <v>7209700</v>
       </c>
       <c r="I30">
-        <v>121385974000</v>
+        <v>111055215100</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-30T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3350611265000</v>
+        <v>3030617978600</v>
       </c>
       <c r="L30">
         <v>207451100</v>
@@ -1893,13 +1893,13 @@
         <v>1264700</v>
       </c>
       <c r="N30">
-        <v>16212066000</v>
+        <v>13983996300</v>
       </c>
       <c r="O30">
         <v>25303700</v>
       </c>
       <c r="P30">
-        <v>304049738000</v>
+        <v>208980202700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>9200</v>
       </c>
       <c r="E31">
-        <v>58945891000</v>
+        <v>55209231400</v>
       </c>
       <c r="F31">
-        <v>42473791000</v>
+        <v>39035532700</v>
       </c>
       <c r="G31">
         <v>268110000</v>
@@ -1928,13 +1928,13 @@
         <v>5845500</v>
       </c>
       <c r="I31">
-        <v>101687792000</v>
+        <v>94512874100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-30T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3452299057000</v>
+        <v>3125130852700</v>
       </c>
       <c r="L31">
         <v>213296600</v>
@@ -1943,13 +1943,13 @@
         <v>-720700</v>
       </c>
       <c r="N31">
-        <v>-16472100000</v>
+        <v>-16173698700</v>
       </c>
       <c r="O31">
         <v>24583000</v>
       </c>
       <c r="P31">
-        <v>287577638000</v>
+        <v>192806504000</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>19000</v>
       </c>
       <c r="E32">
-        <v>70095169000</v>
+        <v>67315351600</v>
       </c>
       <c r="F32">
-        <v>29627550000</v>
+        <v>28122456600</v>
       </c>
       <c r="G32">
         <v>375162000</v>
@@ -1978,13 +1978,13 @@
         <v>6185400</v>
       </c>
       <c r="I32">
-        <v>100097881000</v>
+        <v>95812970200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-30T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3552396938000</v>
+        <v>3220943822900</v>
       </c>
       <c r="L32">
         <v>219482000</v>
@@ -1993,13 +1993,13 @@
         <v>-2456400</v>
       </c>
       <c r="N32">
-        <v>-40467619000</v>
+        <v>-39192895000</v>
       </c>
       <c r="O32">
         <v>22126600</v>
       </c>
       <c r="P32">
-        <v>247110019000</v>
+        <v>153613609000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>22900</v>
       </c>
       <c r="E33">
-        <v>60378172000</v>
+        <v>52929927700</v>
       </c>
       <c r="F33">
-        <v>28615168000</v>
+        <v>26218666900</v>
       </c>
       <c r="G33">
-        <v>506934000</v>
+        <v>470170800</v>
       </c>
       <c r="H33">
         <v>4884600</v>
       </c>
       <c r="I33">
-        <v>89500274000</v>
+        <v>79618765400</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-30T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3641897212000</v>
+        <v>3300562588300</v>
       </c>
       <c r="L33">
         <v>224366600</v>
@@ -2043,13 +2043,13 @@
         <v>-1811300</v>
       </c>
       <c r="N33">
-        <v>-31763004000</v>
+        <v>-26711260800</v>
       </c>
       <c r="O33">
         <v>20315300</v>
       </c>
       <c r="P33">
-        <v>215347015000</v>
+        <v>126902348200</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>10700</v>
       </c>
       <c r="E34">
-        <v>43768375000</v>
+        <v>41438007700</v>
       </c>
       <c r="F34">
-        <v>29183558000</v>
+        <v>25174271300</v>
       </c>
       <c r="G34">
-        <v>140043000</v>
+        <v>136246800</v>
       </c>
       <c r="H34">
         <v>4204400</v>
       </c>
       <c r="I34">
-        <v>73091976000</v>
+        <v>66748525800</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-30T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3714989188000</v>
+        <v>3367311114100</v>
       </c>
       <c r="L34">
         <v>228571000</v>
@@ -2093,13 +2093,13 @@
         <v>-981700</v>
       </c>
       <c r="N34">
-        <v>-14584817000</v>
+        <v>-16263736400</v>
       </c>
       <c r="O34">
         <v>19333600</v>
       </c>
       <c r="P34">
-        <v>200762198000</v>
+        <v>110638611800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>3400</v>
       </c>
       <c r="E35">
-        <v>32489859000</v>
+        <v>31602647100</v>
       </c>
       <c r="F35">
-        <v>23161160000</v>
+        <v>21946575800</v>
       </c>
       <c r="G35">
-        <v>59010000</v>
+        <v>50019000</v>
       </c>
       <c r="H35">
         <v>3380000</v>
       </c>
       <c r="I35">
-        <v>55710029000</v>
+        <v>53599241900</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-30T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3770699217000</v>
+        <v>3420910356000</v>
       </c>
       <c r="L35">
         <v>231951000</v>
@@ -2143,13 +2143,13 @@
         <v>-613400</v>
       </c>
       <c r="N35">
-        <v>-9328699000</v>
+        <v>-9656071300</v>
       </c>
       <c r="O35">
         <v>18720200</v>
       </c>
       <c r="P35">
-        <v>191433499000</v>
+        <v>100982540500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>18200</v>
       </c>
       <c r="E36">
-        <v>31682354000</v>
+        <v>30955681400</v>
       </c>
       <c r="F36">
-        <v>18086476000</v>
+        <v>16667496400</v>
       </c>
       <c r="G36">
         <v>722545000</v>
@@ -2178,13 +2178,13 @@
         <v>3173900</v>
       </c>
       <c r="I36">
-        <v>50491375000</v>
+        <v>48345722800</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-30T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3821190592000</v>
+        <v>3469256078800</v>
       </c>
       <c r="L36">
         <v>235124900</v>
@@ -2193,13 +2193,13 @@
         <v>-734100</v>
       </c>
       <c r="N36">
-        <v>-13595878000</v>
+        <v>-14288185000</v>
       </c>
       <c r="O36">
         <v>17986100</v>
       </c>
       <c r="P36">
-        <v>177837621000</v>
+        <v>86694355500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>27100</v>
       </c>
       <c r="E37">
-        <v>33736224000</v>
+        <v>32779082100</v>
       </c>
       <c r="F37">
-        <v>27446988000</v>
+        <v>26483552400</v>
       </c>
       <c r="G37">
         <v>722883000</v>
@@ -2228,13 +2228,13 @@
         <v>3679600</v>
       </c>
       <c r="I37">
-        <v>61906095000</v>
+        <v>59985517500</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-30T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3883096687000</v>
+        <v>3529241596300</v>
       </c>
       <c r="L37">
         <v>238804500</v>
@@ -2243,13 +2243,13 @@
         <v>-555100</v>
       </c>
       <c r="N37">
-        <v>-6289236000</v>
+        <v>-6295529700</v>
       </c>
       <c r="O37">
         <v>17431000</v>
       </c>
       <c r="P37">
-        <v>171548385000</v>
+        <v>80398825800</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>35800</v>
       </c>
       <c r="E38">
-        <v>39097952000</v>
+        <v>35444109500</v>
       </c>
       <c r="F38">
-        <v>24323193000</v>
+        <v>23947169400</v>
       </c>
       <c r="G38">
         <v>826064000</v>
@@ -2278,13 +2278,13 @@
         <v>3527900</v>
       </c>
       <c r="I38">
-        <v>64247209000</v>
+        <v>60217342900</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-30T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3947343896000</v>
+        <v>3589458939200</v>
       </c>
       <c r="L38">
         <v>242332400</v>
@@ -2293,13 +2293,13 @@
         <v>-746700</v>
       </c>
       <c r="N38">
-        <v>-14774759000</v>
+        <v>-11496940100</v>
       </c>
       <c r="O38">
         <v>16684300</v>
       </c>
       <c r="P38">
-        <v>156773626000</v>
+        <v>68901885700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>11900</v>
       </c>
       <c r="E39">
-        <v>50799805000</v>
+        <v>48142664800</v>
       </c>
       <c r="F39">
-        <v>20477500000</v>
+        <v>20125252600</v>
       </c>
       <c r="G39">
         <v>444809000</v>
@@ -2328,13 +2328,13 @@
         <v>4139400</v>
       </c>
       <c r="I39">
-        <v>71722114000</v>
+        <v>68712726400</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-30T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4019066010000</v>
+        <v>3658171665600</v>
       </c>
       <c r="L39">
         <v>246471800</v>
@@ -2343,13 +2343,13 @@
         <v>-1509300</v>
       </c>
       <c r="N39">
-        <v>-30322305000</v>
+        <v>-28017412200</v>
       </c>
       <c r="O39">
         <v>15175000</v>
       </c>
       <c r="P39">
-        <v>126451321000</v>
+        <v>40884473500</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>9300</v>
       </c>
       <c r="E40">
-        <v>40886064000</v>
+        <v>39981169800</v>
       </c>
       <c r="F40">
-        <v>24017807000</v>
+        <v>22456270100</v>
       </c>
       <c r="G40">
-        <v>130660000</v>
+        <v>92698000</v>
       </c>
       <c r="H40">
         <v>3460500</v>
       </c>
       <c r="I40">
-        <v>65034531000</v>
+        <v>62530137900</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-30T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4084100541000</v>
+        <v>3720701803500</v>
       </c>
       <c r="L40">
         <v>249932300</v>
@@ -2393,13 +2393,13 @@
         <v>-689200</v>
       </c>
       <c r="N40">
-        <v>-16868257000</v>
+        <v>-17524899700</v>
       </c>
       <c r="O40">
         <v>14485800</v>
       </c>
       <c r="P40">
-        <v>109583064000</v>
+        <v>23359573800</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>23400</v>
       </c>
       <c r="E41">
-        <v>46115825000</v>
+        <v>30610845500</v>
       </c>
       <c r="F41">
-        <v>40801688000</v>
+        <v>37738054700</v>
       </c>
       <c r="G41">
-        <v>527739000</v>
+        <v>478188600</v>
       </c>
       <c r="H41">
         <v>4742400</v>
       </c>
       <c r="I41">
-        <v>87445252000</v>
+        <v>68827088800</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-30T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4171545793000</v>
+        <v>3789528892300</v>
       </c>
       <c r="L41">
         <v>254674700</v>
@@ -2443,13 +2443,13 @@
         <v>-222400</v>
       </c>
       <c r="N41">
-        <v>-5314137000</v>
+        <v>7127209200</v>
       </c>
       <c r="O41">
         <v>14263400</v>
       </c>
       <c r="P41">
-        <v>104268927000</v>
+        <v>30486783000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>10500</v>
       </c>
       <c r="E42">
-        <v>23042656000</v>
+        <v>16207897600</v>
       </c>
       <c r="F42">
-        <v>49716998000</v>
+        <v>41564858300</v>
       </c>
       <c r="G42">
         <v>163466000</v>
@@ -2478,13 +2478,13 @@
         <v>3980500</v>
       </c>
       <c r="I42">
-        <v>72923120000</v>
+        <v>57936221900</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-30T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>4244468913000</v>
+        <v>3847465114200</v>
       </c>
       <c r="L42">
         <v>258655200</v>
@@ -2493,13 +2493,13 @@
         <v>1293200</v>
       </c>
       <c r="N42">
-        <v>26674342000</v>
+        <v>25356960700</v>
       </c>
       <c r="O42">
         <v>15556600</v>
       </c>
       <c r="P42">
-        <v>130943269000</v>
+        <v>55843743700</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>1300</v>
       </c>
       <c r="E43">
-        <v>18898299000</v>
+        <v>16489110600</v>
       </c>
       <c r="F43">
-        <v>31256969000</v>
+        <v>30417509300</v>
       </c>
       <c r="G43">
         <v>37850000</v>
@@ -2528,13 +2528,13 @@
         <v>3194100</v>
       </c>
       <c r="I43">
-        <v>50193118000</v>
+        <v>46944469900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-30T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>4294662031000</v>
+        <v>3894409584100</v>
       </c>
       <c r="L43">
         <v>261849300</v>
@@ -2543,13 +2543,13 @@
         <v>1070000</v>
       </c>
       <c r="N43">
-        <v>12358670000</v>
+        <v>13928398700</v>
       </c>
       <c r="O43">
         <v>16626600</v>
       </c>
       <c r="P43">
-        <v>143301939000</v>
+        <v>69772142400</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>7800</v>
       </c>
       <c r="E44">
-        <v>19209839000</v>
+        <v>16655795600</v>
       </c>
       <c r="F44">
-        <v>23735272000</v>
+        <v>23028379600</v>
       </c>
       <c r="G44">
         <v>228189000</v>
@@ -2578,13 +2578,13 @@
         <v>2930100</v>
       </c>
       <c r="I44">
-        <v>43173300000</v>
+        <v>39912364200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-30T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4337835331000</v>
+        <v>3934321948300</v>
       </c>
       <c r="L44">
         <v>264779400</v>
@@ -2593,13 +2593,13 @@
         <v>34500</v>
       </c>
       <c r="N44">
-        <v>4525433000</v>
+        <v>6372584000</v>
       </c>
       <c r="O44">
         <v>16661100</v>
       </c>
       <c r="P44">
-        <v>147827372000</v>
+        <v>76144726400</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>38600</v>
       </c>
       <c r="E45">
-        <v>29647435000</v>
+        <v>25566619900</v>
       </c>
       <c r="F45">
-        <v>26188674000</v>
+        <v>24643520700</v>
       </c>
       <c r="G45">
         <v>542408000</v>
@@ -2628,13 +2628,13 @@
         <v>4271600</v>
       </c>
       <c r="I45">
-        <v>56378517000</v>
+        <v>50752548600</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-30T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4394213848000</v>
+        <v>3985074496900</v>
       </c>
       <c r="L45">
         <v>269051000</v>
@@ -2643,13 +2643,13 @@
         <v>-971600</v>
       </c>
       <c r="N45">
-        <v>-3458761000</v>
+        <v>-923099200</v>
       </c>
       <c r="O45">
         <v>15689500</v>
       </c>
       <c r="P45">
-        <v>144368611000</v>
+        <v>75221627200</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>23800</v>
       </c>
       <c r="E46">
-        <v>32095349000</v>
+        <v>27252896300</v>
       </c>
       <c r="F46">
-        <v>19724462000</v>
+        <v>19119068000</v>
       </c>
       <c r="G46">
         <v>268673000</v>
@@ -2678,13 +2678,13 @@
         <v>3581300</v>
       </c>
       <c r="I46">
-        <v>52088484000</v>
+        <v>46640637300</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-30T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4446302332000</v>
+        <v>4031715134200</v>
       </c>
       <c r="L46">
         <v>272632300</v>
@@ -2693,13 +2693,13 @@
         <v>-474100</v>
       </c>
       <c r="N46">
-        <v>-12370887000</v>
+        <v>-8133828300</v>
       </c>
       <c r="O46">
         <v>15215400</v>
       </c>
       <c r="P46">
-        <v>131997724000</v>
+        <v>67087798900</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>60800</v>
       </c>
       <c r="E47">
-        <v>48792567000</v>
+        <v>43788675900</v>
       </c>
       <c r="F47">
-        <v>17232539000</v>
+        <v>16059113600</v>
       </c>
       <c r="G47">
         <v>1463500000</v>
@@ -2728,13 +2728,13 @@
         <v>3809700</v>
       </c>
       <c r="I47">
-        <v>67488606000</v>
+        <v>61311289500</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-30T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4513790938000</v>
+        <v>4093026423700</v>
       </c>
       <c r="L47">
         <v>276442000</v>
@@ -2743,13 +2743,13 @@
         <v>-915700</v>
       </c>
       <c r="N47">
-        <v>-31560028000</v>
+        <v>-27729562300</v>
       </c>
       <c r="O47">
         <v>14299700</v>
       </c>
       <c r="P47">
-        <v>100437696000</v>
+        <v>39358236600</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>6700</v>
       </c>
       <c r="E48">
-        <v>30897606000</v>
+        <v>30073530900</v>
       </c>
       <c r="F48">
-        <v>27847723000</v>
+        <v>26867803900</v>
       </c>
       <c r="G48">
-        <v>132687000</v>
+        <v>91528200</v>
       </c>
       <c r="H48">
         <v>3645700</v>
       </c>
       <c r="I48">
-        <v>58878016000</v>
+        <v>57032863000</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-30T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4572668954000</v>
+        <v>4150059286700</v>
       </c>
       <c r="L48">
         <v>280087700</v>
@@ -2793,13 +2793,13 @@
         <v>35600</v>
       </c>
       <c r="N48">
-        <v>-3049883000</v>
+        <v>-3205727000</v>
       </c>
       <c r="O48">
         <v>14335300</v>
       </c>
       <c r="P48">
-        <v>97387813000</v>
+        <v>36152509600</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>15200</v>
       </c>
       <c r="E49">
-        <v>49506525000</v>
+        <v>44007129900</v>
       </c>
       <c r="F49">
-        <v>29588240000</v>
+        <v>29013615200</v>
       </c>
       <c r="G49">
-        <v>548114000</v>
+        <v>547115000</v>
       </c>
       <c r="H49">
         <v>4837900</v>
       </c>
       <c r="I49">
-        <v>79642879000</v>
+        <v>73567860100</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-30T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4652311833000</v>
+        <v>4223627146800</v>
       </c>
       <c r="L49">
         <v>284925600</v>
@@ -2843,13 +2843,13 @@
         <v>-1342100</v>
       </c>
       <c r="N49">
-        <v>-19918285000</v>
+        <v>-14993514700</v>
       </c>
       <c r="O49">
         <v>12993200</v>
       </c>
       <c r="P49">
-        <v>77469528000</v>
+        <v>21158994900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>17900</v>
       </c>
       <c r="E50">
-        <v>34373606000</v>
+        <v>33520859600</v>
       </c>
       <c r="F50">
-        <v>27906784000</v>
+        <v>27214976500</v>
       </c>
       <c r="G50">
         <v>339031000</v>
@@ -2878,13 +2878,13 @@
         <v>3680100</v>
       </c>
       <c r="I50">
-        <v>62619421000</v>
+        <v>61074867100</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-30T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4714931254000</v>
+        <v>4284702013900</v>
       </c>
       <c r="L50">
         <v>288605700</v>
@@ -2893,13 +2893,13 @@
         <v>-441600</v>
       </c>
       <c r="N50">
-        <v>-6466822000</v>
+        <v>-6305883100</v>
       </c>
       <c r="O50">
         <v>12551600</v>
       </c>
       <c r="P50">
-        <v>71002706000</v>
+        <v>14853111800</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>28800</v>
       </c>
       <c r="E51">
-        <v>39680506000</v>
+        <v>37452036700</v>
       </c>
       <c r="F51">
-        <v>20548514000</v>
+        <v>20170492400</v>
       </c>
       <c r="G51">
         <v>618318000</v>
@@ -2928,13 +2928,13 @@
         <v>3132600</v>
       </c>
       <c r="I51">
-        <v>60847338000</v>
+        <v>58240847100</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-30T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4775778592000</v>
+        <v>4342942861000</v>
       </c>
       <c r="L51">
         <v>291738300</v>
@@ -2943,13 +2943,13 @@
         <v>-753200</v>
       </c>
       <c r="N51">
-        <v>-19131992000</v>
+        <v>-17281544300</v>
       </c>
       <c r="O51">
         <v>11798400</v>
       </c>
       <c r="P51">
-        <v>51870714000</v>
+        <v>-2428432500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>15200</v>
       </c>
       <c r="E52">
-        <v>62652378000</v>
+        <v>61189042800</v>
       </c>
       <c r="F52">
-        <v>20845752000</v>
+        <v>17663537400</v>
       </c>
       <c r="G52">
         <v>375728000</v>
@@ -2978,13 +2978,13 @@
         <v>4846800</v>
       </c>
       <c r="I52">
-        <v>83873858000</v>
+        <v>79228308200</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-30T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4859652450000</v>
+        <v>4422171169200</v>
       </c>
       <c r="L52">
         <v>296585100</v>
@@ -2993,13 +2993,13 @@
         <v>-1343400</v>
       </c>
       <c r="N52">
-        <v>-41806626000</v>
+        <v>-43525505400</v>
       </c>
       <c r="O52">
         <v>10455000</v>
       </c>
       <c r="P52">
-        <v>10064088000</v>
+        <v>-45953937900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>24800</v>
       </c>
       <c r="E53">
-        <v>83370658000</v>
+        <v>76528407100</v>
       </c>
       <c r="F53">
-        <v>19821459000</v>
+        <v>17584298400</v>
       </c>
       <c r="G53">
         <v>1183086000</v>
@@ -3028,13 +3028,13 @@
         <v>6089000</v>
       </c>
       <c r="I53">
-        <v>104375203000</v>
+        <v>95295791500</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-30T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4964027653000</v>
+        <v>4517466960700</v>
       </c>
       <c r="L53">
         <v>302674100</v>
@@ -3043,13 +3043,13 @@
         <v>-3521400</v>
       </c>
       <c r="N53">
-        <v>-63549199000</v>
+        <v>-58944108700</v>
       </c>
       <c r="O53">
         <v>6933600</v>
       </c>
       <c r="P53">
-        <v>-53485111000</v>
+        <v>-104898046600</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>3500</v>
       </c>
       <c r="E54">
-        <v>75061013000</v>
+        <v>61270317500</v>
       </c>
       <c r="F54">
-        <v>48062815000</v>
+        <v>36380608900</v>
       </c>
       <c r="G54">
         <v>64165000</v>
@@ -3078,13 +3078,13 @@
         <v>6996700</v>
       </c>
       <c r="I54">
-        <v>123187993000</v>
+        <v>97715091400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-30T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5087215646000</v>
+        <v>4615182052100</v>
       </c>
       <c r="L54">
         <v>309670800</v>
@@ -3093,13 +3093,13 @@
         <v>-1337600</v>
       </c>
       <c r="N54">
-        <v>-26998198000</v>
+        <v>-24889708600</v>
       </c>
       <c r="O54">
         <v>5596000</v>
       </c>
       <c r="P54">
-        <v>-80483309000</v>
+        <v>-129787755200</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>47700</v>
       </c>
       <c r="E55">
-        <v>59709142000</v>
+        <v>57086767000</v>
       </c>
       <c r="F55">
-        <v>58060483000</v>
+        <v>55781863900</v>
       </c>
       <c r="G55">
         <v>596741000</v>
@@ -3128,13 +3128,13 @@
         <v>7256900</v>
       </c>
       <c r="I55">
-        <v>118366366000</v>
+        <v>113465371900</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-30T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>5205582012000</v>
+        <v>4728647424000</v>
       </c>
       <c r="L55">
         <v>316927700</v>
@@ -3143,13 +3143,13 @@
         <v>586000</v>
       </c>
       <c r="N55">
-        <v>-1648659000</v>
+        <v>-1304903100</v>
       </c>
       <c r="O55">
         <v>6182000</v>
       </c>
       <c r="P55">
-        <v>-82131968000</v>
+        <v>-131092658300</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>22700</v>
       </c>
       <c r="E56">
-        <v>29397369000</v>
+        <v>28508059200</v>
       </c>
       <c r="F56">
-        <v>72877052000</v>
+        <v>60643397900</v>
       </c>
       <c r="G56">
-        <v>432967000</v>
+        <v>330869200</v>
       </c>
       <c r="H56">
         <v>6060400</v>
       </c>
       <c r="I56">
-        <v>102707388000</v>
+        <v>89482326300</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-30T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>5308289400000</v>
+        <v>4818129750300</v>
       </c>
       <c r="L56">
         <v>322988100</v>
@@ -3193,13 +3193,13 @@
         <v>2373900</v>
       </c>
       <c r="N56">
-        <v>43479683000</v>
+        <v>32135338700</v>
       </c>
       <c r="O56">
         <v>8555900</v>
       </c>
       <c r="P56">
-        <v>-38652285000</v>
+        <v>-98957319600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>20800</v>
       </c>
       <c r="E57">
-        <v>21436674000</v>
+        <v>19120592400</v>
       </c>
       <c r="F57">
-        <v>39154799000</v>
+        <v>35719937300</v>
       </c>
       <c r="G57">
         <v>420592000</v>
@@ -3228,13 +3228,13 @@
         <v>3693300</v>
       </c>
       <c r="I57">
-        <v>61012065000</v>
+        <v>55261121700</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-30T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>5369301465000</v>
+        <v>4873390872000</v>
       </c>
       <c r="L57">
         <v>326681400</v>
@@ -3243,13 +3243,13 @@
         <v>1136700</v>
       </c>
       <c r="N57">
-        <v>17718125000</v>
+        <v>16599344900</v>
       </c>
       <c r="O57">
         <v>9692600</v>
       </c>
       <c r="P57">
-        <v>-20934160000</v>
+        <v>-82357974700</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>14100</v>
       </c>
       <c r="E58">
-        <v>22261870000</v>
+        <v>19868066200</v>
       </c>
       <c r="F58">
-        <v>52103326000</v>
+        <v>50476854100</v>
       </c>
       <c r="G58">
         <v>274839000</v>
@@ -3278,13 +3278,13 @@
         <v>4535600</v>
       </c>
       <c r="I58">
-        <v>74640035000</v>
+        <v>70619759300</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-30T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>5443941500000</v>
+        <v>4944010631300</v>
       </c>
       <c r="L58">
         <v>331217000</v>
@@ -3293,13 +3293,13 @@
         <v>1363300</v>
       </c>
       <c r="N58">
-        <v>29841456000</v>
+        <v>30608787900</v>
       </c>
       <c r="O58">
         <v>11055900</v>
       </c>
       <c r="P58">
-        <v>8907296000</v>
+        <v>-51749186800</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>26200</v>
       </c>
       <c r="E59">
-        <v>35674951000</v>
+        <v>31455374800</v>
       </c>
       <c r="F59">
-        <v>37197415000</v>
+        <v>32746670200</v>
       </c>
       <c r="G59">
         <v>153704000</v>
@@ -3328,13 +3328,13 @@
         <v>3885600</v>
       </c>
       <c r="I59">
-        <v>73026070000</v>
+        <v>64355749000</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-30T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>5516967570000</v>
+        <v>5008366380300</v>
       </c>
       <c r="L59">
         <v>335102600</v>
@@ -3343,13 +3343,13 @@
         <v>23800</v>
       </c>
       <c r="N59">
-        <v>1522464000</v>
+        <v>1291295400</v>
       </c>
       <c r="O59">
         <v>11079700</v>
       </c>
       <c r="P59">
-        <v>10429760000</v>
+        <v>-50457891400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>15200</v>
       </c>
       <c r="E60">
-        <v>31588351000</v>
+        <v>26716527700</v>
       </c>
       <c r="F60">
-        <v>20285916000</v>
+        <v>18589813800</v>
       </c>
       <c r="G60">
         <v>214325000</v>
@@ -3378,13 +3378,13 @@
         <v>2920000</v>
       </c>
       <c r="I60">
-        <v>52088592000</v>
+        <v>45520666500</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-30T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>5569056162000</v>
+        <v>5053887046800</v>
       </c>
       <c r="L60">
         <v>338022600</v>
@@ -3393,13 +3393,13 @@
         <v>-697400</v>
       </c>
       <c r="N60">
-        <v>-11302435000</v>
+        <v>-8126713900</v>
       </c>
       <c r="O60">
         <v>10382300</v>
       </c>
       <c r="P60">
-        <v>-872675000</v>
+        <v>-58584605300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>4500</v>
       </c>
       <c r="E61">
-        <v>42074125000</v>
+        <v>36693610900</v>
       </c>
       <c r="F61">
-        <v>23691348000</v>
+        <v>20306536200</v>
       </c>
       <c r="G61">
-        <v>142905000</v>
+        <v>45802200</v>
       </c>
       <c r="H61">
         <v>3247800</v>
       </c>
       <c r="I61">
-        <v>65908378000</v>
+        <v>57045949300</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-30T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>5634964540000</v>
+        <v>5110932996100</v>
       </c>
       <c r="L61">
         <v>341270400</v>
@@ -3443,13 +3443,13 @@
         <v>-894900</v>
       </c>
       <c r="N61">
-        <v>-18382777000</v>
+        <v>-16387074700</v>
       </c>
       <c r="O61">
         <v>9487400</v>
       </c>
       <c r="P61">
-        <v>-19255452000</v>
+        <v>-74971680000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>13600</v>
       </c>
       <c r="E62">
-        <v>28176570000</v>
+        <v>23734316700</v>
       </c>
       <c r="F62">
-        <v>24347647000</v>
+        <v>22388907700</v>
       </c>
       <c r="G62">
         <v>471403000</v>
@@ -3478,13 +3478,13 @@
         <v>2715300</v>
       </c>
       <c r="I62">
-        <v>52995620000</v>
+        <v>46594627400</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-30T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>5687960160000</v>
+        <v>5157527623500</v>
       </c>
       <c r="L62">
         <v>343985700</v>
@@ -3493,13 +3493,13 @@
         <v>-62100</v>
       </c>
       <c r="N62">
-        <v>-3828923000</v>
+        <v>-1345409000</v>
       </c>
       <c r="O62">
         <v>9425300</v>
       </c>
       <c r="P62">
-        <v>-23084375000</v>
+        <v>-76317089000</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>76700</v>
       </c>
       <c r="E63">
-        <v>33314783000</v>
+        <v>30386014700</v>
       </c>
       <c r="F63">
-        <v>25167090000</v>
+        <v>21373487400</v>
       </c>
       <c r="G63">
         <v>1535031000</v>
@@ -3528,13 +3528,13 @@
         <v>3235300</v>
       </c>
       <c r="I63">
-        <v>60016904000</v>
+        <v>53294533100</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-30T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>5747977064000</v>
+        <v>5210822156600</v>
       </c>
       <c r="L63">
         <v>347221000</v>
@@ -3543,13 +3543,13 @@
         <v>-725800</v>
       </c>
       <c r="N63">
-        <v>-8147693000</v>
+        <v>-9012527300</v>
       </c>
       <c r="O63">
         <v>8699500</v>
       </c>
       <c r="P63">
-        <v>-31232068000</v>
+        <v>-85329616300</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>7300</v>
       </c>
       <c r="E64">
-        <v>23808763000</v>
+        <v>20448226900</v>
       </c>
       <c r="F64">
-        <v>33499040000</v>
+        <v>31190950400</v>
       </c>
       <c r="G64">
         <v>314078000</v>
@@ -3578,13 +3578,13 @@
         <v>2949800</v>
       </c>
       <c r="I64">
-        <v>57621881000</v>
+        <v>51953255300</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-30T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>5805598945000</v>
+        <v>5262775411900</v>
       </c>
       <c r="L64">
         <v>350170800</v>
@@ -3593,13 +3593,13 @@
         <v>433500</v>
       </c>
       <c r="N64">
-        <v>9690277000</v>
+        <v>10742723500</v>
       </c>
       <c r="O64">
         <v>9133000</v>
       </c>
       <c r="P64">
-        <v>-21541791000</v>
+        <v>-74586892800</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>11100</v>
       </c>
       <c r="E65">
-        <v>27568813000</v>
+        <v>24497387500</v>
       </c>
       <c r="F65">
-        <v>26953207000</v>
+        <v>24904657600</v>
       </c>
       <c r="G65">
         <v>91445000</v>
@@ -3628,13 +3628,13 @@
         <v>3046300</v>
       </c>
       <c r="I65">
-        <v>54613465000</v>
+        <v>49493490100</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-30T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>5860212410000</v>
+        <v>5312268902000</v>
       </c>
       <c r="L65">
         <v>353217100</v>
@@ -3643,13 +3643,13 @@
         <v>-323600</v>
       </c>
       <c r="N65">
-        <v>-615606000</v>
+        <v>407270100</v>
       </c>
       <c r="O65">
         <v>8809400</v>
       </c>
       <c r="P65">
-        <v>-22157397000</v>
+        <v>-74179622700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>19400</v>
       </c>
       <c r="E66">
-        <v>22131596000</v>
+        <v>20249080400</v>
       </c>
       <c r="F66">
-        <v>60267359000</v>
+        <v>58948579100</v>
       </c>
       <c r="G66">
         <v>152963000</v>
@@ -3678,13 +3678,13 @@
         <v>4625000</v>
       </c>
       <c r="I66">
-        <v>82551918000</v>
+        <v>79350622500</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-30T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5942764328000</v>
+        <v>5391619524500</v>
       </c>
       <c r="L66">
         <v>357842100</v>
@@ -3693,13 +3693,13 @@
         <v>2205200</v>
       </c>
       <c r="N66">
-        <v>38135763000</v>
+        <v>38699498700</v>
       </c>
       <c r="O66">
         <v>11014600</v>
       </c>
       <c r="P66">
-        <v>15978366000</v>
+        <v>-35480124000</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>30300</v>
       </c>
       <c r="E67">
-        <v>31769611000</v>
+        <v>31429851100</v>
       </c>
       <c r="F67">
-        <v>35539204000</v>
+        <v>34224520000</v>
       </c>
       <c r="G67">
         <v>274093000</v>
@@ -3728,13 +3728,13 @@
         <v>3771800</v>
       </c>
       <c r="I67">
-        <v>67582908000</v>
+        <v>65928464100</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-30T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>6010347236000</v>
+        <v>5457547988600</v>
       </c>
       <c r="L67">
         <v>361613900</v>
@@ -3743,13 +3743,13 @@
         <v>181700</v>
       </c>
       <c r="N67">
-        <v>3769593000</v>
+        <v>2794668900</v>
       </c>
       <c r="O67">
         <v>11196300</v>
       </c>
       <c r="P67">
-        <v>19747959000</v>
+        <v>-32685455100</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>61800</v>
       </c>
       <c r="E68">
-        <v>25368262000</v>
+        <v>22811621200</v>
       </c>
       <c r="F68">
-        <v>47172943000</v>
+        <v>44891027200</v>
       </c>
       <c r="G68">
         <v>738245000</v>
@@ -3778,13 +3778,13 @@
         <v>3692700</v>
       </c>
       <c r="I68">
-        <v>73279450000</v>
+        <v>68440893400</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-30T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>6083626686000</v>
+        <v>5525988882000</v>
       </c>
       <c r="L68">
         <v>365306600</v>
@@ -3793,13 +3793,13 @@
         <v>880500</v>
       </c>
       <c r="N68">
-        <v>21804681000</v>
+        <v>22079406000</v>
       </c>
       <c r="O68">
         <v>12076800</v>
       </c>
       <c r="P68">
-        <v>41552640000</v>
+        <v>-10606049100</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>21300</v>
       </c>
       <c r="E69">
-        <v>20685962000</v>
+        <v>20025922700</v>
       </c>
       <c r="F69">
-        <v>58241914000</v>
+        <v>56089668400</v>
       </c>
       <c r="G69">
         <v>700054000</v>
@@ -3828,13 +3828,13 @@
         <v>3939000</v>
       </c>
       <c r="I69">
-        <v>79627930000</v>
+        <v>76815645100</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-30T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>6163254616000</v>
+        <v>5602804527100</v>
       </c>
       <c r="L69">
         <v>369245600</v>
@@ -3843,13 +3843,13 @@
         <v>1486300</v>
       </c>
       <c r="N69">
-        <v>37555952000</v>
+        <v>36063745700</v>
       </c>
       <c r="O69">
         <v>13563100</v>
       </c>
       <c r="P69">
-        <v>79108592000</v>
+        <v>25457696600</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-30T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>6164150994000</v>
+        <v>5603700905100</v>
       </c>
       <c r="L70">
         <v>369272500</v>
@@ -3899,7 +3899,7 @@
         <v>13557000</v>
       </c>
       <c r="P70">
-        <v>78798414000</v>
+        <v>25147518600</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>316700</v>
       </c>
       <c r="E71">
-        <v>71330887000</v>
+        <v>63627398200</v>
       </c>
       <c r="F71">
-        <v>74382334000</v>
+        <v>71099719900</v>
       </c>
       <c r="G71">
-        <v>5138346000</v>
+        <v>5033351100</v>
       </c>
       <c r="H71">
         <v>8761900</v>
       </c>
       <c r="I71">
-        <v>150851567000</v>
+        <v>139760469200</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-30T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>6315002561000</v>
+        <v>5743461374300</v>
       </c>
       <c r="L71">
         <v>378034400</v>
@@ -3943,13 +3943,13 @@
         <v>-664600</v>
       </c>
       <c r="N71">
-        <v>3051447000</v>
+        <v>7472321700</v>
       </c>
       <c r="O71">
         <v>12892400</v>
       </c>
       <c r="P71">
-        <v>81849861000</v>
+        <v>32619840300</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>79100</v>
       </c>
       <c r="E72">
-        <v>47818971000</v>
+        <v>42565829400</v>
       </c>
       <c r="F72">
-        <v>28888163000</v>
+        <v>20541118400</v>
       </c>
       <c r="G72">
         <v>1192446000</v>
@@ -3978,13 +3978,13 @@
         <v>4393700</v>
       </c>
       <c r="I72">
-        <v>77899580000</v>
+        <v>64299393800</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-30T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>6392902141000</v>
+        <v>5807760768100</v>
       </c>
       <c r="L72">
         <v>382428100</v>
@@ -3993,13 +3993,13 @@
         <v>-1150600</v>
       </c>
       <c r="N72">
-        <v>-18930808000</v>
+        <v>-22024711000</v>
       </c>
       <c r="O72">
         <v>11741800</v>
       </c>
       <c r="P72">
-        <v>62919053000</v>
+        <v>10595129300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>13600</v>
       </c>
       <c r="E73">
-        <v>32768572000</v>
+        <v>31724017600</v>
       </c>
       <c r="F73">
-        <v>31649980000</v>
+        <v>22287451900</v>
       </c>
       <c r="G73">
         <v>362360000</v>
@@ -4028,13 +4028,13 @@
         <v>3333300</v>
       </c>
       <c r="I73">
-        <v>64780912000</v>
+        <v>54373829500</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-30T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>6457683053000</v>
+        <v>5862134597600</v>
       </c>
       <c r="L73">
         <v>385761400</v>
@@ -4043,13 +4043,13 @@
         <v>-257100</v>
       </c>
       <c r="N73">
-        <v>-1118592000</v>
+        <v>-9436565700</v>
       </c>
       <c r="O73">
         <v>11484700</v>
       </c>
       <c r="P73">
-        <v>61800461000</v>
+        <v>1158563600</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>15100</v>
       </c>
       <c r="E74">
-        <v>35730619000</v>
+        <v>30446308600</v>
       </c>
       <c r="F74">
-        <v>48507378000</v>
+        <v>38864031000</v>
       </c>
       <c r="G74">
-        <v>121419000</v>
+        <v>114625800</v>
       </c>
       <c r="H74">
         <v>4714800</v>
       </c>
       <c r="I74">
-        <v>84359416000</v>
+        <v>69424965400</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-30T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>6542042469000</v>
+        <v>5931559563000</v>
       </c>
       <c r="L74">
         <v>390476200</v>
@@ -4093,13 +4093,13 @@
         <v>568900</v>
       </c>
       <c r="N74">
-        <v>12776759000</v>
+        <v>8417722400</v>
       </c>
       <c r="O74">
         <v>12053600</v>
       </c>
       <c r="P74">
-        <v>74577220000</v>
+        <v>9576286000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>21400</v>
       </c>
       <c r="E75">
-        <v>28221159000</v>
+        <v>27113367900</v>
       </c>
       <c r="F75">
-        <v>46788238000</v>
+        <v>44464963600</v>
       </c>
       <c r="G75">
         <v>521548000</v>
@@ -4128,13 +4128,13 @@
         <v>4486700</v>
       </c>
       <c r="I75">
-        <v>75530945000</v>
+        <v>72099879500</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-30T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6617573414000</v>
+        <v>6003659442500</v>
       </c>
       <c r="L75">
         <v>394962900</v>
@@ -4143,13 +4143,13 @@
         <v>1126100</v>
       </c>
       <c r="N75">
-        <v>18567079000</v>
+        <v>17351595700</v>
       </c>
       <c r="O75">
         <v>13179700</v>
       </c>
       <c r="P75">
-        <v>93144299000</v>
+        <v>26927881700</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>25000</v>
       </c>
       <c r="E76">
-        <v>30048692000</v>
+        <v>29415126200</v>
       </c>
       <c r="F76">
-        <v>42789027000</v>
+        <v>41223993600</v>
       </c>
       <c r="G76">
-        <v>338491000</v>
+        <v>272756800</v>
       </c>
       <c r="H76">
         <v>4126000</v>
       </c>
       <c r="I76">
-        <v>73176210000</v>
+        <v>70911876600</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-30T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>6690749624000</v>
+        <v>6074571319100</v>
       </c>
       <c r="L76">
         <v>399088900</v>
@@ -4193,13 +4193,13 @@
         <v>901600</v>
       </c>
       <c r="N76">
-        <v>12740335000</v>
+        <v>11808867400</v>
       </c>
       <c r="O76">
         <v>14081300</v>
       </c>
       <c r="P76">
-        <v>105884634000</v>
+        <v>38736749100</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>2400</v>
       </c>
       <c r="E77">
-        <v>25881123000</v>
+        <v>24918286800</v>
       </c>
       <c r="F77">
-        <v>43722147000</v>
+        <v>41549621700</v>
       </c>
       <c r="G77">
         <v>52817000</v>
@@ -4228,13 +4228,13 @@
         <v>4079500</v>
       </c>
       <c r="I77">
-        <v>69656087000</v>
+        <v>66520725500</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-30T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>6760405711000</v>
+        <v>6141092044600</v>
       </c>
       <c r="L77">
         <v>403168400</v>
@@ -4243,13 +4243,13 @@
         <v>955700</v>
       </c>
       <c r="N77">
-        <v>17841024000</v>
+        <v>16631334900</v>
       </c>
       <c r="O77">
         <v>15037000</v>
       </c>
       <c r="P77">
-        <v>123725658000</v>
+        <v>55368084000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>23400</v>
       </c>
       <c r="E78">
-        <v>23125338000</v>
+        <v>22412751300</v>
       </c>
       <c r="F78">
-        <v>62363114000</v>
+        <v>53229356900</v>
       </c>
       <c r="G78">
         <v>254603000</v>
@@ -4278,13 +4278,13 @@
         <v>5148600</v>
       </c>
       <c r="I78">
-        <v>85743055000</v>
+        <v>75896711200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-30T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>6846148766000</v>
+        <v>6216988755800</v>
       </c>
       <c r="L78">
         <v>408317000</v>
@@ -4293,13 +4293,13 @@
         <v>2165000</v>
       </c>
       <c r="N78">
-        <v>39237776000</v>
+        <v>30816605600</v>
       </c>
       <c r="O78">
         <v>17202000</v>
       </c>
       <c r="P78">
-        <v>162963434000</v>
+        <v>86184689600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>17700</v>
       </c>
       <c r="E79">
-        <v>27229118000</v>
+        <v>26591656100</v>
       </c>
       <c r="F79">
-        <v>88133354000</v>
+        <v>76971127400</v>
       </c>
       <c r="G79">
-        <v>349456000</v>
+        <v>329875600</v>
       </c>
       <c r="H79">
         <v>6580600</v>
       </c>
       <c r="I79">
-        <v>115711928000</v>
+        <v>103892659100</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-30T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6961860694000</v>
+        <v>6320881414900</v>
       </c>
       <c r="L79">
         <v>414897600</v>
@@ -4343,13 +4343,13 @@
         <v>3264500</v>
       </c>
       <c r="N79">
-        <v>60904236000</v>
+        <v>50379471300</v>
       </c>
       <c r="O79">
         <v>20466500</v>
       </c>
       <c r="P79">
-        <v>223867670000</v>
+        <v>136564160900</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>77400</v>
       </c>
       <c r="E80">
-        <v>38431431000</v>
+        <v>35470095300</v>
       </c>
       <c r="F80">
-        <v>92081000000</v>
+        <v>78377517200</v>
       </c>
       <c r="G80">
-        <v>1378583000</v>
+        <v>1318643000</v>
       </c>
       <c r="H80">
         <v>7723900</v>
       </c>
       <c r="I80">
-        <v>131891014000</v>
+        <v>115166255500</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-30T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>7093751708000</v>
+        <v>6436047670400</v>
       </c>
       <c r="L80">
         <v>422621500</v>
@@ -4393,13 +4393,13 @@
         <v>3015500</v>
       </c>
       <c r="N80">
-        <v>53649569000</v>
+        <v>42907421900</v>
       </c>
       <c r="O80">
         <v>23482000</v>
       </c>
       <c r="P80">
-        <v>277517239000</v>
+        <v>179471582800</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>26100</v>
       </c>
       <c r="E81">
-        <v>39943274000</v>
+        <v>37723795700</v>
       </c>
       <c r="F81">
-        <v>80493561000</v>
+        <v>78537519000</v>
       </c>
       <c r="G81">
         <v>477577000</v>
@@ -4428,13 +4428,13 @@
         <v>6700200</v>
       </c>
       <c r="I81">
-        <v>120914412000</v>
+        <v>116738891700</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-30T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7214666120000</v>
+        <v>6552786562100</v>
       </c>
       <c r="L81">
         <v>429321700</v>
@@ -4443,13 +4443,13 @@
         <v>2251100</v>
       </c>
       <c r="N81">
-        <v>40550287000</v>
+        <v>40813723300</v>
       </c>
       <c r="O81">
         <v>25733100</v>
       </c>
       <c r="P81">
-        <v>318067526000</v>
+        <v>220285306100</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>17600</v>
       </c>
       <c r="E82">
-        <v>28568361000</v>
+        <v>25492539900</v>
       </c>
       <c r="F82">
-        <v>72141923000</v>
+        <v>61384291400</v>
       </c>
       <c r="G82">
-        <v>352743000</v>
+        <v>335760000</v>
       </c>
       <c r="H82">
         <v>6260300</v>
       </c>
       <c r="I82">
-        <v>101063027000</v>
+        <v>87212591300</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-30T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>7315729147000</v>
+        <v>6639999153400</v>
       </c>
       <c r="L82">
         <v>435582000</v>
@@ -4493,13 +4493,13 @@
         <v>2756100</v>
       </c>
       <c r="N82">
-        <v>43573562000</v>
+        <v>35891751500</v>
       </c>
       <c r="O82">
         <v>28489200</v>
       </c>
       <c r="P82">
-        <v>361641088000</v>
+        <v>256177057600</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>15900</v>
       </c>
       <c r="E83">
-        <v>51735210000</v>
+        <v>48924223800</v>
       </c>
       <c r="F83">
-        <v>62755396000</v>
+        <v>58396759000</v>
       </c>
       <c r="G83">
-        <v>392714000</v>
+        <v>223683200</v>
       </c>
       <c r="H83">
         <v>6734600</v>
       </c>
       <c r="I83">
-        <v>114883320000</v>
+        <v>107544666000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-30T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>7430612467000</v>
+        <v>6747543819400</v>
       </c>
       <c r="L83">
         <v>442316600</v>
@@ -4543,13 +4543,13 @@
         <v>633300</v>
       </c>
       <c r="N83">
-        <v>11020186000</v>
+        <v>9472535200</v>
       </c>
       <c r="O83">
         <v>29122500</v>
       </c>
       <c r="P83">
-        <v>372661274000</v>
+        <v>265649592800</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>21100</v>
       </c>
       <c r="E84">
-        <v>41278479000</v>
+        <v>36858803100</v>
       </c>
       <c r="F84">
-        <v>36252142000</v>
+        <v>33991704700</v>
       </c>
       <c r="G84">
-        <v>336802000</v>
+        <v>314724100</v>
       </c>
       <c r="H84">
         <v>4465900</v>
       </c>
       <c r="I84">
-        <v>77867423000</v>
+        <v>71165231900</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-30T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7508479890000</v>
+        <v>6818709051300</v>
       </c>
       <c r="L84">
         <v>446782500</v>
@@ -4593,13 +4593,13 @@
         <v>-446600</v>
       </c>
       <c r="N84">
-        <v>-5026337000</v>
+        <v>-2867098400</v>
       </c>
       <c r="O84">
         <v>28675900</v>
       </c>
       <c r="P84">
-        <v>367634937000</v>
+        <v>262782494400</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>2300</v>
       </c>
       <c r="E85">
-        <v>53663837000</v>
+        <v>49619685200</v>
       </c>
       <c r="F85">
-        <v>39712731000</v>
+        <v>33022428000</v>
       </c>
       <c r="G85">
         <v>142636000</v>
@@ -4628,13 +4628,13 @@
         <v>5096700</v>
       </c>
       <c r="I85">
-        <v>93519204000</v>
+        <v>82784749200</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-30T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7601999094000</v>
+        <v>6901493800500</v>
       </c>
       <c r="L85">
         <v>451879200</v>
@@ -4643,13 +4643,13 @@
         <v>-789000</v>
       </c>
       <c r="N85">
-        <v>-13951106000</v>
+        <v>-16597257200</v>
       </c>
       <c r="O85">
         <v>27886900</v>
       </c>
       <c r="P85">
-        <v>353683831000</v>
+        <v>246185237200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>5100</v>
       </c>
       <c r="E86">
-        <v>69588889000</v>
+        <v>68036043400</v>
       </c>
       <c r="F86">
-        <v>29950365000</v>
+        <v>27543074700</v>
       </c>
       <c r="G86">
         <v>71536000</v>
@@ -4678,13 +4678,13 @@
         <v>5710500</v>
       </c>
       <c r="I86">
-        <v>99610790000</v>
+        <v>95650654100</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-30T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7701609884000</v>
+        <v>6997144454600</v>
       </c>
       <c r="L86">
         <v>457589700</v>
@@ -4693,13 +4693,13 @@
         <v>-1857000</v>
       </c>
       <c r="N86">
-        <v>-39638524000</v>
+        <v>-40492968700</v>
       </c>
       <c r="O86">
         <v>26029900</v>
       </c>
       <c r="P86">
-        <v>314045307000</v>
+        <v>205692268500</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>5800</v>
       </c>
       <c r="E87">
-        <v>60749271000</v>
+        <v>54246480300</v>
       </c>
       <c r="F87">
-        <v>27862113000</v>
+        <v>26326150500</v>
       </c>
       <c r="G87">
-        <v>197944000</v>
+        <v>86255800</v>
       </c>
       <c r="H87">
         <v>4878100</v>
       </c>
       <c r="I87">
-        <v>88809328000</v>
+        <v>80658886600</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-30T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7790419212000</v>
+        <v>7077803341200</v>
       </c>
       <c r="L87">
         <v>462467800</v>
@@ -4743,13 +4743,13 @@
         <v>-2010500</v>
       </c>
       <c r="N87">
-        <v>-32887158000</v>
+        <v>-27920329800</v>
       </c>
       <c r="O87">
         <v>24019400</v>
       </c>
       <c r="P87">
-        <v>281158149000</v>
+        <v>177771938700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>70400</v>
       </c>
       <c r="E88">
-        <v>54113453000</v>
+        <v>52645822100</v>
       </c>
       <c r="F88">
-        <v>32517371000</v>
+        <v>30082008800</v>
       </c>
       <c r="G88">
-        <v>1499930000</v>
+        <v>1340090000</v>
       </c>
       <c r="H88">
         <v>5270300</v>
       </c>
       <c r="I88">
-        <v>88130754000</v>
+        <v>84067920900</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-30T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7878549966000</v>
+        <v>7161871262100</v>
       </c>
       <c r="L88">
         <v>467738100</v>
@@ -4793,13 +4793,13 @@
         <v>-1538500</v>
       </c>
       <c r="N88">
-        <v>-21596082000</v>
+        <v>-22563813300</v>
       </c>
       <c r="O88">
         <v>22480900</v>
       </c>
       <c r="P88">
-        <v>259562067000</v>
+        <v>155208125400</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>18800</v>
       </c>
       <c r="E89">
-        <v>43107969000</v>
+        <v>40498581000</v>
       </c>
       <c r="F89">
-        <v>37042255000</v>
+        <v>34614685000</v>
       </c>
       <c r="G89">
         <v>264322000</v>
@@ -4828,13 +4828,13 @@
         <v>4742600</v>
       </c>
       <c r="I89">
-        <v>80414546000</v>
+        <v>75377588000</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-30T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7958964512000</v>
+        <v>7237248850100</v>
       </c>
       <c r="L89">
         <v>472480700</v>
@@ -4843,13 +4843,13 @@
         <v>-304800</v>
       </c>
       <c r="N89">
-        <v>-6065714000</v>
+        <v>-5883896000</v>
       </c>
       <c r="O89">
         <v>22176100</v>
       </c>
       <c r="P89">
-        <v>253496353000</v>
+        <v>149324229400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>31200</v>
       </c>
       <c r="E90">
-        <v>39005267000</v>
+        <v>30056924300</v>
       </c>
       <c r="F90">
-        <v>36369331000</v>
+        <v>34954447300</v>
       </c>
       <c r="G90">
         <v>574397000</v>
@@ -4878,13 +4878,13 @@
         <v>4176300</v>
       </c>
       <c r="I90">
-        <v>75948995000</v>
+        <v>65585768600</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-30T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>8034913507000</v>
+        <v>7302834618700</v>
       </c>
       <c r="L90">
         <v>476657000</v>
@@ -4893,13 +4893,13 @@
         <v>-134500</v>
       </c>
       <c r="N90">
-        <v>-2635936000</v>
+        <v>4897523000</v>
       </c>
       <c r="O90">
         <v>22041600</v>
       </c>
       <c r="P90">
-        <v>250860417000</v>
+        <v>154221752400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>10900</v>
       </c>
       <c r="E91">
-        <v>46731654000</v>
+        <v>37985109300</v>
       </c>
       <c r="F91">
-        <v>35080991000</v>
+        <v>32238636200</v>
       </c>
       <c r="G91">
         <v>444720000</v>
@@ -4928,13 +4928,13 @@
         <v>4346100</v>
       </c>
       <c r="I91">
-        <v>82257365000</v>
+        <v>70668465500</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-30T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>8117170872000</v>
+        <v>7373503084200</v>
       </c>
       <c r="L91">
         <v>481003100</v>
@@ -4943,13 +4943,13 @@
         <v>-576000</v>
       </c>
       <c r="N91">
-        <v>-11650663000</v>
+        <v>-5746473100</v>
       </c>
       <c r="O91">
         <v>21465600</v>
       </c>
       <c r="P91">
-        <v>239209754000</v>
+        <v>148475279300</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>6500</v>
       </c>
       <c r="E92">
-        <v>61434217000</v>
+        <v>44892974800</v>
       </c>
       <c r="F92">
-        <v>28981142000</v>
+        <v>23424304400</v>
       </c>
       <c r="G92">
         <v>284605000</v>
@@ -4978,13 +4978,13 @@
         <v>5244500</v>
       </c>
       <c r="I92">
-        <v>90699964000</v>
+        <v>68601884200</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-30T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8207870836000</v>
+        <v>7442104968400</v>
       </c>
       <c r="L92">
         <v>486247600</v>
@@ -4993,13 +4993,13 @@
         <v>-1913600</v>
       </c>
       <c r="N92">
-        <v>-32453075000</v>
+        <v>-21468670400</v>
       </c>
       <c r="O92">
         <v>19552000</v>
       </c>
       <c r="P92">
-        <v>206756679000</v>
+        <v>127006608900</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>11900</v>
       </c>
       <c r="E93">
-        <v>48070214000</v>
+        <v>44208979100</v>
       </c>
       <c r="F93">
-        <v>32779535000</v>
+        <v>32045969300</v>
       </c>
       <c r="G93">
         <v>190665000</v>
@@ -5028,13 +5028,13 @@
         <v>4589400</v>
       </c>
       <c r="I93">
-        <v>81040414000</v>
+        <v>76445613400</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-30T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8288911250000</v>
+        <v>7518550581800</v>
       </c>
       <c r="L93">
         <v>490837000</v>
@@ -5043,13 +5043,13 @@
         <v>-593300</v>
       </c>
       <c r="N93">
-        <v>-15290679000</v>
+        <v>-12163009800</v>
       </c>
       <c r="O93">
         <v>18958700</v>
       </c>
       <c r="P93">
-        <v>191466000000</v>
+        <v>114843599100</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>76000</v>
       </c>
       <c r="E94">
-        <v>56570105000</v>
+        <v>53117161400</v>
       </c>
       <c r="F94">
-        <v>25295857000</v>
+        <v>24096457600</v>
       </c>
       <c r="G94">
         <v>946547000</v>
@@ -5078,13 +5078,13 @@
         <v>4978800</v>
       </c>
       <c r="I94">
-        <v>82812509000</v>
+        <v>78160166000</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-30T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8371723759000</v>
+        <v>7596710747800</v>
       </c>
       <c r="L94">
         <v>495815800</v>
@@ -5093,13 +5093,13 @@
         <v>-2117600</v>
       </c>
       <c r="N94">
-        <v>-31274248000</v>
+        <v>-29020703800</v>
       </c>
       <c r="O94">
         <v>16841100</v>
       </c>
       <c r="P94">
-        <v>160191752000</v>
+        <v>85822895300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>4900</v>
       </c>
       <c r="E95">
-        <v>71361753000</v>
+        <v>64386135600</v>
       </c>
       <c r="F95">
-        <v>32208062000</v>
+        <v>30639731900</v>
       </c>
       <c r="G95">
-        <v>129264000</v>
+        <v>113280000</v>
       </c>
       <c r="H95">
         <v>5187800</v>
       </c>
       <c r="I95">
-        <v>103699079000</v>
+        <v>95139147500</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-30T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8475422838000</v>
+        <v>7691849895300</v>
       </c>
       <c r="L95">
         <v>501003600</v>
@@ -5143,13 +5143,13 @@
         <v>-1834700</v>
       </c>
       <c r="N95">
-        <v>-39153691000</v>
+        <v>-33746403700</v>
       </c>
       <c r="O95">
         <v>15006400</v>
       </c>
       <c r="P95">
-        <v>121038061000</v>
+        <v>52076491600</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>38100</v>
       </c>
       <c r="E96">
-        <v>66076207000</v>
+        <v>59763526000</v>
       </c>
       <c r="F96">
-        <v>42083248000</v>
+        <v>40184848300</v>
       </c>
       <c r="G96">
         <v>1041249000</v>
@@ -5178,13 +5178,13 @@
         <v>5871800</v>
       </c>
       <c r="I96">
-        <v>109200704000</v>
+        <v>100989623300</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-30T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8584623542000</v>
+        <v>7792839518600</v>
       </c>
       <c r="L96">
         <v>506875400</v>
@@ -5193,13 +5193,13 @@
         <v>-1738700</v>
       </c>
       <c r="N96">
-        <v>-23992959000</v>
+        <v>-19578677700</v>
       </c>
       <c r="O96">
         <v>13267700</v>
       </c>
       <c r="P96">
-        <v>97045102000</v>
+        <v>32497813900</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>58400</v>
       </c>
       <c r="E97">
-        <v>63976184000</v>
+        <v>55348420400</v>
       </c>
       <c r="F97">
-        <v>45094954000</v>
+        <v>40699154200</v>
       </c>
       <c r="G97">
         <v>969655000</v>
@@ -5228,13 +5228,13 @@
         <v>5795200</v>
       </c>
       <c r="I97">
-        <v>110040793000</v>
+        <v>97017229600</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-30T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>8694664335000</v>
+        <v>7889856748200</v>
       </c>
       <c r="L97">
         <v>512670600</v>
@@ -5243,13 +5243,13 @@
         <v>-1166000</v>
       </c>
       <c r="N97">
-        <v>-18881230000</v>
+        <v>-14649266200</v>
       </c>
       <c r="O97">
         <v>12101700</v>
       </c>
       <c r="P97">
-        <v>78163872000</v>
+        <v>17848547700</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>83300</v>
       </c>
       <c r="E98">
-        <v>65609254000</v>
+        <v>64919044900</v>
       </c>
       <c r="F98">
-        <v>34024444000</v>
+        <v>30085686700</v>
       </c>
       <c r="G98">
         <v>769404000</v>
@@ -5278,13 +5278,13 @@
         <v>5453700</v>
       </c>
       <c r="I98">
-        <v>100403102000</v>
+        <v>95774135600</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-30T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8795067437000</v>
+        <v>7985630883800</v>
       </c>
       <c r="L98">
         <v>518124300</v>
@@ -5293,13 +5293,13 @@
         <v>-1856000</v>
       </c>
       <c r="N98">
-        <v>-31584810000</v>
+        <v>-34833358200</v>
       </c>
       <c r="O98">
         <v>10245700</v>
       </c>
       <c r="P98">
-        <v>46579062000</v>
+        <v>-16984810500</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>35700</v>
       </c>
       <c r="E99">
-        <v>83760550000</v>
+        <v>82488523300</v>
       </c>
       <c r="F99">
-        <v>53230333000</v>
+        <v>40857218500</v>
       </c>
       <c r="G99">
-        <v>1107127000</v>
+        <v>975259000</v>
       </c>
       <c r="H99">
         <v>8168100</v>
       </c>
       <c r="I99">
-        <v>138098010000</v>
+        <v>124321000800</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-30T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8933165447000</v>
+        <v>8109951884600</v>
       </c>
       <c r="L99">
         <v>526292400</v>
@@ -5343,13 +5343,13 @@
         <v>-3309400</v>
       </c>
       <c r="N99">
-        <v>-30530217000</v>
+        <v>-41631304800</v>
       </c>
       <c r="O99">
         <v>6936300</v>
       </c>
       <c r="P99">
-        <v>16048845000</v>
+        <v>-58616115300</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>57000</v>
       </c>
       <c r="E100">
-        <v>59531277000</v>
+        <v>54742370700</v>
       </c>
       <c r="F100">
-        <v>52113514000</v>
+        <v>48983047600</v>
       </c>
       <c r="G100">
-        <v>656918000</v>
+        <v>644930000</v>
       </c>
       <c r="H100">
         <v>6547600</v>
       </c>
       <c r="I100">
-        <v>112301709000</v>
+        <v>104370348300</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-30T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>9045467156000</v>
+        <v>8214322232900</v>
       </c>
       <c r="L100">
         <v>532840000</v>
@@ -5393,13 +5393,13 @@
         <v>-732200</v>
       </c>
       <c r="N100">
-        <v>-7417763000</v>
+        <v>-5759323100</v>
       </c>
       <c r="O100">
         <v>6204100</v>
       </c>
       <c r="P100">
-        <v>8631082000</v>
+        <v>-64375438400</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>12900</v>
       </c>
       <c r="E101">
-        <v>56313114000</v>
+        <v>51180451800</v>
       </c>
       <c r="F101">
-        <v>33943462000</v>
+        <v>33276529600</v>
       </c>
       <c r="G101">
         <v>426890000</v>
@@ -5428,13 +5428,13 @@
         <v>5309800</v>
       </c>
       <c r="I101">
-        <v>90683466000</v>
+        <v>84883871400</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-30T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>9136150622000</v>
+        <v>8299206104300</v>
       </c>
       <c r="L101">
         <v>538149800</v>
@@ -5443,13 +5443,13 @@
         <v>-1318900</v>
       </c>
       <c r="N101">
-        <v>-22369652000</v>
+        <v>-17903922200</v>
       </c>
       <c r="O101">
         <v>4885200</v>
       </c>
       <c r="P101">
-        <v>-13738570000</v>
+        <v>-82279360600</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>29000</v>
       </c>
       <c r="E102">
-        <v>82554431000</v>
+        <v>76180711100</v>
       </c>
       <c r="F102">
-        <v>44079187000</v>
+        <v>41097471700</v>
       </c>
       <c r="G102">
-        <v>521035000</v>
+        <v>506050000</v>
       </c>
       <c r="H102">
         <v>7153700</v>
       </c>
       <c r="I102">
-        <v>127154653000</v>
+        <v>117784232800</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-30T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>9263305275000</v>
+        <v>8416990337100</v>
       </c>
       <c r="L102">
         <v>545303500</v>
@@ -5493,13 +5493,13 @@
         <v>-1837700</v>
       </c>
       <c r="N102">
-        <v>-38475244000</v>
+        <v>-35083239400</v>
       </c>
       <c r="O102">
         <v>3047500</v>
       </c>
       <c r="P102">
-        <v>-52213814000</v>
+        <v>-117362600000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>14700</v>
       </c>
       <c r="E103">
-        <v>106020234000</v>
+        <v>99388472400</v>
       </c>
       <c r="F103">
-        <v>27436806000</v>
+        <v>24691853700</v>
       </c>
       <c r="G103">
         <v>307054000</v>
@@ -5528,13 +5528,13 @@
         <v>7642700</v>
       </c>
       <c r="I103">
-        <v>133764094000</v>
+        <v>124387380100</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-30T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>9397069369000</v>
+        <v>8541377717200</v>
       </c>
       <c r="L103">
         <v>552946200</v>
@@ -5543,13 +5543,13 @@
         <v>-4733800</v>
       </c>
       <c r="N103">
-        <v>-78583428000</v>
+        <v>-74696618700</v>
       </c>
       <c r="O103">
         <v>-1686300</v>
       </c>
       <c r="P103">
-        <v>-130797242000</v>
+        <v>-192059218700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>35300</v>
       </c>
       <c r="E104">
-        <v>183886289000</v>
+        <v>170932855400</v>
       </c>
       <c r="F104">
-        <v>30847819000</v>
+        <v>29717950000</v>
       </c>
       <c r="G104">
         <v>911383000</v>
@@ -5578,13 +5578,13 @@
         <v>12566500</v>
       </c>
       <c r="I104">
-        <v>215645491000</v>
+        <v>201562188400</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-30T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9612714860000</v>
+        <v>8742939905600</v>
       </c>
       <c r="L104">
         <v>565512700</v>
@@ -5593,13 +5593,13 @@
         <v>-9447600</v>
       </c>
       <c r="N104">
-        <v>-153038470000</v>
+        <v>-141214905400</v>
       </c>
       <c r="O104">
         <v>-11133900</v>
       </c>
       <c r="P104">
-        <v>-283835712000</v>
+        <v>-333274124100</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>180100</v>
       </c>
       <c r="E105">
-        <v>271665529000</v>
+        <v>207929628700</v>
       </c>
       <c r="F105">
-        <v>50984505000</v>
+        <v>46391402700</v>
       </c>
       <c r="G105">
-        <v>3750907000</v>
+        <v>3720637300</v>
       </c>
       <c r="H105">
         <v>18590800</v>
       </c>
       <c r="I105">
-        <v>326400941000</v>
+        <v>258041668700</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-30T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9939115801000</v>
+        <v>9000981574300</v>
       </c>
       <c r="L105">
         <v>584103500</v>
@@ -5643,13 +5643,13 @@
         <v>-12910500</v>
       </c>
       <c r="N105">
-        <v>-220681024000</v>
+        <v>-161538226000</v>
       </c>
       <c r="O105">
         <v>-24044400</v>
       </c>
       <c r="P105">
-        <v>-504516736000</v>
+        <v>-494812350100</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>102000</v>
       </c>
       <c r="E106">
-        <v>179675130000</v>
+        <v>159196629000</v>
       </c>
       <c r="F106">
-        <v>82143962000</v>
+        <v>66446475200</v>
       </c>
       <c r="G106">
-        <v>2088784000</v>
+        <v>2032040800</v>
       </c>
       <c r="H106">
         <v>15256800</v>
       </c>
       <c r="I106">
-        <v>263907876000</v>
+        <v>227675145000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-30T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>10203023677000</v>
+        <v>9228656719300</v>
       </c>
       <c r="L106">
         <v>599360300</v>
@@ -5693,13 +5693,13 @@
         <v>-6462000</v>
       </c>
       <c r="N106">
-        <v>-97531168000</v>
+        <v>-92750153800</v>
       </c>
       <c r="O106">
         <v>-30506400</v>
       </c>
       <c r="P106">
-        <v>-602047904000</v>
+        <v>-587562503900</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>48900</v>
       </c>
       <c r="E107">
-        <v>123606397000</v>
+        <v>114821290900</v>
       </c>
       <c r="F107">
-        <v>79867668000</v>
+        <v>65697452400</v>
       </c>
       <c r="G107">
-        <v>1304312000</v>
+        <v>1200416000</v>
       </c>
       <c r="H107">
         <v>12122700</v>
       </c>
       <c r="I107">
-        <v>204778377000</v>
+        <v>181719159300</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-30T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>10407802054000</v>
+        <v>9410375878600</v>
       </c>
       <c r="L107">
         <v>611483000</v>
@@ -5743,13 +5743,13 @@
         <v>-3128400</v>
       </c>
       <c r="N107">
-        <v>-43738729000</v>
+        <v>-49123838500</v>
       </c>
       <c r="O107">
         <v>-33634800</v>
       </c>
       <c r="P107">
-        <v>-645786633000</v>
+        <v>-636686342400</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>91300</v>
       </c>
       <c r="E108">
-        <v>67470635000</v>
+        <v>61677134300</v>
       </c>
       <c r="F108">
-        <v>88774660000</v>
+        <v>72906743800</v>
       </c>
       <c r="G108">
-        <v>2493840000</v>
+        <v>2470863000</v>
       </c>
       <c r="H108">
         <v>10413500</v>
       </c>
       <c r="I108">
-        <v>158739135000</v>
+        <v>137054741100</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-30T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>10566541189000</v>
+        <v>9547430619700</v>
       </c>
       <c r="L108">
         <v>621896500</v>
@@ -5793,13 +5793,13 @@
         <v>331400</v>
       </c>
       <c r="N108">
-        <v>21304025000</v>
+        <v>11229609500</v>
       </c>
       <c r="O108">
         <v>-33303400</v>
       </c>
       <c r="P108">
-        <v>-624482608000</v>
+        <v>-625456732900</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>34500</v>
       </c>
       <c r="E109">
-        <v>46382063000</v>
+        <v>41399950100</v>
       </c>
       <c r="F109">
-        <v>96084245000</v>
+        <v>86272666400</v>
       </c>
       <c r="G109">
         <v>681448000</v>
@@ -5828,13 +5828,13 @@
         <v>7832600</v>
       </c>
       <c r="I109">
-        <v>143147756000</v>
+        <v>128354064500</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-30T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>10709688945000</v>
+        <v>9675784684200</v>
       </c>
       <c r="L109">
         <v>629729100</v>
@@ -5843,13 +5843,13 @@
         <v>2505500</v>
       </c>
       <c r="N109">
-        <v>49702182000</v>
+        <v>44872716300</v>
       </c>
       <c r="O109">
         <v>-30797900</v>
       </c>
       <c r="P109">
-        <v>-574780426000</v>
+        <v>-580584016600</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>11700</v>
       </c>
       <c r="E110">
-        <v>50746859000</v>
+        <v>47407801400</v>
       </c>
       <c r="F110">
-        <v>64395051000</v>
+        <v>58406245800</v>
       </c>
       <c r="G110">
         <v>196326000</v>
@@ -5878,13 +5878,13 @@
         <v>5878700</v>
       </c>
       <c r="I110">
-        <v>115338236000</v>
+        <v>106010373200</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-30T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>10825027181000</v>
+        <v>9781795057400</v>
       </c>
       <c r="L110">
         <v>635607800</v>
@@ -5893,13 +5893,13 @@
         <v>825600</v>
       </c>
       <c r="N110">
-        <v>13648192000</v>
+        <v>10998444400</v>
       </c>
       <c r="O110">
         <v>-29972300</v>
       </c>
       <c r="P110">
-        <v>-561132234000</v>
+        <v>-569585572200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>37600</v>
       </c>
       <c r="E111">
-        <v>136576468000</v>
+        <v>108133739200</v>
       </c>
       <c r="F111">
-        <v>34871263000</v>
+        <v>27316625200</v>
       </c>
       <c r="G111">
-        <v>946280000</v>
+        <v>920605700</v>
       </c>
       <c r="H111">
         <v>9298200</v>
       </c>
       <c r="I111">
-        <v>172394011000</v>
+        <v>136370970100</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-30T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>10997421192000</v>
+        <v>9918166027500</v>
       </c>
       <c r="L111">
         <v>644906000</v>
@@ -5943,13 +5943,13 @@
         <v>-5500000</v>
       </c>
       <c r="N111">
-        <v>-101705205000</v>
+        <v>-80817114000</v>
       </c>
       <c r="O111">
         <v>-35472300</v>
       </c>
       <c r="P111">
-        <v>-662837439000</v>
+        <v>-650402686200</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>20700</v>
       </c>
       <c r="E112">
-        <v>78223042000</v>
+        <v>64282696300</v>
       </c>
       <c r="F112">
-        <v>39065449000</v>
+        <v>31603418500</v>
       </c>
       <c r="G112">
         <v>323189000</v>
@@ -5978,13 +5978,13 @@
         <v>6147900</v>
       </c>
       <c r="I112">
-        <v>117611680000</v>
+        <v>96209303800</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-30T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>11115032872000</v>
+        <v>10014375331300</v>
       </c>
       <c r="L112">
         <v>651053900</v>
@@ -5993,13 +5993,13 @@
         <v>-2077600</v>
       </c>
       <c r="N112">
-        <v>-39157593000</v>
+        <v>-32679277800</v>
       </c>
       <c r="O112">
         <v>-37549900</v>
       </c>
       <c r="P112">
-        <v>-701995032000</v>
+        <v>-683081964000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>67800</v>
       </c>
       <c r="E113">
-        <v>99164703000</v>
+        <v>88444034400</v>
       </c>
       <c r="F113">
-        <v>45529011000</v>
+        <v>29388367800</v>
       </c>
       <c r="G113">
         <v>1717765000</v>
@@ -6028,13 +6028,13 @@
         <v>7362300</v>
       </c>
       <c r="I113">
-        <v>146411479000</v>
+        <v>119550167200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-30T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>11261444351000</v>
+        <v>10133925498500</v>
       </c>
       <c r="L113">
         <v>658416200</v>
@@ -6043,13 +6043,13 @@
         <v>-2684300</v>
       </c>
       <c r="N113">
-        <v>-53635692000</v>
+        <v>-59055666600</v>
       </c>
       <c r="O113">
         <v>-40234200</v>
       </c>
       <c r="P113">
-        <v>-755630724000</v>
+        <v>-742137630600</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>217500</v>
       </c>
       <c r="E114">
-        <v>134032673000</v>
+        <v>123952063700</v>
       </c>
       <c r="F114">
-        <v>47661148000</v>
+        <v>45501010300</v>
       </c>
       <c r="G114">
         <v>5319832000</v>
@@ -6078,13 +6078,13 @@
         <v>10404800</v>
       </c>
       <c r="I114">
-        <v>187013653000</v>
+        <v>174772906000</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-30T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>11448458004000</v>
+        <v>10308698404500</v>
       </c>
       <c r="L114">
         <v>668821000</v>
@@ -6093,13 +6093,13 @@
         <v>-4751100</v>
       </c>
       <c r="N114">
-        <v>-86371525000</v>
+        <v>-78451053400</v>
       </c>
       <c r="O114">
         <v>-44985300</v>
       </c>
       <c r="P114">
-        <v>-842002249000</v>
+        <v>-820588684000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>50700</v>
       </c>
       <c r="E115">
-        <v>133229213000</v>
+        <v>121119634700</v>
       </c>
       <c r="F115">
-        <v>62689481000</v>
+        <v>55846430900</v>
       </c>
       <c r="G115">
-        <v>982349000</v>
+        <v>976754600</v>
       </c>
       <c r="H115">
         <v>11536700</v>
       </c>
       <c r="I115">
-        <v>196901043000</v>
+        <v>177942820200</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-30T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>11645359047000</v>
+        <v>10486641224700</v>
       </c>
       <c r="L115">
         <v>680357700</v>
@@ -6143,13 +6143,13 @@
         <v>-4648200</v>
       </c>
       <c r="N115">
-        <v>-70539732000</v>
+        <v>-65273203800</v>
       </c>
       <c r="O115">
         <v>-49633500</v>
       </c>
       <c r="P115">
-        <v>-912541981000</v>
+        <v>-885861887800</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-30T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>11646036867000</v>
+        <v>10487319044700</v>
       </c>
       <c r="L116">
         <v>680392000</v>
@@ -6199,7 +6199,7 @@
         <v>-49635700</v>
       </c>
       <c r="P116">
-        <v>-912421826000</v>
+        <v>-885741732800</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>26595300</v>
       </c>
       <c r="E117">
-        <v>45234132000</v>
+        <v>36427847100</v>
       </c>
       <c r="F117">
-        <v>36630117000</v>
+        <v>33588461700</v>
       </c>
       <c r="G117">
-        <v>516789461000</v>
+        <v>488094784400</v>
       </c>
       <c r="H117">
         <v>30764600</v>
       </c>
       <c r="I117">
-        <v>598653710000</v>
+        <v>558111093200</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-30T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>12244690577000</v>
+        <v>11045430137900</v>
       </c>
       <c r="L117">
         <v>711156600</v>
@@ -6243,13 +6243,13 @@
         <v>468100</v>
       </c>
       <c r="N117">
-        <v>-8604015000</v>
+        <v>-2839385400</v>
       </c>
       <c r="O117">
         <v>-49167600</v>
       </c>
       <c r="P117">
-        <v>-921025841000</v>
+        <v>-888581118200</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
+++ b/name/vnindex/20230130/VNINDEX_HOSE_5p_20230130.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-16209408300</v>
       </c>
+      <c r="Q2">
+        <v>33849423900</v>
+      </c>
+      <c r="R2">
+        <v>50058832200</v>
+      </c>
+      <c r="S2">
+        <v>2789500</v>
+      </c>
+      <c r="T2">
+        <v>2968000</v>
+      </c>
+      <c r="U2">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V2">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W2">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X2">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y2">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z2">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA2">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB2">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC2">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-25748641100</v>
       </c>
+      <c r="Q3">
+        <v>67116425200</v>
+      </c>
+      <c r="R3">
+        <v>92865066300</v>
+      </c>
+      <c r="S3">
+        <v>5310800</v>
+      </c>
+      <c r="T3">
+        <v>5635000</v>
+      </c>
+      <c r="U3">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V3">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W3">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X3">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y3">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z3">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA3">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB3">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-63492994400</v>
       </c>
+      <c r="Q4">
+        <v>96445358000</v>
+      </c>
+      <c r="R4">
+        <v>159938352400</v>
+      </c>
+      <c r="S4">
+        <v>7654500</v>
+      </c>
+      <c r="T4">
+        <v>9760900</v>
+      </c>
+      <c r="U4">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V4">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W4">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X4">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y4">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z4">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA4">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB4">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC4">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-105165130500</v>
       </c>
+      <c r="Q5">
+        <v>129906900300</v>
+      </c>
+      <c r="R5">
+        <v>235072030800</v>
+      </c>
+      <c r="S5">
+        <v>9974200</v>
+      </c>
+      <c r="T5">
+        <v>14829200</v>
+      </c>
+      <c r="U5">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V5">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W5">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X5">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y5">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z5">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA5">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB5">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC5">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-160875129500</v>
       </c>
+      <c r="Q6">
+        <v>159265925800</v>
+      </c>
+      <c r="R6">
+        <v>320141055300</v>
+      </c>
+      <c r="S6">
+        <v>12108200</v>
+      </c>
+      <c r="T6">
+        <v>20489800</v>
+      </c>
+      <c r="U6">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V6">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W6">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X6">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y6">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z6">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA6">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB6">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC6">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-192119435800</v>
       </c>
+      <c r="Q7">
+        <v>198889720400</v>
+      </c>
+      <c r="R7">
+        <v>391009156200</v>
+      </c>
+      <c r="S7">
+        <v>14777000</v>
+      </c>
+      <c r="T7">
+        <v>25262900</v>
+      </c>
+      <c r="U7">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V7">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W7">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X7">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y7">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z7">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA7">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB7">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC7">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-208919664300</v>
       </c>
+      <c r="Q8">
+        <v>253002419200</v>
+      </c>
+      <c r="R8">
+        <v>461922083500</v>
+      </c>
+      <c r="S8">
+        <v>18846800</v>
+      </c>
+      <c r="T8">
+        <v>30227600</v>
+      </c>
+      <c r="U8">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V8">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W8">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X8">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y8">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z8">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA8">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB8">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC8">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-167697853800</v>
       </c>
+      <c r="Q9">
+        <v>333691405600</v>
+      </c>
+      <c r="R9">
+        <v>501389259400</v>
+      </c>
+      <c r="S9">
+        <v>24593700</v>
+      </c>
+      <c r="T9">
+        <v>32809300</v>
+      </c>
+      <c r="U9">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V9">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W9">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X9">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y9">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z9">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA9">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB9">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC9">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-99409235100</v>
       </c>
+      <c r="Q10">
+        <v>426792852900</v>
+      </c>
+      <c r="R10">
+        <v>526202088000</v>
+      </c>
+      <c r="S10">
+        <v>31145600</v>
+      </c>
+      <c r="T10">
+        <v>34448000</v>
+      </c>
+      <c r="U10">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V10">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W10">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X10">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y10">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z10">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA10">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB10">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC10">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-43826775100</v>
       </c>
+      <c r="Q11">
+        <v>531920811400</v>
+      </c>
+      <c r="R11">
+        <v>575747586500</v>
+      </c>
+      <c r="S11">
+        <v>38542900</v>
+      </c>
+      <c r="T11">
+        <v>37234900</v>
+      </c>
+      <c r="U11">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V11">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W11">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X11">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y11">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z11">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA11">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB11">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC11">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-13414022400</v>
       </c>
+      <c r="Q12">
+        <v>607557888400</v>
+      </c>
+      <c r="R12">
+        <v>620971910800</v>
+      </c>
+      <c r="S12">
+        <v>43420700</v>
+      </c>
+      <c r="T12">
+        <v>40296700</v>
+      </c>
+      <c r="U12">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V12">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W12">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X12">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y12">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z12">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA12">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB12">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>25936479900</v>
       </c>
+      <c r="Q13">
+        <v>683423514200</v>
+      </c>
+      <c r="R13">
+        <v>657487034300</v>
+      </c>
+      <c r="S13">
+        <v>50327400</v>
+      </c>
+      <c r="T13">
+        <v>42859500</v>
+      </c>
+      <c r="U13">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V13">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W13">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X13">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y13">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z13">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA13">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB13">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC13">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>64036848000</v>
       </c>
+      <c r="Q14">
+        <v>764210566100</v>
+      </c>
+      <c r="R14">
+        <v>700173718100</v>
+      </c>
+      <c r="S14">
+        <v>55879900</v>
+      </c>
+      <c r="T14">
+        <v>45862800</v>
+      </c>
+      <c r="U14">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V14">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W14">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X14">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y14">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z14">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA14">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB14">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>32643992900</v>
       </c>
+      <c r="Q15">
+        <v>815439151700</v>
+      </c>
+      <c r="R15">
+        <v>782795158800</v>
+      </c>
+      <c r="S15">
+        <v>59460700</v>
+      </c>
+      <c r="T15">
+        <v>50054600</v>
+      </c>
+      <c r="U15">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V15">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W15">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X15">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y15">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z15">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA15">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB15">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC15">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>14845924500</v>
       </c>
+      <c r="Q16">
+        <v>858300658900</v>
+      </c>
+      <c r="R16">
+        <v>843454734400</v>
+      </c>
+      <c r="S16">
+        <v>62842600</v>
+      </c>
+      <c r="T16">
+        <v>54120400</v>
+      </c>
+      <c r="U16">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V16">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W16">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X16">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y16">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z16">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA16">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB16">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC16">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-2413877400</v>
       </c>
+      <c r="Q17">
+        <v>882282169900</v>
+      </c>
+      <c r="R17">
+        <v>884696047300</v>
+      </c>
+      <c r="S17">
+        <v>64452500</v>
+      </c>
+      <c r="T17">
+        <v>56699100</v>
+      </c>
+      <c r="U17">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V17">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W17">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X17">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y17">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z17">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA17">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB17">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC17">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-21219150400</v>
       </c>
+      <c r="Q18">
+        <v>904839763600</v>
+      </c>
+      <c r="R18">
+        <v>926058914000</v>
+      </c>
+      <c r="S18">
+        <v>66053600</v>
+      </c>
+      <c r="T18">
+        <v>59368800</v>
+      </c>
+      <c r="U18">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V18">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W18">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X18">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y18">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z18">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA18">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB18">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC18">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-37775619000</v>
       </c>
+      <c r="Q19">
+        <v>932692763100</v>
+      </c>
+      <c r="R19">
+        <v>970468382100</v>
+      </c>
+      <c r="S19">
+        <v>67896200</v>
+      </c>
+      <c r="T19">
+        <v>62245300</v>
+      </c>
+      <c r="U19">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V19">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W19">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X19">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y19">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z19">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA19">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB19">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC19">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-69228310600</v>
       </c>
+      <c r="Q20">
+        <v>963233518500</v>
+      </c>
+      <c r="R20">
+        <v>1032461829100</v>
+      </c>
+      <c r="S20">
+        <v>70000900</v>
+      </c>
+      <c r="T20">
+        <v>66065200</v>
+      </c>
+      <c r="U20">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V20">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W20">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X20">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y20">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z20">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA20">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB20">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC20">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-77373229700</v>
       </c>
+      <c r="Q21">
+        <v>997081758700</v>
+      </c>
+      <c r="R21">
+        <v>1074454988400</v>
+      </c>
+      <c r="S21">
+        <v>72114200</v>
+      </c>
+      <c r="T21">
+        <v>68648000</v>
+      </c>
+      <c r="U21">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V21">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W21">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X21">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y21">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z21">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA21">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB21">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC21">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-71282334700</v>
       </c>
+      <c r="Q22">
+        <v>1034513327900</v>
+      </c>
+      <c r="R22">
+        <v>1105795662600</v>
+      </c>
+      <c r="S22">
+        <v>74431400</v>
+      </c>
+      <c r="T22">
+        <v>70719200</v>
+      </c>
+      <c r="U22">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V22">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W22">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X22">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y22">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z22">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA22">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB22">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC22">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-50925640800</v>
       </c>
+      <c r="Q23">
+        <v>1086471259100</v>
+      </c>
+      <c r="R23">
+        <v>1137396899900</v>
+      </c>
+      <c r="S23">
+        <v>77381100</v>
+      </c>
+      <c r="T23">
+        <v>72820800</v>
+      </c>
+      <c r="U23">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V23">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W23">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X23">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y23">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z23">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA23">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB23">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC23">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>1892859500</v>
       </c>
+      <c r="Q24">
+        <v>1164581221900</v>
+      </c>
+      <c r="R24">
+        <v>1162688362400</v>
+      </c>
+      <c r="S24">
+        <v>83067100</v>
+      </c>
+      <c r="T24">
+        <v>74462100</v>
+      </c>
+      <c r="U24">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V24">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W24">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X24">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y24">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z24">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA24">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB24">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC24">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>67373446500</v>
       </c>
+      <c r="Q25">
+        <v>1256339918300</v>
+      </c>
+      <c r="R25">
+        <v>1188966471800</v>
+      </c>
+      <c r="S25">
+        <v>89556200</v>
+      </c>
+      <c r="T25">
+        <v>76579400</v>
+      </c>
+      <c r="U25">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V25">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W25">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X25">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y25">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z25">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA25">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB25">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC25">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>118569778700</v>
       </c>
+      <c r="Q26">
+        <v>1339929709500</v>
+      </c>
+      <c r="R26">
+        <v>1221359930800</v>
+      </c>
+      <c r="S26">
+        <v>95860500</v>
+      </c>
+      <c r="T26">
+        <v>78518300</v>
+      </c>
+      <c r="U26">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V26">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W26">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X26">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y26">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z26">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA26">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB26">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC26">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>155745335300</v>
       </c>
+      <c r="Q27">
+        <v>1413881760600</v>
+      </c>
+      <c r="R27">
+        <v>1258136425300</v>
+      </c>
+      <c r="S27">
+        <v>101111100</v>
+      </c>
+      <c r="T27">
+        <v>80644900</v>
+      </c>
+      <c r="U27">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V27">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W27">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X27">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y27">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z27">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA27">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB27">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC27">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>179908323500</v>
       </c>
+      <c r="Q28">
+        <v>1473580373900</v>
+      </c>
+      <c r="R28">
+        <v>1293672050400</v>
+      </c>
+      <c r="S28">
+        <v>105213800</v>
+      </c>
+      <c r="T28">
+        <v>82768500</v>
+      </c>
+      <c r="U28">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V28">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W28">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X28">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y28">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z28">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA28">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB28">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC28">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>194996206400</v>
       </c>
+      <c r="Q29">
+        <v>1527594085300</v>
+      </c>
+      <c r="R29">
+        <v>1332597878900</v>
+      </c>
+      <c r="S29">
+        <v>109540100</v>
+      </c>
+      <c r="T29">
+        <v>85501100</v>
+      </c>
+      <c r="U29">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V29">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W29">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X29">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y29">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z29">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA29">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB29">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>208980202700</v>
       </c>
+      <c r="Q30">
+        <v>1589693571000</v>
+      </c>
+      <c r="R30">
+        <v>1380713368300</v>
+      </c>
+      <c r="S30">
+        <v>113752600</v>
+      </c>
+      <c r="T30">
+        <v>88448900</v>
+      </c>
+      <c r="U30">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V30">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W30">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X30">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y30">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z30">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA30">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB30">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC30">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>192806504000</v>
       </c>
+      <c r="Q31">
+        <v>1628729103700</v>
+      </c>
+      <c r="R31">
+        <v>1435922599700</v>
+      </c>
+      <c r="S31">
+        <v>116310400</v>
+      </c>
+      <c r="T31">
+        <v>91727400</v>
+      </c>
+      <c r="U31">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V31">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W31">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X31">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y31">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z31">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA31">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB31">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC31">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>153613609000</v>
       </c>
+      <c r="Q32">
+        <v>1656851560300</v>
+      </c>
+      <c r="R32">
+        <v>1503237951300</v>
+      </c>
+      <c r="S32">
+        <v>118165400</v>
+      </c>
+      <c r="T32">
+        <v>96038800</v>
+      </c>
+      <c r="U32">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V32">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W32">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X32">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y32">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z32">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA32">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB32">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC32">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>126902348200</v>
       </c>
+      <c r="Q33">
+        <v>1683070227200</v>
+      </c>
+      <c r="R33">
+        <v>1556167879000</v>
+      </c>
+      <c r="S33">
+        <v>119690600</v>
+      </c>
+      <c r="T33">
+        <v>99375300</v>
+      </c>
+      <c r="U33">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V33">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W33">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X33">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y33">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z33">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA33">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB33">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC33">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>110638611800</v>
       </c>
+      <c r="Q34">
+        <v>1708244498500</v>
+      </c>
+      <c r="R34">
+        <v>1597605886700</v>
+      </c>
+      <c r="S34">
+        <v>121296600</v>
+      </c>
+      <c r="T34">
+        <v>101963000</v>
+      </c>
+      <c r="U34">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V34">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W34">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X34">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y34">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z34">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA34">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB34">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC34">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>100982540500</v>
       </c>
+      <c r="Q35">
+        <v>1730191074300</v>
+      </c>
+      <c r="R35">
+        <v>1629208533800</v>
+      </c>
+      <c r="S35">
+        <v>122678200</v>
+      </c>
+      <c r="T35">
+        <v>103958000</v>
+      </c>
+      <c r="U35">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V35">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W35">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X35">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y35">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z35">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA35">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB35">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC35">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>86694355500</v>
       </c>
+      <c r="Q36">
+        <v>1746858570700</v>
+      </c>
+      <c r="R36">
+        <v>1660164215200</v>
+      </c>
+      <c r="S36">
+        <v>123889000</v>
+      </c>
+      <c r="T36">
+        <v>105902900</v>
+      </c>
+      <c r="U36">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V36">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W36">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X36">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y36">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z36">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA36">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB36">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC36">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>80398825800</v>
       </c>
+      <c r="Q37">
+        <v>1773342123100</v>
+      </c>
+      <c r="R37">
+        <v>1692943297300</v>
+      </c>
+      <c r="S37">
+        <v>125437700</v>
+      </c>
+      <c r="T37">
+        <v>108006700</v>
+      </c>
+      <c r="U37">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V37">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W37">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X37">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y37">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z37">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA37">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB37">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC37">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>68901885700</v>
       </c>
+      <c r="Q38">
+        <v>1797289292500</v>
+      </c>
+      <c r="R38">
+        <v>1728387406800</v>
+      </c>
+      <c r="S38">
+        <v>126810400</v>
+      </c>
+      <c r="T38">
+        <v>110126100</v>
+      </c>
+      <c r="U38">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V38">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W38">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X38">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y38">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z38">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA38">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB38">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC38">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>40884473500</v>
       </c>
+      <c r="Q39">
+        <v>1817414545100</v>
+      </c>
+      <c r="R39">
+        <v>1776530071600</v>
+      </c>
+      <c r="S39">
+        <v>128119500</v>
+      </c>
+      <c r="T39">
+        <v>112944500</v>
+      </c>
+      <c r="U39">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V39">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W39">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X39">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y39">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z39">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA39">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB39">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC39">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>23359573800</v>
       </c>
+      <c r="Q40">
+        <v>1839870815200</v>
+      </c>
+      <c r="R40">
+        <v>1816511241400</v>
+      </c>
+      <c r="S40">
+        <v>129500500</v>
+      </c>
+      <c r="T40">
+        <v>115014700</v>
+      </c>
+      <c r="U40">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V40">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W40">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X40">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y40">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z40">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA40">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB40">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC40">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>30486783000</v>
       </c>
+      <c r="Q41">
+        <v>1877608869900</v>
+      </c>
+      <c r="R41">
+        <v>1847122086900</v>
+      </c>
+      <c r="S41">
+        <v>131748800</v>
+      </c>
+      <c r="T41">
+        <v>117485400</v>
+      </c>
+      <c r="U41">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V41">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W41">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X41">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y41">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z41">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA41">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB41">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC41">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>55843743700</v>
       </c>
+      <c r="Q42">
+        <v>1919173728200</v>
+      </c>
+      <c r="R42">
+        <v>1863329984500</v>
+      </c>
+      <c r="S42">
+        <v>134380400</v>
+      </c>
+      <c r="T42">
+        <v>118823800</v>
+      </c>
+      <c r="U42">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V42">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W42">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X42">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y42">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z42">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA42">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB42">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC42">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>69772142400</v>
       </c>
+      <c r="Q43">
+        <v>1949591237500</v>
+      </c>
+      <c r="R43">
+        <v>1879819095100</v>
+      </c>
+      <c r="S43">
+        <v>136511800</v>
+      </c>
+      <c r="T43">
+        <v>119885200</v>
+      </c>
+      <c r="U43">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V43">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W43">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X43">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y43">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z43">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA43">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB43">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC43">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>76144726400</v>
       </c>
+      <c r="Q44">
+        <v>1972619617100</v>
+      </c>
+      <c r="R44">
+        <v>1896474890700</v>
+      </c>
+      <c r="S44">
+        <v>137990200</v>
+      </c>
+      <c r="T44">
+        <v>121329100</v>
+      </c>
+      <c r="U44">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V44">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W44">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X44">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y44">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z44">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA44">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB44">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC44">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>75221627200</v>
       </c>
+      <c r="Q45">
+        <v>1997263137800</v>
+      </c>
+      <c r="R45">
+        <v>1922041510600</v>
+      </c>
+      <c r="S45">
+        <v>139620900</v>
+      </c>
+      <c r="T45">
+        <v>123931400</v>
+      </c>
+      <c r="U45">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V45">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W45">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X45">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y45">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z45">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA45">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB45">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC45">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>67087798900</v>
       </c>
+      <c r="Q46">
+        <v>2016382205800</v>
+      </c>
+      <c r="R46">
+        <v>1949294406900</v>
+      </c>
+      <c r="S46">
+        <v>141162600</v>
+      </c>
+      <c r="T46">
+        <v>125947200</v>
+      </c>
+      <c r="U46">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V46">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W46">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X46">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y46">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z46">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA46">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB46">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC46">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>39358236600</v>
       </c>
+      <c r="Q47">
+        <v>2032441319400</v>
+      </c>
+      <c r="R47">
+        <v>1993083082800</v>
+      </c>
+      <c r="S47">
+        <v>142579200</v>
+      </c>
+      <c r="T47">
+        <v>128279500</v>
+      </c>
+      <c r="U47">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V47">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W47">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X47">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y47">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z47">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA47">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB47">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC47">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>36152509600</v>
       </c>
+      <c r="Q48">
+        <v>2059309123300</v>
+      </c>
+      <c r="R48">
+        <v>2023156613700</v>
+      </c>
+      <c r="S48">
+        <v>144416500</v>
+      </c>
+      <c r="T48">
+        <v>130081200</v>
+      </c>
+      <c r="U48">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V48">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W48">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X48">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y48">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z48">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA48">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB48">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC48">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>21158994900</v>
       </c>
+      <c r="Q49">
+        <v>2088322738500</v>
+      </c>
+      <c r="R49">
+        <v>2067163743600</v>
+      </c>
+      <c r="S49">
+        <v>146156800</v>
+      </c>
+      <c r="T49">
+        <v>133163600</v>
+      </c>
+      <c r="U49">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V49">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W49">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X49">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y49">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z49">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA49">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB49">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>14853111800</v>
       </c>
+      <c r="Q50">
+        <v>2115537715000</v>
+      </c>
+      <c r="R50">
+        <v>2100684603200</v>
+      </c>
+      <c r="S50">
+        <v>147767100</v>
+      </c>
+      <c r="T50">
+        <v>135215500</v>
+      </c>
+      <c r="U50">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V50">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W50">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X50">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y50">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z50">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA50">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB50">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC50">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-2428432500</v>
       </c>
+      <c r="Q51">
+        <v>2135708207400</v>
+      </c>
+      <c r="R51">
+        <v>2138136639900</v>
+      </c>
+      <c r="S51">
+        <v>148942400</v>
+      </c>
+      <c r="T51">
+        <v>137144000</v>
+      </c>
+      <c r="U51">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V51">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W51">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X51">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y51">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z51">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA51">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB51">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC51">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-45953937900</v>
       </c>
+      <c r="Q52">
+        <v>2153371744800</v>
+      </c>
+      <c r="R52">
+        <v>2199325682700</v>
+      </c>
+      <c r="S52">
+        <v>150686500</v>
+      </c>
+      <c r="T52">
+        <v>140231500</v>
+      </c>
+      <c r="U52">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V52">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W52">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X52">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y52">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z52">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA52">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB52">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC52">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-104898046600</v>
       </c>
+      <c r="Q53">
+        <v>2170956043200</v>
+      </c>
+      <c r="R53">
+        <v>2275854089800</v>
+      </c>
+      <c r="S53">
+        <v>151957900</v>
+      </c>
+      <c r="T53">
+        <v>145024300</v>
+      </c>
+      <c r="U53">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V53">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W53">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X53">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y53">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z53">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA53">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB53">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC53">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-129787755200</v>
       </c>
+      <c r="Q54">
+        <v>2207336652100</v>
+      </c>
+      <c r="R54">
+        <v>2337124407300</v>
+      </c>
+      <c r="S54">
+        <v>154785700</v>
+      </c>
+      <c r="T54">
+        <v>149189700</v>
+      </c>
+      <c r="U54">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V54">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W54">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X54">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y54">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z54">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA54">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB54">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC54">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-131092658300</v>
       </c>
+      <c r="Q55">
+        <v>2263118516000</v>
+      </c>
+      <c r="R55">
+        <v>2394211174300</v>
+      </c>
+      <c r="S55">
+        <v>158683300</v>
+      </c>
+      <c r="T55">
+        <v>152501300</v>
+      </c>
+      <c r="U55">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V55">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W55">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X55">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y55">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z55">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA55">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB55">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC55">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-98957319600</v>
       </c>
+      <c r="Q56">
+        <v>2323761913900</v>
+      </c>
+      <c r="R56">
+        <v>2422719233500</v>
+      </c>
+      <c r="S56">
+        <v>162889100</v>
+      </c>
+      <c r="T56">
+        <v>154333200</v>
+      </c>
+      <c r="U56">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V56">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W56">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X56">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y56">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z56">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA56">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB56">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC56">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-82357974700</v>
       </c>
+      <c r="Q57">
+        <v>2359481851200</v>
+      </c>
+      <c r="R57">
+        <v>2441839825900</v>
+      </c>
+      <c r="S57">
+        <v>165293700</v>
+      </c>
+      <c r="T57">
+        <v>155601100</v>
+      </c>
+      <c r="U57">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V57">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W57">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X57">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y57">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z57">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA57">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB57">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC57">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-51749186800</v>
       </c>
+      <c r="Q58">
+        <v>2409958705300</v>
+      </c>
+      <c r="R58">
+        <v>2461707892100</v>
+      </c>
+      <c r="S58">
+        <v>168236100</v>
+      </c>
+      <c r="T58">
+        <v>157180200</v>
+      </c>
+      <c r="U58">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V58">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W58">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X58">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y58">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z58">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA58">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB58">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC58">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-50457891400</v>
       </c>
+      <c r="Q59">
+        <v>2442705375500</v>
+      </c>
+      <c r="R59">
+        <v>2493163266900</v>
+      </c>
+      <c r="S59">
+        <v>170177700</v>
+      </c>
+      <c r="T59">
+        <v>159098000</v>
+      </c>
+      <c r="U59">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V59">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W59">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X59">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y59">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z59">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA59">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB59">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-58584605300</v>
       </c>
+      <c r="Q60">
+        <v>2461295189300</v>
+      </c>
+      <c r="R60">
+        <v>2519879794600</v>
+      </c>
+      <c r="S60">
+        <v>171281400</v>
+      </c>
+      <c r="T60">
+        <v>160899100</v>
+      </c>
+      <c r="U60">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V60">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W60">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X60">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y60">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z60">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA60">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB60">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC60">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-74971680000</v>
       </c>
+      <c r="Q61">
+        <v>2481601725500</v>
+      </c>
+      <c r="R61">
+        <v>2556573405500</v>
+      </c>
+      <c r="S61">
+        <v>172455600</v>
+      </c>
+      <c r="T61">
+        <v>162968200</v>
+      </c>
+      <c r="U61">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V61">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W61">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X61">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y61">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z61">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA61">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB61">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC61">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-76317089000</v>
       </c>
+      <c r="Q62">
+        <v>2503990633200</v>
+      </c>
+      <c r="R62">
+        <v>2580307722200</v>
+      </c>
+      <c r="S62">
+        <v>173775400</v>
+      </c>
+      <c r="T62">
+        <v>164350100</v>
+      </c>
+      <c r="U62">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V62">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W62">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X62">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y62">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z62">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA62">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB62">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC62">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-85329616300</v>
       </c>
+      <c r="Q63">
+        <v>2525364120600</v>
+      </c>
+      <c r="R63">
+        <v>2610693736900</v>
+      </c>
+      <c r="S63">
+        <v>174991800</v>
+      </c>
+      <c r="T63">
+        <v>166292300</v>
+      </c>
+      <c r="U63">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V63">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W63">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X63">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y63">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z63">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA63">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB63">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC63">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-74586892800</v>
       </c>
+      <c r="Q64">
+        <v>2556555071000</v>
+      </c>
+      <c r="R64">
+        <v>2631141963800</v>
+      </c>
+      <c r="S64">
+        <v>176679800</v>
+      </c>
+      <c r="T64">
+        <v>167546800</v>
+      </c>
+      <c r="U64">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V64">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W64">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X64">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y64">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z64">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA64">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB64">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-74179622700</v>
       </c>
+      <c r="Q65">
+        <v>2581459728600</v>
+      </c>
+      <c r="R65">
+        <v>2655639351300</v>
+      </c>
+      <c r="S65">
+        <v>178035600</v>
+      </c>
+      <c r="T65">
+        <v>169226200</v>
+      </c>
+      <c r="U65">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V65">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W65">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X65">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y65">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z65">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA65">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB65">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC65">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-35480124000</v>
       </c>
+      <c r="Q66">
+        <v>2640408307700</v>
+      </c>
+      <c r="R66">
+        <v>2675888431700</v>
+      </c>
+      <c r="S66">
+        <v>181441000</v>
+      </c>
+      <c r="T66">
+        <v>170426400</v>
+      </c>
+      <c r="U66">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V66">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W66">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X66">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y66">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z66">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA66">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB66">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC66">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-32685455100</v>
       </c>
+      <c r="Q67">
+        <v>2674632827700</v>
+      </c>
+      <c r="R67">
+        <v>2707318282800</v>
+      </c>
+      <c r="S67">
+        <v>183402600</v>
+      </c>
+      <c r="T67">
+        <v>172206300</v>
+      </c>
+      <c r="U67">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V67">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W67">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X67">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y67">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z67">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA67">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB67">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC67">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-10606049100</v>
       </c>
+      <c r="Q68">
+        <v>2719523854900</v>
+      </c>
+      <c r="R68">
+        <v>2730129904000</v>
+      </c>
+      <c r="S68">
+        <v>185658300</v>
+      </c>
+      <c r="T68">
+        <v>173581500</v>
+      </c>
+      <c r="U68">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V68">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W68">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X68">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y68">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z68">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA68">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB68">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC68">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>25457696600</v>
       </c>
+      <c r="Q69">
+        <v>2775613523300</v>
+      </c>
+      <c r="R69">
+        <v>2750155826700</v>
+      </c>
+      <c r="S69">
+        <v>188360300</v>
+      </c>
+      <c r="T69">
+        <v>174797200</v>
+      </c>
+      <c r="U69">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V69">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W69">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X69">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y69">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z69">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA69">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB69">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC69">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>25147518600</v>
       </c>
+      <c r="Q70">
+        <v>2775906623300</v>
+      </c>
+      <c r="R70">
+        <v>2750759104700</v>
+      </c>
+      <c r="S70">
+        <v>188370700</v>
+      </c>
+      <c r="T70">
+        <v>174813700</v>
+      </c>
+      <c r="U70">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V70">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W70">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X70">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y70">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z70">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA70">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB70">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>32619840300</v>
       </c>
+      <c r="Q71">
+        <v>2847006343200</v>
+      </c>
+      <c r="R71">
+        <v>2814386502900</v>
+      </c>
+      <c r="S71">
+        <v>192261000</v>
+      </c>
+      <c r="T71">
+        <v>179368600</v>
+      </c>
+      <c r="U71">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V71">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W71">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X71">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y71">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z71">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA71">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB71">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>10595129300</v>
       </c>
+      <c r="Q72">
+        <v>2867547461600</v>
+      </c>
+      <c r="R72">
+        <v>2856952332300</v>
+      </c>
+      <c r="S72">
+        <v>193843000</v>
+      </c>
+      <c r="T72">
+        <v>182101200</v>
+      </c>
+      <c r="U72">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V72">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W72">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X72">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y72">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z72">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA72">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB72">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC72">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>1158563600</v>
       </c>
+      <c r="Q73">
+        <v>2889834913500</v>
+      </c>
+      <c r="R73">
+        <v>2888676349900</v>
+      </c>
+      <c r="S73">
+        <v>195374300</v>
+      </c>
+      <c r="T73">
+        <v>183889600</v>
+      </c>
+      <c r="U73">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V73">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W73">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X73">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y73">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z73">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA73">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB73">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC73">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>9576286000</v>
       </c>
+      <c r="Q74">
+        <v>2928698944500</v>
+      </c>
+      <c r="R74">
+        <v>2919122658500</v>
+      </c>
+      <c r="S74">
+        <v>198008600</v>
+      </c>
+      <c r="T74">
+        <v>185955000</v>
+      </c>
+      <c r="U74">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V74">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W74">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X74">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y74">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z74">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA74">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB74">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC74">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>26927881700</v>
       </c>
+      <c r="Q75">
+        <v>2973163908100</v>
+      </c>
+      <c r="R75">
+        <v>2946236026400</v>
+      </c>
+      <c r="S75">
+        <v>200804300</v>
+      </c>
+      <c r="T75">
+        <v>187624600</v>
+      </c>
+      <c r="U75">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V75">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W75">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X75">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y75">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z75">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA75">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB75">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC75">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>38736749100</v>
       </c>
+      <c r="Q76">
+        <v>3014387901700</v>
+      </c>
+      <c r="R76">
+        <v>2975651152600</v>
+      </c>
+      <c r="S76">
+        <v>203305600</v>
+      </c>
+      <c r="T76">
+        <v>189224300</v>
+      </c>
+      <c r="U76">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V76">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W76">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X76">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y76">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z76">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA76">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB76">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC76">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>55368084000</v>
       </c>
+      <c r="Q77">
+        <v>3055937523400</v>
+      </c>
+      <c r="R77">
+        <v>3000569439400</v>
+      </c>
+      <c r="S77">
+        <v>205822000</v>
+      </c>
+      <c r="T77">
+        <v>190785000</v>
+      </c>
+      <c r="U77">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V77">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W77">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X77">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y77">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z77">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA77">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB77">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC77">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>86184689600</v>
       </c>
+      <c r="Q78">
+        <v>3109166880300</v>
+      </c>
+      <c r="R78">
+        <v>3022982190700</v>
+      </c>
+      <c r="S78">
+        <v>209467100</v>
+      </c>
+      <c r="T78">
+        <v>192265100</v>
+      </c>
+      <c r="U78">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V78">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W78">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X78">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y78">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z78">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA78">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB78">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>136564160900</v>
       </c>
+      <c r="Q79">
+        <v>3186138007700</v>
+      </c>
+      <c r="R79">
+        <v>3049573846800</v>
+      </c>
+      <c r="S79">
+        <v>214380800</v>
+      </c>
+      <c r="T79">
+        <v>193914300</v>
+      </c>
+      <c r="U79">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V79">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W79">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X79">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y79">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z79">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA79">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB79">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC79">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>179471582800</v>
       </c>
+      <c r="Q80">
+        <v>3264515524900</v>
+      </c>
+      <c r="R80">
+        <v>3085043942100</v>
+      </c>
+      <c r="S80">
+        <v>219711800</v>
+      </c>
+      <c r="T80">
+        <v>196229800</v>
+      </c>
+      <c r="U80">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V80">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W80">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X80">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y80">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z80">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA80">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB80">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC80">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>220285306100</v>
       </c>
+      <c r="Q81">
+        <v>3343053043900</v>
+      </c>
+      <c r="R81">
+        <v>3122767737800</v>
+      </c>
+      <c r="S81">
+        <v>224174400</v>
+      </c>
+      <c r="T81">
+        <v>198441300</v>
+      </c>
+      <c r="U81">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V81">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W81">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X81">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y81">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z81">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA81">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB81">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC81">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>256177057600</v>
       </c>
+      <c r="Q82">
+        <v>3404437335300</v>
+      </c>
+      <c r="R82">
+        <v>3148260277700</v>
+      </c>
+      <c r="S82">
+        <v>228673800</v>
+      </c>
+      <c r="T82">
+        <v>200184600</v>
+      </c>
+      <c r="U82">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V82">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W82">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X82">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y82">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z82">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA82">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB82">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC82">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>265649592800</v>
       </c>
+      <c r="Q83">
+        <v>3462834094300</v>
+      </c>
+      <c r="R83">
+        <v>3197184501500</v>
+      </c>
+      <c r="S83">
+        <v>232349800</v>
+      </c>
+      <c r="T83">
+        <v>203227300</v>
+      </c>
+      <c r="U83">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V83">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W83">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X83">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y83">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z83">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA83">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB83">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC83">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>262782494400</v>
       </c>
+      <c r="Q84">
+        <v>3496825799000</v>
+      </c>
+      <c r="R84">
+        <v>3234043304600</v>
+      </c>
+      <c r="S84">
+        <v>234348900</v>
+      </c>
+      <c r="T84">
+        <v>205673000</v>
+      </c>
+      <c r="U84">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V84">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W84">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X84">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y84">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z84">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA84">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB84">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC84">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>246185237200</v>
       </c>
+      <c r="Q85">
+        <v>3529848227000</v>
+      </c>
+      <c r="R85">
+        <v>3283662989800</v>
+      </c>
+      <c r="S85">
+        <v>236501600</v>
+      </c>
+      <c r="T85">
+        <v>208614700</v>
+      </c>
+      <c r="U85">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V85">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W85">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X85">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y85">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z85">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA85">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB85">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC85">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>205692268500</v>
       </c>
+      <c r="Q86">
+        <v>3557391301700</v>
+      </c>
+      <c r="R86">
+        <v>3351699033200</v>
+      </c>
+      <c r="S86">
+        <v>238425800</v>
+      </c>
+      <c r="T86">
+        <v>212395900</v>
+      </c>
+      <c r="U86">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V86">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W86">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X86">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y86">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z86">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA86">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB86">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC86">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>177771938700</v>
       </c>
+      <c r="Q87">
+        <v>3583717452200</v>
+      </c>
+      <c r="R87">
+        <v>3405945513500</v>
+      </c>
+      <c r="S87">
+        <v>239856700</v>
+      </c>
+      <c r="T87">
+        <v>215837300</v>
+      </c>
+      <c r="U87">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V87">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W87">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X87">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y87">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z87">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA87">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB87">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC87">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>155208125400</v>
       </c>
+      <c r="Q88">
+        <v>3613799461000</v>
+      </c>
+      <c r="R88">
+        <v>3458591335600</v>
+      </c>
+      <c r="S88">
+        <v>241687400</v>
+      </c>
+      <c r="T88">
+        <v>219206500</v>
+      </c>
+      <c r="U88">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V88">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W88">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X88">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y88">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z88">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA88">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB88">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC88">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>149324229400</v>
       </c>
+      <c r="Q89">
+        <v>3648414146000</v>
+      </c>
+      <c r="R89">
+        <v>3499089916600</v>
+      </c>
+      <c r="S89">
+        <v>243896900</v>
+      </c>
+      <c r="T89">
+        <v>221720800</v>
+      </c>
+      <c r="U89">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V89">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W89">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X89">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y89">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z89">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA89">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB89">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC89">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>154221752400</v>
       </c>
+      <c r="Q90">
+        <v>3683368593300</v>
+      </c>
+      <c r="R90">
+        <v>3529146840900</v>
+      </c>
+      <c r="S90">
+        <v>245902200</v>
+      </c>
+      <c r="T90">
+        <v>223860600</v>
+      </c>
+      <c r="U90">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V90">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W90">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X90">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y90">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z90">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA90">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB90">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC90">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>148475279300</v>
       </c>
+      <c r="Q91">
+        <v>3715607229500</v>
+      </c>
+      <c r="R91">
+        <v>3567131950200</v>
+      </c>
+      <c r="S91">
+        <v>247781800</v>
+      </c>
+      <c r="T91">
+        <v>226316200</v>
+      </c>
+      <c r="U91">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V91">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W91">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X91">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y91">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z91">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA91">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB91">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC91">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>127006608900</v>
       </c>
+      <c r="Q92">
+        <v>3739031533900</v>
+      </c>
+      <c r="R92">
+        <v>3612024925000</v>
+      </c>
+      <c r="S92">
+        <v>249444000</v>
+      </c>
+      <c r="T92">
+        <v>229892000</v>
+      </c>
+      <c r="U92">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V92">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W92">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X92">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y92">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z92">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA92">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB92">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC92">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>114843599100</v>
       </c>
+      <c r="Q93">
+        <v>3771077503200</v>
+      </c>
+      <c r="R93">
+        <v>3656233904100</v>
+      </c>
+      <c r="S93">
+        <v>251436100</v>
+      </c>
+      <c r="T93">
+        <v>232477400</v>
+      </c>
+      <c r="U93">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V93">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W93">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X93">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y93">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z93">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA93">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB93">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC93">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>85822895300</v>
       </c>
+      <c r="Q94">
+        <v>3795173960800</v>
+      </c>
+      <c r="R94">
+        <v>3709351065500</v>
+      </c>
+      <c r="S94">
+        <v>252828700</v>
+      </c>
+      <c r="T94">
+        <v>235987600</v>
+      </c>
+      <c r="U94">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V94">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W94">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X94">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y94">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z94">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA94">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB94">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC94">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>52076491600</v>
       </c>
+      <c r="Q95">
+        <v>3825813692700</v>
+      </c>
+      <c r="R95">
+        <v>3773737201100</v>
+      </c>
+      <c r="S95">
+        <v>254502800</v>
+      </c>
+      <c r="T95">
+        <v>239496400</v>
+      </c>
+      <c r="U95">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V95">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W95">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X95">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y95">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z95">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA95">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB95">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC95">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>32497813900</v>
       </c>
+      <c r="Q96">
+        <v>3865998541000</v>
+      </c>
+      <c r="R96">
+        <v>3833500727100</v>
+      </c>
+      <c r="S96">
+        <v>256550300</v>
+      </c>
+      <c r="T96">
+        <v>243282600</v>
+      </c>
+      <c r="U96">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V96">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W96">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X96">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y96">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z96">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA96">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB96">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC96">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>17848547700</v>
       </c>
+      <c r="Q97">
+        <v>3906697695200</v>
+      </c>
+      <c r="R97">
+        <v>3888849147500</v>
+      </c>
+      <c r="S97">
+        <v>258835700</v>
+      </c>
+      <c r="T97">
+        <v>246734000</v>
+      </c>
+      <c r="U97">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V97">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W97">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X97">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y97">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z97">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA97">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB97">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC97">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-16984810500</v>
       </c>
+      <c r="Q98">
+        <v>3936783381900</v>
+      </c>
+      <c r="R98">
+        <v>3953768192400</v>
+      </c>
+      <c r="S98">
+        <v>260592900</v>
+      </c>
+      <c r="T98">
+        <v>250347200</v>
+      </c>
+      <c r="U98">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V98">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W98">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X98">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y98">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z98">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA98">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB98">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC98">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-58616115300</v>
       </c>
+      <c r="Q99">
+        <v>3977640600400</v>
+      </c>
+      <c r="R99">
+        <v>4036256715700</v>
+      </c>
+      <c r="S99">
+        <v>263004400</v>
+      </c>
+      <c r="T99">
+        <v>256068100</v>
+      </c>
+      <c r="U99">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V99">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W99">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X99">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y99">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z99">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA99">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB99">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC99">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-64375438400</v>
       </c>
+      <c r="Q100">
+        <v>4026623648000</v>
+      </c>
+      <c r="R100">
+        <v>4090999086400</v>
+      </c>
+      <c r="S100">
+        <v>265883600</v>
+      </c>
+      <c r="T100">
+        <v>259679500</v>
+      </c>
+      <c r="U100">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V100">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W100">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X100">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y100">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z100">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA100">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB100">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC100">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-82279360600</v>
       </c>
+      <c r="Q101">
+        <v>4059900177600</v>
+      </c>
+      <c r="R101">
+        <v>4142179538200</v>
+      </c>
+      <c r="S101">
+        <v>267872600</v>
+      </c>
+      <c r="T101">
+        <v>262987400</v>
+      </c>
+      <c r="U101">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V101">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W101">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X101">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y101">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z101">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA101">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB101">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC101">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-117362600000</v>
       </c>
+      <c r="Q102">
+        <v>4100997649300</v>
+      </c>
+      <c r="R102">
+        <v>4218360249300</v>
+      </c>
+      <c r="S102">
+        <v>270516100</v>
+      </c>
+      <c r="T102">
+        <v>267468600</v>
+      </c>
+      <c r="U102">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V102">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W102">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X102">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y102">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z102">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA102">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB102">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC102">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-192059218700</v>
       </c>
+      <c r="Q103">
+        <v>4125689503000</v>
+      </c>
+      <c r="R103">
+        <v>4317748721700</v>
+      </c>
+      <c r="S103">
+        <v>271963200</v>
+      </c>
+      <c r="T103">
+        <v>273649500</v>
+      </c>
+      <c r="U103">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V103">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W103">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X103">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y103">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z103">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA103">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB103">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC103">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-333274124100</v>
       </c>
+      <c r="Q104">
+        <v>4155407453000</v>
+      </c>
+      <c r="R104">
+        <v>4488681577100</v>
+      </c>
+      <c r="S104">
+        <v>273505000</v>
+      </c>
+      <c r="T104">
+        <v>284638900</v>
+      </c>
+      <c r="U104">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V104">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W104">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X104">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y104">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z104">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA104">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB104">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC104">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-494812350100</v>
       </c>
+      <c r="Q105">
+        <v>4201798855700</v>
+      </c>
+      <c r="R105">
+        <v>4696611205800</v>
+      </c>
+      <c r="S105">
+        <v>276255100</v>
+      </c>
+      <c r="T105">
+        <v>300299500</v>
+      </c>
+      <c r="U105">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V105">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W105">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X105">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y105">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z105">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA105">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB105">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC105">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-587562503900</v>
       </c>
+      <c r="Q106">
+        <v>4268245330900</v>
+      </c>
+      <c r="R106">
+        <v>4855807834800</v>
+      </c>
+      <c r="S106">
+        <v>280601500</v>
+      </c>
+      <c r="T106">
+        <v>311107900</v>
+      </c>
+      <c r="U106">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V106">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W106">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X106">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y106">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z106">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA106">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB106">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC106">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-636686342400</v>
       </c>
+      <c r="Q107">
+        <v>4333942783300</v>
+      </c>
+      <c r="R107">
+        <v>4970629125700</v>
+      </c>
+      <c r="S107">
+        <v>285074200</v>
+      </c>
+      <c r="T107">
+        <v>318709000</v>
+      </c>
+      <c r="U107">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V107">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W107">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X107">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y107">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z107">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA107">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB107">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC107">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-625456732900</v>
       </c>
+      <c r="Q108">
+        <v>4406849527100</v>
+      </c>
+      <c r="R108">
+        <v>5032306260000</v>
+      </c>
+      <c r="S108">
+        <v>290401000</v>
+      </c>
+      <c r="T108">
+        <v>323704400</v>
+      </c>
+      <c r="U108">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V108">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W108">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X108">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y108">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z108">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA108">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB108">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC108">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-580584016600</v>
       </c>
+      <c r="Q109">
+        <v>4493122193500</v>
+      </c>
+      <c r="R109">
+        <v>5073706210100</v>
+      </c>
+      <c r="S109">
+        <v>295552800</v>
+      </c>
+      <c r="T109">
+        <v>326350700</v>
+      </c>
+      <c r="U109">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V109">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W109">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X109">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y109">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z109">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA109">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB109">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC109">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-569585572200</v>
       </c>
+      <c r="Q110">
+        <v>4551528439300</v>
+      </c>
+      <c r="R110">
+        <v>5121114011500</v>
+      </c>
+      <c r="S110">
+        <v>298899100</v>
+      </c>
+      <c r="T110">
+        <v>328871400</v>
+      </c>
+      <c r="U110">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V110">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W110">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X110">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y110">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z110">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA110">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB110">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-650402686200</v>
       </c>
+      <c r="Q111">
+        <v>4578845064500</v>
+      </c>
+      <c r="R111">
+        <v>5229247750700</v>
+      </c>
+      <c r="S111">
+        <v>300779400</v>
+      </c>
+      <c r="T111">
+        <v>336251700</v>
+      </c>
+      <c r="U111">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V111">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W111">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X111">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y111">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z111">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA111">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB111">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC111">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-683081964000</v>
       </c>
+      <c r="Q112">
+        <v>4610448483000</v>
+      </c>
+      <c r="R112">
+        <v>5293530447000</v>
+      </c>
+      <c r="S112">
+        <v>302804200</v>
+      </c>
+      <c r="T112">
+        <v>340354100</v>
+      </c>
+      <c r="U112">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V112">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W112">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X112">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y112">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z112">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA112">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB112">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC112">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-742137630600</v>
       </c>
+      <c r="Q113">
+        <v>4639836850800</v>
+      </c>
+      <c r="R113">
+        <v>5381974481400</v>
+      </c>
+      <c r="S113">
+        <v>305109300</v>
+      </c>
+      <c r="T113">
+        <v>345343500</v>
+      </c>
+      <c r="U113">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V113">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W113">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X113">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y113">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z113">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA113">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB113">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC113">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-820588684000</v>
       </c>
+      <c r="Q114">
+        <v>4685337861100</v>
+      </c>
+      <c r="R114">
+        <v>5505926545100</v>
+      </c>
+      <c r="S114">
+        <v>307827400</v>
+      </c>
+      <c r="T114">
+        <v>352812700</v>
+      </c>
+      <c r="U114">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V114">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W114">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X114">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y114">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z114">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA114">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB114">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC114">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-885861887800</v>
       </c>
+      <c r="Q115">
+        <v>4741184292000</v>
+      </c>
+      <c r="R115">
+        <v>5627046179800</v>
+      </c>
+      <c r="S115">
+        <v>311246300</v>
+      </c>
+      <c r="T115">
+        <v>360879800</v>
+      </c>
+      <c r="U115">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V115">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W115">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X115">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y115">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z115">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA115">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB115">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC115">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-885741732800</v>
       </c>
+      <c r="Q116">
+        <v>4741582232000</v>
+      </c>
+      <c r="R116">
+        <v>5627323964800</v>
+      </c>
+      <c r="S116">
+        <v>311262300</v>
+      </c>
+      <c r="T116">
+        <v>360898000</v>
+      </c>
+      <c r="U116">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V116">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W116">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X116">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y116">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z116">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA116">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB116">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-888581118200</v>
       </c>
+      <c r="Q117">
+        <v>4775170693700</v>
+      </c>
+      <c r="R117">
+        <v>5663751811900</v>
+      </c>
+      <c r="S117">
+        <v>313581000</v>
+      </c>
+      <c r="T117">
+        <v>362748600</v>
+      </c>
+      <c r="U117">
+        <v>41165264600.9</v>
+      </c>
+      <c r="V117">
+        <v>48825446654.3</v>
+      </c>
+      <c r="W117">
+        <v>95219225326.7</v>
+      </c>
+      <c r="X117">
+        <v>6130660.3</v>
+      </c>
+      <c r="Y117">
+        <v>2703284.5</v>
+      </c>
+      <c r="Z117">
+        <v>3127143.1</v>
+      </c>
+      <c r="AA117">
+        <v>-423858.6</v>
+      </c>
+      <c r="AB117">
+        <v>-7660182053.4</v>
+      </c>
+      <c r="AC117">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>